--- a/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
+++ b/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880FBF7C-0A7C-46D0-9245-4D61E797CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF4B31-FFD3-4C71-91E1-0E683258F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6520" uniqueCount="1918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6988" uniqueCount="2068">
   <si>
     <t>Data Element Definition</t>
   </si>
@@ -7284,6 +7284,456 @@
   </si>
   <si>
     <t>Not Available</t>
+  </si>
+  <si>
+    <t>Children &amp; Families</t>
+  </si>
+  <si>
+    <t>Linking fields</t>
+  </si>
+  <si>
+    <t>DCF_Person_ID</t>
+  </si>
+  <si>
+    <t>Obfuscated Unique identifier for this person</t>
+  </si>
+  <si>
+    <t>State-assigned Student Identifier assigned by SDE</t>
+  </si>
+  <si>
+    <t>Name_Last</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Name_Middle</t>
+  </si>
+  <si>
+    <t>Middle Name/Initial</t>
+  </si>
+  <si>
+    <t>Name_First</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Birth_Date</t>
+  </si>
+  <si>
+    <t>Sex assigned at birth</t>
+  </si>
+  <si>
+    <t>Note: not a required field in the system and is often left blank unless this person is a child that enters DCF placement.</t>
+  </si>
+  <si>
+    <t>This is the Town in which the person lives during/on the date(s) included in the specific project criteria</t>
+  </si>
+  <si>
+    <t>Allegations</t>
+  </si>
+  <si>
+    <t>CASE_ID</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Case (proxy for Family/Household) assocated with this CPS Report in LINK.</t>
+  </si>
+  <si>
+    <t>REPORT_ID</t>
+  </si>
+  <si>
+    <t>A unique numeric value for each CPS Report in LINK</t>
+  </si>
+  <si>
+    <t>REPORT_RECEIVED</t>
+  </si>
+  <si>
+    <t>Datetime stamp indicating when the CPS Report was received and created in LINK by the Careline Worker</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>REPORT_ACCEPTED</t>
+  </si>
+  <si>
+    <t>Datetime stamp indicating when the CPS Report was Accepted for a DRS response in LINK by the Careline Worker</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>Type of entity on which the CPS Report involves: Family, DCF Licensed Provider, Other Provider</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>PERSON_ENTRUSTED</t>
+  </si>
+  <si>
+    <t>Whether the report includes a perpetrator who is an entrusted caregiver (i.e. teacher, coach, daycare provider, etc)</t>
+  </si>
+  <si>
+    <t>ALLEGATION_ID</t>
+  </si>
+  <si>
+    <t>A unique numeric value for each Allegation record associated with CPS Reports in LINK</t>
+  </si>
+  <si>
+    <t>VICTIM_ID</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Person identified as an alleged victim of abuse/neglect for this allegation record</t>
+  </si>
+  <si>
+    <t>VICTIM_AGE_RPT</t>
+  </si>
+  <si>
+    <t>Single-year age of the alleged victim on the Report Received Date</t>
+  </si>
+  <si>
+    <t>VICTIM_SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The alleged victim's sex assigned at birth </t>
+  </si>
+  <si>
+    <t>VICTIM_RACE_ETHN_COMBO</t>
+  </si>
+  <si>
+    <t>The alleged victim's combined race/ethnicity (i.e. Hispanic, White)</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_ID</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Person identified as an alleged perpetrator of abuse/neglect against the identified alleged victim for this allegation record</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_AGE_RPT</t>
+  </si>
+  <si>
+    <t>Single-year age of the alleged perpetrator on the Report Received Date</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The alleged perpetrator's sex assigned at birth </t>
+  </si>
+  <si>
+    <t>PERPETRATOR_RACE_ETHN_COMBO</t>
+  </si>
+  <si>
+    <t>The alleged perpetrator's combined race/ethnicity (i.e. Hispanic, White)</t>
+  </si>
+  <si>
+    <t>AB_NEG_TYPE</t>
+  </si>
+  <si>
+    <t>The type of abuse/neglect alleged to have been perpetrated against the identified victim by the identified perpetrator for this allegation record.</t>
+  </si>
+  <si>
+    <t>ALLEG_DESCRIPTION1</t>
+  </si>
+  <si>
+    <t>One of three possible more detailed descriptions of the circumstances/factors associated with this allegation</t>
+  </si>
+  <si>
+    <t>ALLEG_DESCRIPTION2</t>
+  </si>
+  <si>
+    <t>ALLEG_DESCRIPTION3</t>
+  </si>
+  <si>
+    <t>SUBSTANTIATION</t>
+  </si>
+  <si>
+    <t>The determination of whether DCF has reasonable cause to believe (or clear and convincing evidence if appealed) that this type of abuse/neglect was perpetrated against the identified victim by the identified perpetrator based on the results of investigation of this CPS Report:  Pending, Substantiated, Unsubstantiated.  Please note: if this allegation is solely associated with a Family Assessment Response the value will remain "Pending" though there is no substantiation decision made at all in such responses.</t>
+  </si>
+  <si>
+    <t>CENTRAL_REGISTRY</t>
+  </si>
+  <si>
+    <t>The determination of whether DCF believes the identified perpetrator represents a continuing threat of abuse/neglect to children on the basis of the results of investigation of this allegation.</t>
+  </si>
+  <si>
+    <t>RESPONSE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the type of differential response that ultimately handled these allegations.  A report can be initially handled through a Family Assessment Response (FAR), but later change tracks to Investigation, but the reverse workflow is not possible.  Valid values are: Family Assessment, FAR Track Changed, Investigation, Pending </t>
+  </si>
+  <si>
+    <t>RESPONSE_ID</t>
+  </si>
+  <si>
+    <t>This is the unique identifier for the response associated with these allegation records.</t>
+  </si>
+  <si>
+    <t>RESPONSE_BEGIN_DATE</t>
+  </si>
+  <si>
+    <t>Datetime of the first attempted face-to-face contact between assigned DCF Social Worker and a family member for this DRS response</t>
+  </si>
+  <si>
+    <t>RESPONSE_DUE_DATE</t>
+  </si>
+  <si>
+    <t>Completion due date for this DRS response</t>
+  </si>
+  <si>
+    <t>RESPONSE_END_DATE</t>
+  </si>
+  <si>
+    <t>Actual completion date for this DRS response</t>
+  </si>
+  <si>
+    <t>DCF_OFFICE</t>
+  </si>
+  <si>
+    <t>DCF Office in which the DCF Social Worker assigned to respond to this report was working at the time of their response.</t>
+  </si>
+  <si>
+    <t>DCF_REGION</t>
+  </si>
+  <si>
+    <t>DCF Region in which the DCF Social Worker assigned to respond to this report was working at the time of their response.</t>
+  </si>
+  <si>
+    <t>HOUSING_INDIC</t>
+  </si>
+  <si>
+    <t>Indicator (Y/N) showing whether unstable/inadequate Housing was found to be a factor in this case as documented in multiple pieces of work associated with this report/response.</t>
+  </si>
+  <si>
+    <t>INT_PRTNR_VLNC_INDIC</t>
+  </si>
+  <si>
+    <t>Indicator (Y/N) showing whether Intimate Partner Violence was found to be a factor in this case as documented in multiple pieces of work associated with this report/response.</t>
+  </si>
+  <si>
+    <t>MNTL_HLTH_INDIC</t>
+  </si>
+  <si>
+    <t>Indicator (Y/N) showing whether Mental Health was found to be a factor in this case as documented in multiple pieces of work associated with this report/response.</t>
+  </si>
+  <si>
+    <t>SUBSTANCE_USE_INDIC</t>
+  </si>
+  <si>
+    <t>Indicator (Y/N) showing whether Substance Use/Abuse was found to be a factor in this case as documented in multiple pieces of work associated with this report/response.</t>
+  </si>
+  <si>
+    <t>Child Welfare Placements</t>
+  </si>
+  <si>
+    <t>EPISODE_ID</t>
+  </si>
+  <si>
+    <t>A unique numeric value for each episode of involvement of a specific person during either DCF In-Home or DCF Out-of-Home service time periods</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Case (proxy for Family/Household) assocated with this Episode record in ROM</t>
+  </si>
+  <si>
+    <t>CIP_ID</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Person (child-in-placement or CIP) identified associated with this Episode record</t>
+  </si>
+  <si>
+    <t>CIP_AGE_EPSD_STRT</t>
+  </si>
+  <si>
+    <t>Single-year age of the CIP on the Episode Start Date</t>
+  </si>
+  <si>
+    <t>CIP_AGE_PLCMNT_STRT</t>
+  </si>
+  <si>
+    <t>Single-year age of the CIP on this Placement's Start Date</t>
+  </si>
+  <si>
+    <t>CIP_SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CIP's sex assigned at birth </t>
+  </si>
+  <si>
+    <t>CIP_RACE_ETHN_COMBO</t>
+  </si>
+  <si>
+    <t>The CIP's combined race/ethnicity (i.e. Hispanic, White)</t>
+  </si>
+  <si>
+    <t>EPISODE_START_DATE</t>
+  </si>
+  <si>
+    <t>The start date of this DCF out-of-home care episode for the associated Person</t>
+  </si>
+  <si>
+    <t>EPISODE_END_DATE</t>
+  </si>
+  <si>
+    <t>The end date of this DCF out-of-home care episode</t>
+  </si>
+  <si>
+    <t>EPISODE_END_REASON</t>
+  </si>
+  <si>
+    <t>The end/discharge reason for this out-of-home care episode:  Not Applicable, Reunification, Guardianship, Adoption, Living with Other Relative(s), Emancipation, Transfer to Another Agency (i.e. DDS or DMHAS), Runaway, Death of Child, Missing/Unknown</t>
+  </si>
+  <si>
+    <t>PRIOR_FOSTER_CARE_EPISODES</t>
+  </si>
+  <si>
+    <t>Number of episodes of DCF out-of-home care that occurred prior to this episode record</t>
+  </si>
+  <si>
+    <t>NEXT_EPISODE_START_DATE</t>
+  </si>
+  <si>
+    <t>The start date of this child's next legal episode in DCF custody/guardianship.</t>
+  </si>
+  <si>
+    <t>PLACEMENT_RECORD_ID</t>
+  </si>
+  <si>
+    <t>A unique identifier for this specific placement record</t>
+  </si>
+  <si>
+    <t>PLACEMENT_START_DATE</t>
+  </si>
+  <si>
+    <t>The start date of this placement</t>
+  </si>
+  <si>
+    <t>PLACEMENT_END_DATE</t>
+  </si>
+  <si>
+    <t>The end date of this placement</t>
+  </si>
+  <si>
+    <t>PLACEMENT_END_REASON</t>
+  </si>
+  <si>
+    <t>The reason that this placement was ended</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>A unique identifier for this specific placement provider</t>
+  </si>
+  <si>
+    <t>PLACEMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>The category that describes the type of service delivered by this placement provider for this child</t>
+  </si>
+  <si>
+    <t>PLACEMENT_SERVICE_TYPE</t>
+  </si>
+  <si>
+    <t>The specific service type as entered into LINK that describes the type of service delivered by this placement provider for this child</t>
+  </si>
+  <si>
+    <t>PIE Service Episodes</t>
+  </si>
+  <si>
+    <t>A system-generated unique numeric value for each PIE service episode</t>
+  </si>
+  <si>
+    <t>PERSON_ID</t>
+  </si>
+  <si>
+    <t>A system-generated unique numeric value for each Person with a PIE service episode</t>
+  </si>
+  <si>
+    <t>PERSON_AGE_EPSD_STRT</t>
+  </si>
+  <si>
+    <t>Single-year age of the client/person on this Episode's Start Date</t>
+  </si>
+  <si>
+    <t>PERSON_SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client/person's sex assigned at birth </t>
+  </si>
+  <si>
+    <t>PERSON_RACE_ETHN_COMBO</t>
+  </si>
+  <si>
+    <t>The client/person's combined race/ethnicity (i.e. Hispanic, White)</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>The acronym for the service (program) that was delivered for this episode</t>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The acronym for the direct provider (agency/organization) that delivered this episode.  </t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>The acronym for the site/location from which this provider delivered this service to the client during this episode</t>
+  </si>
+  <si>
+    <t>REFERRAL_SOURCE</t>
+  </si>
+  <si>
+    <t>The source of the referral for this episode.  Please note that each program model has picked their own subset of all available values to utilize for this field.</t>
+  </si>
+  <si>
+    <t>REFERRAL_DATE</t>
+  </si>
+  <si>
+    <t>The date the provider received the referral for this episode</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPE</t>
+  </si>
+  <si>
+    <t>A specific sub-type of service provided for this episode.  Most programs do not use this field, but it is important for those few that do so.</t>
+  </si>
+  <si>
+    <t>EVALUATION_ONLY</t>
+  </si>
+  <si>
+    <t>Whether or not the episode was terminated early, and prior to receipt of substantive services.  Definitions/criteria for this element vary by program model.  This field is used to filter out episodes that should not be included for outcome evaluation beyond engagement into services.</t>
+  </si>
+  <si>
+    <t>DCF_STATUS_INTAKE</t>
+  </si>
+  <si>
+    <t>The status of the client in relation to active/direct receipt of DCF services on the episode start date.</t>
+  </si>
+  <si>
+    <t>The end/discharge reason for this episode of service.  Please note that each program model has picked their own subset of all available values to utilize for this field, and those custom lists have changed over time for some programs.  Further details are available on request.</t>
+  </si>
+  <si>
+    <t>MET_TREATMENT_GOALS</t>
+  </si>
+  <si>
+    <t>Whether or not the client's episode of service was considered successful, according to program-specific criteria.  Please note this is a very soft/generic indicator of success, and most programs also have more stringent/robust measures as well, but which are not generalizable across programs in the same manner as this field.</t>
+  </si>
+  <si>
+    <t>DCF_STATUS_DISCHARGE</t>
+  </si>
+  <si>
+    <t>The status of the client in relation to active/direct receipt of DCF services on the episode end date.</t>
+  </si>
+  <si>
+    <t>Department of Children and Families (DCF)</t>
   </si>
 </sst>
 </file>
@@ -7412,7 +7862,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7497,9 +7947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7852,11 +8299,11 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ998"/>
+  <dimension ref="A1:AJ1075"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B835" sqref="B835"/>
+      <pane ySplit="1" topLeftCell="A765" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A998" sqref="A998:A1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31493,11 +31940,1564 @@
       </c>
     </row>
     <row r="998" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B998" s="35"/>
-      <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="37"/>
-      <c r="F998" s="5"/>
+      <c r="A998" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B998" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C998" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D998" s="28" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E998" s="29" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F998" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A999" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B999" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C999" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D999" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E999" s="29" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F999" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1000" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1000" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1000" s="28" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E1000" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1000" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1001" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1001" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1001" s="28" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E1001" s="29" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F1001" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1002" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1002" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1002" s="28" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E1002" s="29" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F1002" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1003" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1003" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1003" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1003" s="28" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E1003" s="29" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F1003" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1004" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1004" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1004" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1004" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1004" s="29" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F1004" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1005" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1005" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1005" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1005" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1005" s="29" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F1005" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1006" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1006" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1006" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1006" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1006" s="29" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F1006" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1007" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1007" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1007" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1007" s="28" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1007" s="29" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F1007" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1008" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1008" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1008" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1008" s="28" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E1008" s="29" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F1008" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1009" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1009" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1009" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1009" s="28" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E1009" s="29" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F1009" s="28" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1010" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1010" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1010" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1010" s="28" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1010" s="29" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F1010" s="28" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1011" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1011" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1011" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1011" s="28" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1011" s="29" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F1011" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1012" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1012" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1012" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1012" s="28" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E1012" s="29" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F1012" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1013" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1013" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1013" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1013" s="28" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E1013" s="29" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F1013" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1014" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1014" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1014" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1014" s="28" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E1014" s="29" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F1014" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1015" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1015" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1015" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1015" s="28" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E1015" s="29" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F1015" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1016" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1016" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1016" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1016" s="28" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E1016" s="29" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F1016" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1017" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1017" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1017" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1017" s="28" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E1017" s="29" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F1017" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1018" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1018" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1018" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1018" s="28" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E1018" s="29" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F1018" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1019" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1019" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1019" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1019" s="28" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E1019" s="29" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F1019" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1020" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1020" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1020" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1020" s="28" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E1020" s="29" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1020" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1021" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1021" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1021" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1021" s="28" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E1021" s="29" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F1021" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1022" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1022" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1022" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1022" s="28" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1022" s="29" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F1022" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1023" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1023" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1023" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1023" s="28" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E1023" s="29" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F1023" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1024" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1024" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1024" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1024" s="28" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E1024" s="29" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F1024" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1025" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1025" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1025" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1025" s="28" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1025" s="29" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F1025" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1026" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1026" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1026" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1026" s="28" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E1026" s="29" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F1026" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1027" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1027" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1027" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1027" s="28" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E1027" s="29" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F1027" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1028" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1028" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1028" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1028" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E1028" s="29" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F1028" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1029" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1029" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1029" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1029" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E1029" s="29" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F1029" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1030" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1030" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1030" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1030" s="28" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1030" s="29" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F1030" s="28" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1031" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1031" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1031" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1031" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E1031" s="29" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F1031" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1032" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1032" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1032" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1032" s="28" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E1032" s="29" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F1032" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1033" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1033" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1033" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1033" s="28" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E1033" s="29" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F1033" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1034" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1034" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1034" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1034" s="28" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E1034" s="29" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1034" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1035" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1035" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1035" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1035" s="28" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E1035" s="29" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F1035" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1036" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1036" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1036" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1036" s="28" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E1036" s="29" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F1036" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1037" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1037" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1037" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1037" s="28" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E1037" s="29" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F1037" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1038" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1038" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1038" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1038" s="28" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E1038" s="29" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F1038" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1039" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1039" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1039" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1039" s="28" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E1039" s="29" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F1039" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1040" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1040" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1040" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1040" s="28" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1040" s="29" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F1040" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1041" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1041" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1041" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1041" s="28" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E1041" s="29" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F1041" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1042" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1042" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1042" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1042" s="28" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E1042" s="29" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F1042" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1043" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1043" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1043" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1043" s="28" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E1043" s="29" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F1043" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1044" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1044" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1044" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1044" s="28" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E1044" s="29" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F1044" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1045" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1045" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1045" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1045" s="28" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E1045" s="29" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F1045" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1046" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1046" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1046" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1046" s="28" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1046" s="29" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F1046" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1047" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1047" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1047" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1047" s="28" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E1047" s="29" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F1047" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1048" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1048" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1048" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1048" s="28" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E1048" s="29" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F1048" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1049" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1049" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1049" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1049" s="28" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1049" s="29" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F1049" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1050" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1050" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1050" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1050" s="28" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E1050" s="29" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F1050" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1051" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1051" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1051" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1051" s="28" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E1051" s="29" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F1051" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1052" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1052" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1052" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1052" s="28" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1052" s="29" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1052" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1053" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1053" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1053" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1053" s="28" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1053" s="29" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F1053" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1054" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1054" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1054" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1054" s="28" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E1054" s="29" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F1054" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1055" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1055" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1055" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1055" s="28" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E1055" s="29" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F1055" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1056" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1056" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1056" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1056" s="28" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E1056" s="29" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F1056" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1057" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1057" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1057" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1057" s="28" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E1057" s="29" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F1057" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1058" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1058" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1058" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1058" s="28" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E1058" s="29" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1058" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1059" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1059" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1059" s="28" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E1059" s="29" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F1059" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1060" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1060" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1060" s="28" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E1060" s="29" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F1060" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1061" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1061" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1061" s="28" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E1061" s="29" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F1061" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1062" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1062" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1062" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E1062" s="29" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F1062" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1063" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1063" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1063" s="28" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E1063" s="29" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F1063" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1064" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1064" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1064" s="28" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E1064" s="29" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F1064" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1065" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1065" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1065" s="28" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E1065" s="29" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F1065" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1066" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1066" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1066" s="28" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E1066" s="29" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F1066" s="28" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1067" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1067" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1067" s="28" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E1067" s="29" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F1067" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1068" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1068" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1068" s="28" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E1068" s="29" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F1068" s="28" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1069" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1069" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1069" s="28" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E1069" s="29" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F1069" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1070" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1070" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1070" s="28" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E1070" s="29" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1070" s="28" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1071" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1071" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1071" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1071" s="28" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1071" s="29" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F1071" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1072" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1072" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1072" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1072" s="28" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E1072" s="29" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F1072" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1073" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1073" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1073" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1073" s="28" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E1073" s="29" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F1073" s="28" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1074" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1074" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1074" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1074" s="28" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E1074" s="29" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F1074" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1075" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1075" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1075" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1075" s="28" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E1075" s="29" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F1075" s="28" t="s">
+        <v>1619</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
+++ b/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\P20 WIN Data Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F208225-904B-4539-B89E-22C0FD73F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE10006-4427-4501-AE46-F1D68A9889AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DD - Final" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DD - Final'!$A$1:$G$997</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DD - Final'!$A$1:$G$1075</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'DD - Final'!$A$1:$E$849</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'DD - Final'!$1:$1</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6988" uniqueCount="2068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6988" uniqueCount="2072">
   <si>
     <t>Data Element Definition</t>
   </si>
@@ -7283,9 +7283,6 @@
     <t>Indicator for if employer receives funding through the Manufacturing Innovation Fund</t>
   </si>
   <si>
-    <t>Not Available</t>
-  </si>
-  <si>
     <t>Children &amp; Families</t>
   </si>
   <si>
@@ -7734,6 +7731,21 @@
   </si>
   <si>
     <t>Department of Children and Families (DCF)</t>
+  </si>
+  <si>
+    <t>CCIC All Programs</t>
+  </si>
+  <si>
+    <t>OEC All Programs</t>
+  </si>
+  <si>
+    <t>OHE All Programs</t>
+  </si>
+  <si>
+    <t>SDE All Programs</t>
+  </si>
+  <si>
+    <t>UConn All Programs</t>
   </si>
 </sst>
 </file>
@@ -8302,8 +8314,8 @@
   <dimension ref="A1:AJ1075"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8377,7 +8389,7 @@
         <v>1833</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>224</v>
@@ -8427,7 +8439,7 @@
         <v>1833</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>224</v>
@@ -8477,7 +8489,7 @@
         <v>1833</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>224</v>
@@ -8527,7 +8539,7 @@
         <v>1833</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>224</v>
@@ -8577,7 +8589,7 @@
         <v>1833</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>224</v>
@@ -8627,7 +8639,7 @@
         <v>1833</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>224</v>
@@ -8677,7 +8689,7 @@
         <v>1833</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>224</v>
@@ -8727,7 +8739,7 @@
         <v>1833</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>224</v>
@@ -8777,7 +8789,7 @@
         <v>1833</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>224</v>
@@ -8827,7 +8839,7 @@
         <v>1833</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>224</v>
@@ -8877,7 +8889,7 @@
         <v>1833</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>224</v>
@@ -8924,7 +8936,7 @@
         <v>1833</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>224</v>
@@ -8971,7 +8983,7 @@
         <v>1833</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>224</v>
@@ -8992,7 +9004,7 @@
         <v>1833</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>224</v>
@@ -9013,7 +9025,7 @@
         <v>1833</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>224</v>
@@ -9034,7 +9046,7 @@
         <v>1833</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>224</v>
@@ -9055,7 +9067,7 @@
         <v>1833</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>224</v>
@@ -9076,7 +9088,7 @@
         <v>1833</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>224</v>
@@ -9097,7 +9109,7 @@
         <v>1833</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>401</v>
@@ -9118,7 +9130,7 @@
         <v>1833</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>401</v>
@@ -9139,7 +9151,7 @@
         <v>1833</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>401</v>
@@ -9160,7 +9172,7 @@
         <v>1833</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>401</v>
@@ -9181,7 +9193,7 @@
         <v>1833</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>401</v>
@@ -9202,7 +9214,7 @@
         <v>1833</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>401</v>
@@ -9223,7 +9235,7 @@
         <v>1833</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>401</v>
@@ -9244,7 +9256,7 @@
         <v>1833</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>401</v>
@@ -9265,7 +9277,7 @@
         <v>1833</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>401</v>
@@ -9286,7 +9298,7 @@
         <v>1833</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>401</v>
@@ -9307,7 +9319,7 @@
         <v>1833</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>401</v>
@@ -9328,7 +9340,7 @@
         <v>1833</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>401</v>
@@ -9349,7 +9361,7 @@
         <v>1833</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>228</v>
@@ -9370,7 +9382,7 @@
         <v>1833</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>228</v>
@@ -9391,7 +9403,7 @@
         <v>1833</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>47</v>
@@ -9412,7 +9424,7 @@
         <v>1833</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>47</v>
@@ -9433,7 +9445,7 @@
         <v>1833</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>47</v>
@@ -9454,7 +9466,7 @@
         <v>1833</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>47</v>
@@ -9475,7 +9487,7 @@
         <v>1833</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>47</v>
@@ -9496,7 +9508,7 @@
         <v>1833</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>47</v>
@@ -9517,7 +9529,7 @@
         <v>1833</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>47</v>
@@ -9538,7 +9550,7 @@
         <v>1833</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>47</v>
@@ -9559,7 +9571,7 @@
         <v>1833</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>47</v>
@@ -9580,7 +9592,7 @@
         <v>1833</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>47</v>
@@ -9601,7 +9613,7 @@
         <v>1833</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>47</v>
@@ -9622,7 +9634,7 @@
         <v>1833</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>47</v>
@@ -9643,7 +9655,7 @@
         <v>1833</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>47</v>
@@ -9664,7 +9676,7 @@
         <v>1833</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>47</v>
@@ -9685,7 +9697,7 @@
         <v>1833</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>47</v>
@@ -9706,7 +9718,7 @@
         <v>1833</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>47</v>
@@ -9727,7 +9739,7 @@
         <v>1833</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>47</v>
@@ -9748,7 +9760,7 @@
         <v>1833</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>47</v>
@@ -9769,7 +9781,7 @@
         <v>1833</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>47</v>
@@ -9790,7 +9802,7 @@
         <v>1833</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>47</v>
@@ -9811,7 +9823,7 @@
         <v>1833</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>47</v>
@@ -9832,7 +9844,7 @@
         <v>1833</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>47</v>
@@ -9853,7 +9865,7 @@
         <v>1833</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>47</v>
@@ -9874,7 +9886,7 @@
         <v>1833</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>47</v>
@@ -9895,7 +9907,7 @@
         <v>1833</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>47</v>
@@ -9916,7 +9928,7 @@
         <v>1833</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>47</v>
@@ -9937,7 +9949,7 @@
         <v>1833</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>47</v>
@@ -9958,7 +9970,7 @@
         <v>1833</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>47</v>
@@ -9979,7 +9991,7 @@
         <v>1833</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>47</v>
@@ -10000,7 +10012,7 @@
         <v>1833</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>47</v>
@@ -10021,7 +10033,7 @@
         <v>1833</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>47</v>
@@ -10042,7 +10054,7 @@
         <v>1833</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>47</v>
@@ -10063,7 +10075,7 @@
         <v>1833</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>47</v>
@@ -10084,7 +10096,7 @@
         <v>1833</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>47</v>
@@ -10105,7 +10117,7 @@
         <v>1833</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>222</v>
@@ -10126,7 +10138,7 @@
         <v>1833</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>222</v>
@@ -10147,7 +10159,7 @@
         <v>1833</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>222</v>
@@ -10168,7 +10180,7 @@
         <v>1833</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>222</v>
@@ -10189,7 +10201,7 @@
         <v>1833</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>222</v>
@@ -10210,7 +10222,7 @@
         <v>1833</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>222</v>
@@ -10231,7 +10243,7 @@
         <v>1833</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>222</v>
@@ -10252,7 +10264,7 @@
         <v>1833</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>222</v>
@@ -10273,7 +10285,7 @@
         <v>1833</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>222</v>
@@ -10294,7 +10306,7 @@
         <v>1833</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>222</v>
@@ -10315,7 +10327,7 @@
         <v>1833</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>222</v>
@@ -10336,7 +10348,7 @@
         <v>1833</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>222</v>
@@ -10357,7 +10369,7 @@
         <v>1833</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>222</v>
@@ -10378,7 +10390,7 @@
         <v>1833</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>222</v>
@@ -10399,7 +10411,7 @@
         <v>1833</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>222</v>
@@ -10420,7 +10432,7 @@
         <v>1833</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>222</v>
@@ -10441,7 +10453,7 @@
         <v>1833</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>222</v>
@@ -10462,7 +10474,7 @@
         <v>1833</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>222</v>
@@ -10483,7 +10495,7 @@
         <v>1833</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>222</v>
@@ -10504,7 +10516,7 @@
         <v>1833</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>222</v>
@@ -10525,7 +10537,7 @@
         <v>1833</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>222</v>
@@ -10546,7 +10558,7 @@
         <v>1833</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>222</v>
@@ -10567,7 +10579,7 @@
         <v>1833</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>222</v>
@@ -10588,7 +10600,7 @@
         <v>1833</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>222</v>
@@ -10609,7 +10621,7 @@
         <v>1833</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>222</v>
@@ -10630,7 +10642,7 @@
         <v>1833</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>222</v>
@@ -10651,7 +10663,7 @@
         <v>1833</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>230</v>
@@ -10672,7 +10684,7 @@
         <v>1833</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>1917</v>
+        <v>2067</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>230</v>
@@ -15004,99 +15016,99 @@
     </row>
     <row r="242" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C242" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D242" s="28" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E242" s="29" t="s">
         <v>1966</v>
       </c>
-      <c r="E242" s="29" t="s">
-        <v>1967</v>
-      </c>
       <c r="F242" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C243" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D243" s="28" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E243" s="29" t="s">
         <v>1968</v>
       </c>
-      <c r="E243" s="29" t="s">
-        <v>1969</v>
-      </c>
       <c r="F243" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C244" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E244" s="29" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F244" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C245" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E245" s="29" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F245" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C246" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D246" s="28" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E246" s="29" t="s">
         <v>1948</v>
-      </c>
-      <c r="E246" s="29" t="s">
-        <v>1949</v>
       </c>
       <c r="F246" s="28" t="s">
         <v>1862</v>
@@ -15104,19 +15116,19 @@
     </row>
     <row r="247" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C247" s="28" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D247" s="28" t="s">
         <v>1933</v>
       </c>
-      <c r="D247" s="28" t="s">
+      <c r="E247" s="29" t="s">
         <v>1934</v>
-      </c>
-      <c r="E247" s="29" t="s">
-        <v>1935</v>
       </c>
       <c r="F247" s="28" t="s">
         <v>1862</v>
@@ -15124,139 +15136,139 @@
     </row>
     <row r="248" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C248" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D248" s="28" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E248" s="29" t="s">
         <v>1974</v>
       </c>
-      <c r="E248" s="29" t="s">
-        <v>1975</v>
-      </c>
       <c r="F248" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C249" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D249" s="28" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E249" s="29" t="s">
         <v>1986</v>
       </c>
-      <c r="E249" s="29" t="s">
-        <v>1987</v>
-      </c>
       <c r="F249" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C250" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D250" s="28" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E250" s="29" t="s">
         <v>1988</v>
       </c>
-      <c r="E250" s="29" t="s">
-        <v>1989</v>
-      </c>
       <c r="F250" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D251" s="28" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E251" s="29" t="s">
         <v>1990</v>
       </c>
-      <c r="E251" s="29" t="s">
-        <v>1991</v>
-      </c>
       <c r="F251" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D252" s="28" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E252" s="29" t="s">
         <v>1992</v>
       </c>
-      <c r="E252" s="29" t="s">
-        <v>1993</v>
-      </c>
       <c r="F252" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D253" s="28" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E253" s="29" t="s">
         <v>1994</v>
       </c>
-      <c r="E253" s="29" t="s">
-        <v>1995</v>
-      </c>
       <c r="F253" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D254" s="28" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E254" s="29" t="s">
         <v>1960</v>
-      </c>
-      <c r="E254" s="29" t="s">
-        <v>1961</v>
       </c>
       <c r="F254" s="28" t="s">
         <v>1862</v>
@@ -15264,19 +15276,19 @@
     </row>
     <row r="255" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D255" s="28" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E255" s="29" t="s">
         <v>1958</v>
-      </c>
-      <c r="E255" s="29" t="s">
-        <v>1959</v>
       </c>
       <c r="F255" s="28" t="s">
         <v>1862</v>
@@ -15284,99 +15296,99 @@
     </row>
     <row r="256" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D256" s="28" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E256" s="29" t="s">
         <v>1964</v>
       </c>
-      <c r="E256" s="29" t="s">
-        <v>1965</v>
-      </c>
       <c r="F256" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D257" s="28" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E257" s="29" t="s">
         <v>1962</v>
       </c>
-      <c r="E257" s="29" t="s">
-        <v>1963</v>
-      </c>
       <c r="F257" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D258" s="28" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E258" s="29" t="s">
         <v>1946</v>
       </c>
-      <c r="E258" s="29" t="s">
-        <v>1947</v>
-      </c>
       <c r="F258" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D259" s="28" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E259" s="29" t="s">
         <v>1941</v>
       </c>
-      <c r="E259" s="29" t="s">
-        <v>1942</v>
-      </c>
       <c r="F259" s="28" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D260" s="28" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E260" s="29" t="s">
         <v>1936</v>
-      </c>
-      <c r="E260" s="29" t="s">
-        <v>1937</v>
       </c>
       <c r="F260" s="28" t="s">
         <v>1862</v>
@@ -15384,79 +15396,79 @@
     </row>
     <row r="261" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D261" s="28" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E261" s="29" t="s">
         <v>1938</v>
       </c>
-      <c r="E261" s="29" t="s">
+      <c r="F261" s="28" t="s">
         <v>1939</v>
-      </c>
-      <c r="F261" s="28" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D262" s="28" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E262" s="29" t="s">
         <v>1943</v>
       </c>
-      <c r="E262" s="29" t="s">
+      <c r="F262" s="28" t="s">
         <v>1944</v>
-      </c>
-      <c r="F262" s="28" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D263" s="28" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E263" s="29" t="s">
         <v>1980</v>
       </c>
-      <c r="E263" s="29" t="s">
-        <v>1981</v>
-      </c>
       <c r="F263" s="28" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D264" s="28" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E264" s="29" t="s">
         <v>1982</v>
-      </c>
-      <c r="E264" s="29" t="s">
-        <v>1983</v>
       </c>
       <c r="F264" s="28" t="s">
         <v>1665</v>
@@ -15464,19 +15476,19 @@
     </row>
     <row r="265" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D265" s="28" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E265" s="29" t="s">
         <v>1984</v>
-      </c>
-      <c r="E265" s="29" t="s">
-        <v>1985</v>
       </c>
       <c r="F265" s="28" t="s">
         <v>1665</v>
@@ -15484,19 +15496,19 @@
     </row>
     <row r="266" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D266" s="28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E266" s="29" t="s">
         <v>1978</v>
-      </c>
-      <c r="E266" s="29" t="s">
-        <v>1979</v>
       </c>
       <c r="F266" s="28" t="s">
         <v>1862</v>
@@ -15504,79 +15516,79 @@
     </row>
     <row r="267" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D267" s="28" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E267" s="29" t="s">
         <v>1976</v>
       </c>
-      <c r="E267" s="29" t="s">
-        <v>1977</v>
-      </c>
       <c r="F267" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D268" s="28" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E268" s="29" t="s">
         <v>1996</v>
       </c>
-      <c r="E268" s="29" t="s">
-        <v>1997</v>
-      </c>
       <c r="F268" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D269" s="28" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E269" s="29" t="s">
         <v>1972</v>
       </c>
-      <c r="E269" s="29" t="s">
-        <v>1973</v>
-      </c>
       <c r="F269" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D270" s="28" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E270" s="29" t="s">
         <v>1952</v>
-      </c>
-      <c r="E270" s="29" t="s">
-        <v>1953</v>
       </c>
       <c r="F270" s="28" t="s">
         <v>1862</v>
@@ -15584,19 +15596,19 @@
     </row>
     <row r="271" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D271" s="28" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E271" s="29" t="s">
         <v>1950</v>
-      </c>
-      <c r="E271" s="29" t="s">
-        <v>1951</v>
       </c>
       <c r="F271" s="28" t="s">
         <v>1862</v>
@@ -15604,59 +15616,59 @@
     </row>
     <row r="272" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D272" s="28" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E272" s="29" t="s">
         <v>1956</v>
       </c>
-      <c r="E272" s="29" t="s">
-        <v>1957</v>
-      </c>
       <c r="F272" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D273" s="28" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E273" s="29" t="s">
         <v>1954</v>
       </c>
-      <c r="E273" s="29" t="s">
-        <v>1955</v>
-      </c>
       <c r="F273" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E274" s="29" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F274" s="28" t="s">
         <v>1862</v>
@@ -15664,19 +15676,19 @@
     </row>
     <row r="275" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D275" s="28" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E275" s="29" t="s">
         <v>2004</v>
-      </c>
-      <c r="E275" s="29" t="s">
-        <v>2005</v>
       </c>
       <c r="F275" s="28" t="s">
         <v>1862</v>
@@ -15684,19 +15696,19 @@
     </row>
     <row r="276" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D276" s="28" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E276" s="29" t="s">
         <v>2006</v>
-      </c>
-      <c r="E276" s="29" t="s">
-        <v>2007</v>
       </c>
       <c r="F276" s="28" t="s">
         <v>1862</v>
@@ -15704,19 +15716,19 @@
     </row>
     <row r="277" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D277" s="28" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E277" s="29" t="s">
         <v>2002</v>
-      </c>
-      <c r="E277" s="29" t="s">
-        <v>2003</v>
       </c>
       <c r="F277" s="28" t="s">
         <v>1862</v>
@@ -15724,59 +15736,59 @@
     </row>
     <row r="278" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D278" s="28" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E278" s="29" t="s">
         <v>2010</v>
       </c>
-      <c r="E278" s="29" t="s">
-        <v>2011</v>
-      </c>
       <c r="F278" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D279" s="28" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E279" s="29" t="s">
         <v>2008</v>
       </c>
-      <c r="E279" s="29" t="s">
-        <v>2009</v>
-      </c>
       <c r="F279" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D280" s="28" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E280" s="29" t="s">
         <v>2014</v>
-      </c>
-      <c r="E280" s="29" t="s">
-        <v>2015</v>
       </c>
       <c r="F280" s="28" t="s">
         <v>1665</v>
@@ -15784,39 +15796,39 @@
     </row>
     <row r="281" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D281" s="28" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E281" s="29" t="s">
         <v>2016</v>
       </c>
-      <c r="E281" s="29" t="s">
-        <v>2017</v>
-      </c>
       <c r="F281" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C282" s="28" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D282" s="28" t="s">
         <v>1998</v>
       </c>
-      <c r="D282" s="28" t="s">
+      <c r="E282" s="29" t="s">
         <v>1999</v>
-      </c>
-      <c r="E282" s="29" t="s">
-        <v>2000</v>
       </c>
       <c r="F282" s="28" t="s">
         <v>1862</v>
@@ -15824,19 +15836,19 @@
     </row>
     <row r="283" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D283" s="28" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E283" s="29" t="s">
         <v>2012</v>
-      </c>
-      <c r="E283" s="29" t="s">
-        <v>2013</v>
       </c>
       <c r="F283" s="28" t="s">
         <v>1665</v>
@@ -15844,19 +15856,19 @@
     </row>
     <row r="284" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D284" s="28" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E284" s="29" t="s">
         <v>2020</v>
-      </c>
-      <c r="E284" s="29" t="s">
-        <v>2021</v>
       </c>
       <c r="F284" s="28" t="s">
         <v>1665</v>
@@ -15864,39 +15876,39 @@
     </row>
     <row r="285" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C285" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D285" s="28" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E285" s="29" t="s">
         <v>2032</v>
       </c>
-      <c r="E285" s="29" t="s">
-        <v>2033</v>
-      </c>
       <c r="F285" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C286" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D286" s="28" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E286" s="29" t="s">
         <v>2026</v>
-      </c>
-      <c r="E286" s="29" t="s">
-        <v>2027</v>
       </c>
       <c r="F286" s="28" t="s">
         <v>1665</v>
@@ -15904,39 +15916,39 @@
     </row>
     <row r="287" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C287" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D287" s="28" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E287" s="29" t="s">
         <v>2028</v>
       </c>
-      <c r="E287" s="29" t="s">
-        <v>2029</v>
-      </c>
       <c r="F287" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C288" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D288" s="28" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E288" s="29" t="s">
         <v>2030</v>
-      </c>
-      <c r="E288" s="29" t="s">
-        <v>2031</v>
       </c>
       <c r="F288" s="28" t="s">
         <v>1862</v>
@@ -15944,19 +15956,19 @@
     </row>
     <row r="289" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C289" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D289" s="28" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E289" s="29" t="s">
         <v>2022</v>
-      </c>
-      <c r="E289" s="29" t="s">
-        <v>2023</v>
       </c>
       <c r="F289" s="28" t="s">
         <v>1862</v>
@@ -15964,39 +15976,39 @@
     </row>
     <row r="290" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D290" s="28" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E290" s="29" t="s">
         <v>2034</v>
       </c>
-      <c r="E290" s="29" t="s">
-        <v>2035</v>
-      </c>
       <c r="F290" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C291" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D291" s="28" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E291" s="29" t="s">
         <v>2024</v>
-      </c>
-      <c r="E291" s="29" t="s">
-        <v>2025</v>
       </c>
       <c r="F291" s="28" t="s">
         <v>1665</v>
@@ -16004,19 +16016,19 @@
     </row>
     <row r="292" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C292" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D292" s="28" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E292" s="29" t="s">
         <v>2018</v>
-      </c>
-      <c r="E292" s="29" t="s">
-        <v>2019</v>
       </c>
       <c r="F292" s="28" t="s">
         <v>1862</v>
@@ -16024,16 +16036,16 @@
     </row>
     <row r="293" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B293" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C293" s="28" t="s">
         <v>1918</v>
       </c>
-      <c r="C293" s="28" t="s">
-        <v>1919</v>
-      </c>
       <c r="D293" s="28" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E293" s="29" t="s">
         <v>1851</v>
@@ -16044,19 +16056,19 @@
     </row>
     <row r="294" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B294" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C294" s="28" t="s">
         <v>1918</v>
       </c>
-      <c r="C294" s="28" t="s">
+      <c r="D294" s="28" t="s">
         <v>1919</v>
       </c>
-      <c r="D294" s="28" t="s">
+      <c r="E294" s="29" t="s">
         <v>1920</v>
-      </c>
-      <c r="E294" s="29" t="s">
-        <v>1921</v>
       </c>
       <c r="F294" s="28" t="s">
         <v>1862</v>
@@ -16064,79 +16076,79 @@
     </row>
     <row r="295" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B295" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C295" s="28" t="s">
         <v>1918</v>
       </c>
-      <c r="C295" s="28" t="s">
-        <v>1919</v>
-      </c>
       <c r="D295" s="28" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E295" s="29" t="s">
         <v>1927</v>
       </c>
-      <c r="E295" s="29" t="s">
-        <v>1928</v>
-      </c>
       <c r="F295" s="28" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B296" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C296" s="28" t="s">
         <v>1918</v>
       </c>
-      <c r="C296" s="28" t="s">
-        <v>1919</v>
-      </c>
       <c r="D296" s="28" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E296" s="29" t="s">
         <v>196</v>
       </c>
       <c r="F296" s="28" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B297" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C297" s="28" t="s">
         <v>1918</v>
       </c>
-      <c r="C297" s="28" t="s">
-        <v>1919</v>
-      </c>
       <c r="D297" s="28" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E297" s="29" t="s">
         <v>1925</v>
       </c>
-      <c r="E297" s="29" t="s">
-        <v>1926</v>
-      </c>
       <c r="F297" s="28" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B298" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C298" s="28" t="s">
         <v>1918</v>
-      </c>
-      <c r="C298" s="28" t="s">
-        <v>1919</v>
       </c>
       <c r="D298" s="28" t="s">
         <v>111</v>
       </c>
       <c r="E298" s="29" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F298" s="28" t="s">
         <v>1862</v>
@@ -16144,79 +16156,79 @@
     </row>
     <row r="299" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B299" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C299" s="28" t="s">
         <v>1918</v>
-      </c>
-      <c r="C299" s="28" t="s">
-        <v>1919</v>
       </c>
       <c r="D299" s="28" t="s">
         <v>250</v>
       </c>
       <c r="E299" s="29" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F299" s="28" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B300" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C300" s="28" t="s">
         <v>1918</v>
-      </c>
-      <c r="C300" s="28" t="s">
-        <v>1919</v>
       </c>
       <c r="D300" s="28" t="s">
         <v>194</v>
       </c>
       <c r="E300" s="29" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F300" s="28" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B301" s="9" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C301" s="28" t="s">
         <v>1918</v>
-      </c>
-      <c r="C301" s="28" t="s">
-        <v>1919</v>
       </c>
       <c r="D301" s="28" t="s">
         <v>564</v>
       </c>
       <c r="E301" s="29" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F301" s="28" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C302" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D302" s="28" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E302" s="29" t="s">
         <v>2065</v>
-      </c>
-      <c r="E302" s="29" t="s">
-        <v>2066</v>
       </c>
       <c r="F302" s="28" t="s">
         <v>1619</v>
@@ -16224,19 +16236,19 @@
     </row>
     <row r="303" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C303" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D303" s="28" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E303" s="29" t="s">
         <v>2060</v>
-      </c>
-      <c r="E303" s="29" t="s">
-        <v>2061</v>
       </c>
       <c r="F303" s="28" t="s">
         <v>1619</v>
@@ -16244,19 +16256,19 @@
     </row>
     <row r="304" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C304" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D304" s="28" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E304" s="29" t="s">
         <v>2014</v>
-      </c>
-      <c r="E304" s="29" t="s">
-        <v>2015</v>
       </c>
       <c r="F304" s="28" t="s">
         <v>1665</v>
@@ -16264,19 +16276,19 @@
     </row>
     <row r="305" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C305" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D305" s="28" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E305" s="29" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="F305" s="28" t="s">
         <v>1619</v>
@@ -16284,39 +16296,39 @@
     </row>
     <row r="306" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C306" s="28" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D306" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E306" s="29" t="s">
         <v>2036</v>
       </c>
-      <c r="D306" s="28" t="s">
-        <v>1999</v>
-      </c>
-      <c r="E306" s="29" t="s">
-        <v>2037</v>
-      </c>
       <c r="F306" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C307" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D307" s="28" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E307" s="29" t="s">
         <v>2012</v>
-      </c>
-      <c r="E307" s="29" t="s">
-        <v>2013</v>
       </c>
       <c r="F307" s="28" t="s">
         <v>1665</v>
@@ -16324,59 +16336,59 @@
     </row>
     <row r="308" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C308" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D308" s="28" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E308" s="29" t="s">
         <v>2058</v>
       </c>
-      <c r="E308" s="29" t="s">
-        <v>2059</v>
-      </c>
       <c r="F308" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C309" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D309" s="28" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E309" s="29" t="s">
         <v>2063</v>
       </c>
-      <c r="E309" s="29" t="s">
-        <v>2064</v>
-      </c>
       <c r="F309" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C310" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D310" s="28" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E310" s="29" t="s">
         <v>2040</v>
-      </c>
-      <c r="E310" s="29" t="s">
-        <v>2041</v>
       </c>
       <c r="F310" s="28" t="s">
         <v>1862</v>
@@ -16384,139 +16396,139 @@
     </row>
     <row r="311" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C311" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D311" s="28" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E311" s="29" t="s">
         <v>2038</v>
       </c>
-      <c r="E311" s="29" t="s">
-        <v>2039</v>
-      </c>
       <c r="F311" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C312" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D312" s="28" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E312" s="29" t="s">
         <v>2044</v>
       </c>
-      <c r="E312" s="29" t="s">
-        <v>2045</v>
-      </c>
       <c r="F312" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C313" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D313" s="28" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E313" s="29" t="s">
         <v>2042</v>
       </c>
-      <c r="E313" s="29" t="s">
-        <v>2043</v>
-      </c>
       <c r="F313" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C314" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D314" s="28" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E314" s="29" t="s">
         <v>2046</v>
       </c>
-      <c r="E314" s="29" t="s">
-        <v>2047</v>
-      </c>
       <c r="F314" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C315" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D315" s="28" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E315" s="29" t="s">
         <v>2050</v>
       </c>
-      <c r="E315" s="29" t="s">
-        <v>2051</v>
-      </c>
       <c r="F315" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D316" s="28" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E316" s="29" t="s">
         <v>2048</v>
       </c>
-      <c r="E316" s="29" t="s">
-        <v>2049</v>
-      </c>
       <c r="F316" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C317" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D317" s="28" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E317" s="29" t="s">
         <v>2054</v>
-      </c>
-      <c r="E317" s="29" t="s">
-        <v>2055</v>
       </c>
       <c r="F317" s="28" t="s">
         <v>1665</v>
@@ -16524,19 +16536,19 @@
     </row>
     <row r="318" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D318" s="28" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E318" s="29" t="s">
         <v>2052</v>
-      </c>
-      <c r="E318" s="29" t="s">
-        <v>2053</v>
       </c>
       <c r="F318" s="28" t="s">
         <v>1619</v>
@@ -16544,19 +16556,19 @@
     </row>
     <row r="319" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C319" s="28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D319" s="28" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E319" s="29" t="s">
         <v>2056</v>
-      </c>
-      <c r="E319" s="29" t="s">
-        <v>2057</v>
       </c>
       <c r="F319" s="28" t="s">
         <v>1619</v>
@@ -17821,7 +17833,7 @@
         <v>1830</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C383" s="8" t="s">
         <v>631</v>
@@ -17842,7 +17854,7 @@
         <v>1830</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C384" s="8" t="s">
         <v>631</v>
@@ -17863,7 +17875,7 @@
         <v>1830</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C385" s="8" t="s">
         <v>631</v>
@@ -17884,7 +17896,7 @@
         <v>1830</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>631</v>
@@ -17905,7 +17917,7 @@
         <v>1830</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>631</v>
@@ -17926,7 +17938,7 @@
         <v>1830</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C388" s="8" t="s">
         <v>631</v>
@@ -17947,7 +17959,7 @@
         <v>1830</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C389" s="8" t="s">
         <v>631</v>
@@ -17968,7 +17980,7 @@
         <v>1830</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C390" s="8" t="s">
         <v>631</v>
@@ -17989,7 +18001,7 @@
         <v>1830</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>631</v>
@@ -18010,7 +18022,7 @@
         <v>1830</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C392" s="8" t="s">
         <v>631</v>
@@ -18031,7 +18043,7 @@
         <v>1830</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C393" s="8" t="s">
         <v>631</v>
@@ -18052,7 +18064,7 @@
         <v>1830</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>631</v>
@@ -18073,7 +18085,7 @@
         <v>1830</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C395" s="8" t="s">
         <v>631</v>
@@ -18094,7 +18106,7 @@
         <v>1830</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>631</v>
@@ -18115,7 +18127,7 @@
         <v>1830</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C397" s="8" t="s">
         <v>631</v>
@@ -18136,7 +18148,7 @@
         <v>1830</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C398" s="8" t="s">
         <v>631</v>
@@ -18157,7 +18169,7 @@
         <v>1830</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C399" s="8" t="s">
         <v>631</v>
@@ -18178,7 +18190,7 @@
         <v>1830</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C400" s="8" t="s">
         <v>631</v>
@@ -18199,7 +18211,7 @@
         <v>1830</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C401" s="8" t="s">
         <v>631</v>
@@ -18220,7 +18232,7 @@
         <v>1830</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C402" s="8" t="s">
         <v>631</v>
@@ -18241,7 +18253,7 @@
         <v>1830</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C403" s="8" t="s">
         <v>631</v>
@@ -18262,7 +18274,7 @@
         <v>1830</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C404" s="8" t="s">
         <v>631</v>
@@ -18283,7 +18295,7 @@
         <v>1830</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C405" s="8" t="s">
         <v>631</v>
@@ -18304,7 +18316,7 @@
         <v>1830</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>631</v>
@@ -18325,7 +18337,7 @@
         <v>1830</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C407" s="8" t="s">
         <v>631</v>
@@ -18346,7 +18358,7 @@
         <v>1830</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C408" s="8" t="s">
         <v>631</v>
@@ -18367,7 +18379,7 @@
         <v>1830</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C409" s="8" t="s">
         <v>631</v>
@@ -18388,7 +18400,7 @@
         <v>1830</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C410" s="8" t="s">
         <v>631</v>
@@ -18409,7 +18421,7 @@
         <v>1830</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>631</v>
@@ -18430,7 +18442,7 @@
         <v>1830</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>631</v>
@@ -18451,7 +18463,7 @@
         <v>1830</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C413" s="8" t="s">
         <v>631</v>
@@ -18472,7 +18484,7 @@
         <v>1830</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C414" s="8" t="s">
         <v>631</v>
@@ -18493,7 +18505,7 @@
         <v>1830</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C415" s="8" t="s">
         <v>631</v>
@@ -18514,7 +18526,7 @@
         <v>1830</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C416" s="8" t="s">
         <v>631</v>
@@ -18535,7 +18547,7 @@
         <v>1830</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C417" s="8" t="s">
         <v>631</v>
@@ -18556,7 +18568,7 @@
         <v>1830</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C418" s="8" t="s">
         <v>631</v>
@@ -18577,7 +18589,7 @@
         <v>1830</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C419" s="8" t="s">
         <v>631</v>
@@ -18598,7 +18610,7 @@
         <v>1830</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C420" s="8" t="s">
         <v>631</v>
@@ -18619,7 +18631,7 @@
         <v>1830</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C421" s="8" t="s">
         <v>631</v>
@@ -18640,7 +18652,7 @@
         <v>1830</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>631</v>
@@ -18661,7 +18673,7 @@
         <v>1830</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C423" s="8" t="s">
         <v>631</v>
@@ -18682,7 +18694,7 @@
         <v>1830</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C424" s="8" t="s">
         <v>631</v>
@@ -18703,7 +18715,7 @@
         <v>1830</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C425" s="8" t="s">
         <v>631</v>
@@ -18724,7 +18736,7 @@
         <v>1830</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>631</v>
@@ -18743,7 +18755,7 @@
         <v>1830</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>631</v>
@@ -18764,7 +18776,7 @@
         <v>1830</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C428" s="8" t="s">
         <v>631</v>
@@ -18785,7 +18797,7 @@
         <v>1830</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C429" s="8" t="s">
         <v>631</v>
@@ -18806,7 +18818,7 @@
         <v>1830</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>631</v>
@@ -18827,7 +18839,7 @@
         <v>1830</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C431" s="8" t="s">
         <v>631</v>
@@ -18848,7 +18860,7 @@
         <v>1830</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C432" s="8" t="s">
         <v>631</v>
@@ -18869,7 +18881,7 @@
         <v>1830</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C433" s="8" t="s">
         <v>631</v>
@@ -18890,7 +18902,7 @@
         <v>1830</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C434" s="8" t="s">
         <v>631</v>
@@ -18911,7 +18923,7 @@
         <v>1830</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C435" s="8" t="s">
         <v>631</v>
@@ -18932,7 +18944,7 @@
         <v>1830</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C436" s="8" t="s">
         <v>631</v>
@@ -18953,7 +18965,7 @@
         <v>1830</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C437" s="8" t="s">
         <v>631</v>
@@ -18974,7 +18986,7 @@
         <v>1830</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C438" s="8" t="s">
         <v>631</v>
@@ -18995,7 +19007,7 @@
         <v>1830</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C439" s="8" t="s">
         <v>631</v>
@@ -19016,7 +19028,7 @@
         <v>1830</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C440" s="8" t="s">
         <v>631</v>
@@ -19037,7 +19049,7 @@
         <v>1830</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C441" s="8" t="s">
         <v>631</v>
@@ -19058,7 +19070,7 @@
         <v>1830</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C442" s="8" t="s">
         <v>631</v>
@@ -19079,7 +19091,7 @@
         <v>1830</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>1917</v>
+        <v>2068</v>
       </c>
       <c r="C443" s="8" t="s">
         <v>631</v>
@@ -19100,7 +19112,7 @@
         <v>1831</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C444" s="8" t="s">
         <v>224</v>
@@ -19123,7 +19135,7 @@
         <v>1831</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C445" s="8" t="s">
         <v>224</v>
@@ -19146,7 +19158,7 @@
         <v>1831</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C446" s="8" t="s">
         <v>224</v>
@@ -19169,7 +19181,7 @@
         <v>1831</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C447" s="8" t="s">
         <v>224</v>
@@ -19192,7 +19204,7 @@
         <v>1831</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C448" s="8" t="s">
         <v>224</v>
@@ -19215,7 +19227,7 @@
         <v>1831</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C449" s="8" t="s">
         <v>224</v>
@@ -19238,7 +19250,7 @@
         <v>1831</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C450" s="8" t="s">
         <v>224</v>
@@ -19261,7 +19273,7 @@
         <v>1831</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C451" s="8" t="s">
         <v>224</v>
@@ -19284,7 +19296,7 @@
         <v>1831</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C452" s="8" t="s">
         <v>224</v>
@@ -19307,7 +19319,7 @@
         <v>1831</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C453" s="8" t="s">
         <v>224</v>
@@ -19330,7 +19342,7 @@
         <v>1831</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C454" s="8" t="s">
         <v>224</v>
@@ -19353,7 +19365,7 @@
         <v>1831</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>224</v>
@@ -19376,7 +19388,7 @@
         <v>1831</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C456" s="8" t="s">
         <v>401</v>
@@ -19399,7 +19411,7 @@
         <v>1831</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C457" s="8" t="s">
         <v>401</v>
@@ -19422,7 +19434,7 @@
         <v>1831</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C458" s="8" t="s">
         <v>401</v>
@@ -19445,7 +19457,7 @@
         <v>1831</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C459" s="8" t="s">
         <v>401</v>
@@ -19468,7 +19480,7 @@
         <v>1831</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C460" s="8" t="s">
         <v>401</v>
@@ -19491,7 +19503,7 @@
         <v>1831</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C461" s="8" t="s">
         <v>401</v>
@@ -19514,7 +19526,7 @@
         <v>1831</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C462" s="8" t="s">
         <v>401</v>
@@ -19537,7 +19549,7 @@
         <v>1831</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C463" s="8" t="s">
         <v>401</v>
@@ -19560,7 +19572,7 @@
         <v>1831</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C464" s="8" t="s">
         <v>401</v>
@@ -19583,7 +19595,7 @@
         <v>1831</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>401</v>
@@ -19606,7 +19618,7 @@
         <v>1831</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C466" s="8" t="s">
         <v>401</v>
@@ -19629,7 +19641,7 @@
         <v>1831</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C467" s="8" t="s">
         <v>222</v>
@@ -19652,7 +19664,7 @@
         <v>1831</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C468" s="8" t="s">
         <v>222</v>
@@ -19675,7 +19687,7 @@
         <v>1831</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C469" s="8" t="s">
         <v>222</v>
@@ -19698,7 +19710,7 @@
         <v>1831</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C470" s="8" t="s">
         <v>222</v>
@@ -19721,7 +19733,7 @@
         <v>1831</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C471" s="8" t="s">
         <v>222</v>
@@ -19744,7 +19756,7 @@
         <v>1831</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C472" s="8" t="s">
         <v>222</v>
@@ -19767,7 +19779,7 @@
         <v>1831</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C473" s="8" t="s">
         <v>222</v>
@@ -19790,7 +19802,7 @@
         <v>1831</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>222</v>
@@ -19813,7 +19825,7 @@
         <v>1831</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C475" s="8" t="s">
         <v>222</v>
@@ -19836,7 +19848,7 @@
         <v>1831</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C476" s="8" t="s">
         <v>222</v>
@@ -19859,7 +19871,7 @@
         <v>1831</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C477" s="8" t="s">
         <v>222</v>
@@ -19882,7 +19894,7 @@
         <v>1831</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C478" s="8" t="s">
         <v>222</v>
@@ -19905,7 +19917,7 @@
         <v>1831</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C479" s="8" t="s">
         <v>222</v>
@@ -19928,7 +19940,7 @@
         <v>1831</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C480" s="8" t="s">
         <v>222</v>
@@ -19951,7 +19963,7 @@
         <v>1831</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C481" s="8" t="s">
         <v>222</v>
@@ -19974,7 +19986,7 @@
         <v>1831</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C482" s="8" t="s">
         <v>222</v>
@@ -19997,7 +20009,7 @@
         <v>1831</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C483" s="8" t="s">
         <v>222</v>
@@ -20020,7 +20032,7 @@
         <v>1831</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>1917</v>
+        <v>2069</v>
       </c>
       <c r="C484" s="8" t="s">
         <v>222</v>
@@ -20043,7 +20055,7 @@
         <v>1832</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C485" s="28" t="s">
         <v>632</v>
@@ -20066,7 +20078,7 @@
         <v>1832</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C486" s="28" t="s">
         <v>632</v>
@@ -20089,7 +20101,7 @@
         <v>1832</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C487" s="28" t="s">
         <v>632</v>
@@ -20112,7 +20124,7 @@
         <v>1832</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C488" s="28" t="s">
         <v>632</v>
@@ -20135,7 +20147,7 @@
         <v>1832</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C489" s="28" t="s">
         <v>632</v>
@@ -20158,7 +20170,7 @@
         <v>1832</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C490" s="28" t="s">
         <v>632</v>
@@ -20181,7 +20193,7 @@
         <v>1832</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C491" s="28" t="s">
         <v>632</v>
@@ -20204,7 +20216,7 @@
         <v>1832</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C492" s="28" t="s">
         <v>632</v>
@@ -20227,7 +20239,7 @@
         <v>1832</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C493" s="28" t="s">
         <v>632</v>
@@ -20250,7 +20262,7 @@
         <v>1832</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C494" s="28" t="s">
         <v>632</v>
@@ -20273,7 +20285,7 @@
         <v>1832</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C495" s="28" t="s">
         <v>632</v>
@@ -20296,7 +20308,7 @@
         <v>1832</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C496" s="28" t="s">
         <v>632</v>
@@ -20319,7 +20331,7 @@
         <v>1832</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C497" s="28" t="s">
         <v>632</v>
@@ -20342,7 +20354,7 @@
         <v>1832</v>
       </c>
       <c r="B498" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C498" s="28" t="s">
         <v>632</v>
@@ -20365,7 +20377,7 @@
         <v>1832</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C499" s="28" t="s">
         <v>632</v>
@@ -20388,7 +20400,7 @@
         <v>1832</v>
       </c>
       <c r="B500" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C500" s="28" t="s">
         <v>632</v>
@@ -20411,7 +20423,7 @@
         <v>1832</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C501" s="28" t="s">
         <v>632</v>
@@ -20434,7 +20446,7 @@
         <v>1832</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C502" s="28" t="s">
         <v>632</v>
@@ -20457,7 +20469,7 @@
         <v>1832</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C503" s="28" t="s">
         <v>632</v>
@@ -20480,7 +20492,7 @@
         <v>1832</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C504" s="28" t="s">
         <v>632</v>
@@ -20503,7 +20515,7 @@
         <v>1832</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C505" s="28" t="s">
         <v>632</v>
@@ -20526,7 +20538,7 @@
         <v>1832</v>
       </c>
       <c r="B506" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C506" s="28" t="s">
         <v>632</v>
@@ -20549,7 +20561,7 @@
         <v>1832</v>
       </c>
       <c r="B507" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C507" s="28" t="s">
         <v>632</v>
@@ -20572,7 +20584,7 @@
         <v>1832</v>
       </c>
       <c r="B508" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C508" s="28" t="s">
         <v>632</v>
@@ -20595,7 +20607,7 @@
         <v>1832</v>
       </c>
       <c r="B509" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C509" s="28" t="s">
         <v>632</v>
@@ -20618,7 +20630,7 @@
         <v>1832</v>
       </c>
       <c r="B510" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C510" s="28" t="s">
         <v>632</v>
@@ -20641,7 +20653,7 @@
         <v>1832</v>
       </c>
       <c r="B511" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C511" s="28" t="s">
         <v>632</v>
@@ -20664,7 +20676,7 @@
         <v>1832</v>
       </c>
       <c r="B512" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C512" s="28" t="s">
         <v>632</v>
@@ -20687,7 +20699,7 @@
         <v>1832</v>
       </c>
       <c r="B513" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C513" s="28" t="s">
         <v>632</v>
@@ -20710,7 +20722,7 @@
         <v>1832</v>
       </c>
       <c r="B514" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C514" s="28" t="s">
         <v>632</v>
@@ -20733,7 +20745,7 @@
         <v>1832</v>
       </c>
       <c r="B515" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C515" s="28" t="s">
         <v>632</v>
@@ -20756,7 +20768,7 @@
         <v>1832</v>
       </c>
       <c r="B516" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C516" s="28" t="s">
         <v>632</v>
@@ -20779,7 +20791,7 @@
         <v>1832</v>
       </c>
       <c r="B517" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C517" s="28" t="s">
         <v>632</v>
@@ -20802,7 +20814,7 @@
         <v>1832</v>
       </c>
       <c r="B518" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C518" t="s">
         <v>632</v>
@@ -20825,7 +20837,7 @@
         <v>1832</v>
       </c>
       <c r="B519" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C519" t="s">
         <v>632</v>
@@ -20848,7 +20860,7 @@
         <v>1832</v>
       </c>
       <c r="B520" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C520" t="s">
         <v>632</v>
@@ -20871,7 +20883,7 @@
         <v>1832</v>
       </c>
       <c r="B521" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C521" t="s">
         <v>632</v>
@@ -20894,7 +20906,7 @@
         <v>1832</v>
       </c>
       <c r="B522" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C522" t="s">
         <v>632</v>
@@ -20917,7 +20929,7 @@
         <v>1832</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C523" t="s">
         <v>632</v>
@@ -20940,7 +20952,7 @@
         <v>1832</v>
       </c>
       <c r="B524" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C524" t="s">
         <v>632</v>
@@ -20963,7 +20975,7 @@
         <v>1832</v>
       </c>
       <c r="B525" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C525" t="s">
         <v>632</v>
@@ -20986,7 +20998,7 @@
         <v>1832</v>
       </c>
       <c r="B526" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C526" t="s">
         <v>632</v>
@@ -21009,7 +21021,7 @@
         <v>1832</v>
       </c>
       <c r="B527" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C527" t="s">
         <v>632</v>
@@ -21032,7 +21044,7 @@
         <v>1832</v>
       </c>
       <c r="B528" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C528" t="s">
         <v>632</v>
@@ -21055,7 +21067,7 @@
         <v>1832</v>
       </c>
       <c r="B529" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C529" t="s">
         <v>632</v>
@@ -21078,7 +21090,7 @@
         <v>1832</v>
       </c>
       <c r="B530" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C530" s="28" t="s">
         <v>632</v>
@@ -21101,7 +21113,7 @@
         <v>1832</v>
       </c>
       <c r="B531" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C531" s="28" t="s">
         <v>632</v>
@@ -21124,7 +21136,7 @@
         <v>1832</v>
       </c>
       <c r="B532" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C532" s="28" t="s">
         <v>632</v>
@@ -21147,7 +21159,7 @@
         <v>1832</v>
       </c>
       <c r="B533" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C533" s="28" t="s">
         <v>632</v>
@@ -21170,7 +21182,7 @@
         <v>1832</v>
       </c>
       <c r="B534" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C534" s="28" t="s">
         <v>632</v>
@@ -21193,7 +21205,7 @@
         <v>1832</v>
       </c>
       <c r="B535" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C535" s="28" t="s">
         <v>632</v>
@@ -21216,7 +21228,7 @@
         <v>1832</v>
       </c>
       <c r="B536" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C536" s="28" t="s">
         <v>632</v>
@@ -21239,7 +21251,7 @@
         <v>1832</v>
       </c>
       <c r="B537" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C537" s="28" t="s">
         <v>632</v>
@@ -21262,7 +21274,7 @@
         <v>1832</v>
       </c>
       <c r="B538" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C538" s="28" t="s">
         <v>632</v>
@@ -21285,7 +21297,7 @@
         <v>1832</v>
       </c>
       <c r="B539" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C539" s="28" t="s">
         <v>632</v>
@@ -21308,7 +21320,7 @@
         <v>1832</v>
       </c>
       <c r="B540" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C540" s="28" t="s">
         <v>632</v>
@@ -21331,7 +21343,7 @@
         <v>1832</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C541" s="28" t="s">
         <v>632</v>
@@ -21354,7 +21366,7 @@
         <v>1832</v>
       </c>
       <c r="B542" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C542" s="28" t="s">
         <v>632</v>
@@ -21377,7 +21389,7 @@
         <v>1832</v>
       </c>
       <c r="B543" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C543" s="28" t="s">
         <v>632</v>
@@ -21400,7 +21412,7 @@
         <v>1832</v>
       </c>
       <c r="B544" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C544" s="28" t="s">
         <v>632</v>
@@ -21423,7 +21435,7 @@
         <v>1832</v>
       </c>
       <c r="B545" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C545" s="28" t="s">
         <v>632</v>
@@ -21446,7 +21458,7 @@
         <v>1832</v>
       </c>
       <c r="B546" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C546" s="28" t="s">
         <v>632</v>
@@ -21469,7 +21481,7 @@
         <v>1832</v>
       </c>
       <c r="B547" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C547" s="28" t="s">
         <v>632</v>
@@ -21492,7 +21504,7 @@
         <v>1832</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C548" s="28" t="s">
         <v>632</v>
@@ -21515,7 +21527,7 @@
         <v>1832</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C549" s="28" t="s">
         <v>632</v>
@@ -21538,7 +21550,7 @@
         <v>1832</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C550" s="28" t="s">
         <v>632</v>
@@ -21561,7 +21573,7 @@
         <v>1832</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C551" s="28" t="s">
         <v>632</v>
@@ -21584,7 +21596,7 @@
         <v>1832</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C552" s="28" t="s">
         <v>632</v>
@@ -21607,7 +21619,7 @@
         <v>1832</v>
       </c>
       <c r="B553" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C553" s="28" t="s">
         <v>632</v>
@@ -21630,7 +21642,7 @@
         <v>1832</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C554" s="28" t="s">
         <v>632</v>
@@ -21653,7 +21665,7 @@
         <v>1832</v>
       </c>
       <c r="B555" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C555" s="28" t="s">
         <v>632</v>
@@ -21676,7 +21688,7 @@
         <v>1832</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C556" s="28" t="s">
         <v>632</v>
@@ -21699,7 +21711,7 @@
         <v>1832</v>
       </c>
       <c r="B557" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C557" s="28" t="s">
         <v>632</v>
@@ -21722,7 +21734,7 @@
         <v>1832</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C558" s="28" t="s">
         <v>632</v>
@@ -21745,7 +21757,7 @@
         <v>1832</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C559" s="28" t="s">
         <v>632</v>
@@ -21768,7 +21780,7 @@
         <v>1832</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C560" s="28" t="s">
         <v>632</v>
@@ -21791,7 +21803,7 @@
         <v>1832</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C561" s="28" t="s">
         <v>632</v>
@@ -21814,7 +21826,7 @@
         <v>1832</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C562" s="28" t="s">
         <v>632</v>
@@ -21837,7 +21849,7 @@
         <v>1832</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C563" s="28" t="s">
         <v>632</v>
@@ -21860,7 +21872,7 @@
         <v>1832</v>
       </c>
       <c r="B564" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C564" s="28" t="s">
         <v>632</v>
@@ -21883,7 +21895,7 @@
         <v>1832</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C565" s="28" t="s">
         <v>632</v>
@@ -21906,7 +21918,7 @@
         <v>1832</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C566" s="28" t="s">
         <v>632</v>
@@ -21929,7 +21941,7 @@
         <v>1832</v>
       </c>
       <c r="B567" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C567" s="28" t="s">
         <v>632</v>
@@ -21952,7 +21964,7 @@
         <v>1832</v>
       </c>
       <c r="B568" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C568" s="28" t="s">
         <v>632</v>
@@ -21975,7 +21987,7 @@
         <v>1832</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C569" s="28" t="s">
         <v>632</v>
@@ -21998,7 +22010,7 @@
         <v>1832</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C570" s="28" t="s">
         <v>632</v>
@@ -22021,7 +22033,7 @@
         <v>1832</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C571" s="28" t="s">
         <v>632</v>
@@ -22044,7 +22056,7 @@
         <v>1832</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C572" s="28" t="s">
         <v>632</v>
@@ -22067,7 +22079,7 @@
         <v>1832</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C573" s="28" t="s">
         <v>632</v>
@@ -22090,7 +22102,7 @@
         <v>1832</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C574" s="28" t="s">
         <v>632</v>
@@ -22113,7 +22125,7 @@
         <v>1832</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C575" s="28" t="s">
         <v>633</v>
@@ -22136,7 +22148,7 @@
         <v>1832</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C576" s="28" t="s">
         <v>633</v>
@@ -22159,7 +22171,7 @@
         <v>1832</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C577" s="28" t="s">
         <v>633</v>
@@ -22182,7 +22194,7 @@
         <v>1832</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C578" s="28" t="s">
         <v>633</v>
@@ -22205,7 +22217,7 @@
         <v>1832</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C579" s="28" t="s">
         <v>633</v>
@@ -22228,7 +22240,7 @@
         <v>1832</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C580" s="28" t="s">
         <v>633</v>
@@ -22251,7 +22263,7 @@
         <v>1832</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C581" s="28" t="s">
         <v>633</v>
@@ -22274,7 +22286,7 @@
         <v>1832</v>
       </c>
       <c r="B582" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C582" s="28" t="s">
         <v>633</v>
@@ -22297,7 +22309,7 @@
         <v>1832</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C583" s="28" t="s">
         <v>633</v>
@@ -22320,7 +22332,7 @@
         <v>1832</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C584" s="28" t="s">
         <v>633</v>
@@ -22343,7 +22355,7 @@
         <v>1832</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C585" s="28" t="s">
         <v>633</v>
@@ -22366,7 +22378,7 @@
         <v>1832</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C586" s="28" t="s">
         <v>633</v>
@@ -22389,7 +22401,7 @@
         <v>1832</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C587" s="28" t="s">
         <v>633</v>
@@ -22412,7 +22424,7 @@
         <v>1832</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C588" s="28" t="s">
         <v>633</v>
@@ -22435,7 +22447,7 @@
         <v>1832</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C589" s="28" t="s">
         <v>633</v>
@@ -22458,7 +22470,7 @@
         <v>1832</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C590" s="28" t="s">
         <v>633</v>
@@ -22481,7 +22493,7 @@
         <v>1832</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C591" s="28" t="s">
         <v>633</v>
@@ -22504,7 +22516,7 @@
         <v>1832</v>
       </c>
       <c r="B592" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C592" s="28" t="s">
         <v>633</v>
@@ -22527,7 +22539,7 @@
         <v>1832</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C593" s="28" t="s">
         <v>633</v>
@@ -22550,7 +22562,7 @@
         <v>1832</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C594" s="28" t="s">
         <v>634</v>
@@ -22573,7 +22585,7 @@
         <v>1832</v>
       </c>
       <c r="B595" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C595" s="28" t="s">
         <v>634</v>
@@ -22596,7 +22608,7 @@
         <v>1832</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C596" s="28" t="s">
         <v>634</v>
@@ -22619,7 +22631,7 @@
         <v>1832</v>
       </c>
       <c r="B597" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C597" s="28" t="s">
         <v>634</v>
@@ -22642,7 +22654,7 @@
         <v>1832</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C598" s="28" t="s">
         <v>634</v>
@@ -22665,7 +22677,7 @@
         <v>1832</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C599" s="28" t="s">
         <v>634</v>
@@ -22688,7 +22700,7 @@
         <v>1832</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C600" s="28" t="s">
         <v>634</v>
@@ -22711,7 +22723,7 @@
         <v>1832</v>
       </c>
       <c r="B601" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C601" s="28" t="s">
         <v>634</v>
@@ -22734,7 +22746,7 @@
         <v>1832</v>
       </c>
       <c r="B602" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C602" s="28" t="s">
         <v>634</v>
@@ -22757,7 +22769,7 @@
         <v>1832</v>
       </c>
       <c r="B603" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C603" s="28" t="s">
         <v>634</v>
@@ -22780,7 +22792,7 @@
         <v>1832</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C604" s="28" t="s">
         <v>634</v>
@@ -22803,7 +22815,7 @@
         <v>1832</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C605" s="28" t="s">
         <v>634</v>
@@ -22826,7 +22838,7 @@
         <v>1832</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C606" s="28" t="s">
         <v>634</v>
@@ -22849,7 +22861,7 @@
         <v>1832</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C607" s="28" t="s">
         <v>635</v>
@@ -22872,7 +22884,7 @@
         <v>1832</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C608" s="28" t="s">
         <v>635</v>
@@ -22895,7 +22907,7 @@
         <v>1832</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C609" s="28" t="s">
         <v>635</v>
@@ -22918,7 +22930,7 @@
         <v>1832</v>
       </c>
       <c r="B610" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C610" s="28" t="s">
         <v>635</v>
@@ -22941,7 +22953,7 @@
         <v>1832</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C611" s="28" t="s">
         <v>635</v>
@@ -22964,7 +22976,7 @@
         <v>1832</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C612" s="28" t="s">
         <v>635</v>
@@ -22987,7 +22999,7 @@
         <v>1832</v>
       </c>
       <c r="B613" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C613" s="28" t="s">
         <v>635</v>
@@ -23010,7 +23022,7 @@
         <v>1832</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C614" s="28" t="s">
         <v>635</v>
@@ -23033,7 +23045,7 @@
         <v>1832</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C615" s="28" t="s">
         <v>635</v>
@@ -23056,7 +23068,7 @@
         <v>1832</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C616" s="28" t="s">
         <v>635</v>
@@ -23079,7 +23091,7 @@
         <v>1832</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C617" s="28" t="s">
         <v>635</v>
@@ -23102,7 +23114,7 @@
         <v>1832</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C618" s="28" t="s">
         <v>635</v>
@@ -23125,7 +23137,7 @@
         <v>1832</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C619" s="28" t="s">
         <v>635</v>
@@ -23148,7 +23160,7 @@
         <v>1832</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C620" s="28" t="s">
         <v>635</v>
@@ -23171,7 +23183,7 @@
         <v>1832</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C621" s="28" t="s">
         <v>635</v>
@@ -23194,7 +23206,7 @@
         <v>1832</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C622" s="28" t="s">
         <v>635</v>
@@ -23217,7 +23229,7 @@
         <v>1832</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C623" s="28" t="s">
         <v>635</v>
@@ -23240,7 +23252,7 @@
         <v>1832</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C624" s="28" t="s">
         <v>635</v>
@@ -23263,7 +23275,7 @@
         <v>1832</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C625" s="28" t="s">
         <v>635</v>
@@ -23286,7 +23298,7 @@
         <v>1832</v>
       </c>
       <c r="B626" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C626" s="28" t="s">
         <v>635</v>
@@ -23309,7 +23321,7 @@
         <v>1832</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C627" s="28" t="s">
         <v>635</v>
@@ -23332,7 +23344,7 @@
         <v>1832</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C628" s="28" t="s">
         <v>635</v>
@@ -23355,7 +23367,7 @@
         <v>1832</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C629" s="28" t="s">
         <v>635</v>
@@ -23378,7 +23390,7 @@
         <v>1832</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C630" s="28" t="s">
         <v>635</v>
@@ -23401,7 +23413,7 @@
         <v>1832</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C631" s="28" t="s">
         <v>635</v>
@@ -23424,7 +23436,7 @@
         <v>1832</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C632" s="28" t="s">
         <v>635</v>
@@ -23447,7 +23459,7 @@
         <v>1832</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C633" s="28" t="s">
         <v>635</v>
@@ -23470,7 +23482,7 @@
         <v>1832</v>
       </c>
       <c r="B634" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C634" s="28" t="s">
         <v>635</v>
@@ -23493,7 +23505,7 @@
         <v>1832</v>
       </c>
       <c r="B635" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C635" s="28" t="s">
         <v>635</v>
@@ -23516,7 +23528,7 @@
         <v>1832</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C636" t="s">
         <v>635</v>
@@ -23539,7 +23551,7 @@
         <v>1832</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C637" t="s">
         <v>635</v>
@@ -23562,7 +23574,7 @@
         <v>1832</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C638" s="28" t="s">
         <v>635</v>
@@ -23585,7 +23597,7 @@
         <v>1832</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C639" s="28" t="s">
         <v>635</v>
@@ -23608,7 +23620,7 @@
         <v>1832</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C640" s="28" t="s">
         <v>635</v>
@@ -23631,7 +23643,7 @@
         <v>1832</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C641" s="28" t="s">
         <v>635</v>
@@ -23654,7 +23666,7 @@
         <v>1832</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C642" s="28" t="s">
         <v>635</v>
@@ -23677,7 +23689,7 @@
         <v>1832</v>
       </c>
       <c r="B643" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C643" s="28" t="s">
         <v>635</v>
@@ -23700,7 +23712,7 @@
         <v>1832</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C644" s="28" t="s">
         <v>636</v>
@@ -23723,7 +23735,7 @@
         <v>1832</v>
       </c>
       <c r="B645" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C645" s="28" t="s">
         <v>637</v>
@@ -23746,7 +23758,7 @@
         <v>1832</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C646" s="28" t="s">
         <v>637</v>
@@ -23769,7 +23781,7 @@
         <v>1832</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C647" s="28" t="s">
         <v>637</v>
@@ -23792,7 +23804,7 @@
         <v>1832</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C648" s="28" t="s">
         <v>637</v>
@@ -23815,7 +23827,7 @@
         <v>1832</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C649" s="28" t="s">
         <v>637</v>
@@ -23838,7 +23850,7 @@
         <v>1832</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C650" s="28" t="s">
         <v>637</v>
@@ -23861,7 +23873,7 @@
         <v>1832</v>
       </c>
       <c r="B651" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C651" s="28" t="s">
         <v>637</v>
@@ -23884,7 +23896,7 @@
         <v>1832</v>
       </c>
       <c r="B652" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C652" s="28" t="s">
         <v>637</v>
@@ -23907,7 +23919,7 @@
         <v>1832</v>
       </c>
       <c r="B653" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C653" s="28" t="s">
         <v>637</v>
@@ -23930,7 +23942,7 @@
         <v>1832</v>
       </c>
       <c r="B654" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C654" s="28" t="s">
         <v>637</v>
@@ -23953,7 +23965,7 @@
         <v>1832</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C655" s="28" t="s">
         <v>637</v>
@@ -23976,7 +23988,7 @@
         <v>1832</v>
       </c>
       <c r="B656" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C656" s="28" t="s">
         <v>637</v>
@@ -23999,7 +24011,7 @@
         <v>1832</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C657" s="28" t="s">
         <v>637</v>
@@ -24022,7 +24034,7 @@
         <v>1832</v>
       </c>
       <c r="B658" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C658" s="28" t="s">
         <v>637</v>
@@ -24045,7 +24057,7 @@
         <v>1832</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C659" s="28" t="s">
         <v>637</v>
@@ -24068,7 +24080,7 @@
         <v>1832</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C660" s="28" t="s">
         <v>637</v>
@@ -24091,7 +24103,7 @@
         <v>1832</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C661" s="28" t="s">
         <v>637</v>
@@ -24114,7 +24126,7 @@
         <v>1832</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C662" s="28" t="s">
         <v>637</v>
@@ -24137,7 +24149,7 @@
         <v>1832</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C663" s="28" t="s">
         <v>637</v>
@@ -24160,7 +24172,7 @@
         <v>1832</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C664" s="28" t="s">
         <v>637</v>
@@ -24183,7 +24195,7 @@
         <v>1832</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C665" s="28" t="s">
         <v>637</v>
@@ -24206,7 +24218,7 @@
         <v>1832</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C666" s="28" t="s">
         <v>637</v>
@@ -24229,7 +24241,7 @@
         <v>1832</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C667" s="28" t="s">
         <v>637</v>
@@ -24252,7 +24264,7 @@
         <v>1832</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C668" s="28" t="s">
         <v>637</v>
@@ -24275,7 +24287,7 @@
         <v>1832</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C669" s="28" t="s">
         <v>637</v>
@@ -24298,7 +24310,7 @@
         <v>1832</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C670" s="28" t="s">
         <v>637</v>
@@ -24321,7 +24333,7 @@
         <v>1832</v>
       </c>
       <c r="B671" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C671" s="28" t="s">
         <v>637</v>
@@ -24344,7 +24356,7 @@
         <v>1832</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C672" s="28" t="s">
         <v>637</v>
@@ -24367,7 +24379,7 @@
         <v>1832</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C673" s="28" t="s">
         <v>637</v>
@@ -24390,7 +24402,7 @@
         <v>1832</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C674" s="28" t="s">
         <v>637</v>
@@ -24413,7 +24425,7 @@
         <v>1832</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C675" s="28" t="s">
         <v>637</v>
@@ -24436,7 +24448,7 @@
         <v>1832</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C676" s="28" t="s">
         <v>637</v>
@@ -24459,7 +24471,7 @@
         <v>1832</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C677" s="28" t="s">
         <v>637</v>
@@ -24482,7 +24494,7 @@
         <v>1832</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C678" s="28" t="s">
         <v>637</v>
@@ -24505,7 +24517,7 @@
         <v>1832</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C679" s="28" t="s">
         <v>637</v>
@@ -24528,7 +24540,7 @@
         <v>1832</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C680" s="28" t="s">
         <v>637</v>
@@ -24551,7 +24563,7 @@
         <v>1832</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C681" s="28" t="s">
         <v>637</v>
@@ -24574,7 +24586,7 @@
         <v>1832</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C682" s="28" t="s">
         <v>637</v>
@@ -24597,7 +24609,7 @@
         <v>1832</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C683" s="28" t="s">
         <v>637</v>
@@ -24620,7 +24632,7 @@
         <v>1832</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C684" s="28" t="s">
         <v>637</v>
@@ -24643,7 +24655,7 @@
         <v>1832</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C685" s="28" t="s">
         <v>637</v>
@@ -24666,7 +24678,7 @@
         <v>1832</v>
       </c>
       <c r="B686" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C686" s="28" t="s">
         <v>637</v>
@@ -24689,7 +24701,7 @@
         <v>1832</v>
       </c>
       <c r="B687" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C687" s="28" t="s">
         <v>637</v>
@@ -24712,7 +24724,7 @@
         <v>1832</v>
       </c>
       <c r="B688" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C688" s="28" t="s">
         <v>637</v>
@@ -24735,7 +24747,7 @@
         <v>1832</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C689" s="28" t="s">
         <v>637</v>
@@ -24758,7 +24770,7 @@
         <v>1832</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C690" s="28" t="s">
         <v>637</v>
@@ -24781,7 +24793,7 @@
         <v>1832</v>
       </c>
       <c r="B691" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C691" s="28" t="s">
         <v>637</v>
@@ -24804,7 +24816,7 @@
         <v>1832</v>
       </c>
       <c r="B692" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C692" s="28" t="s">
         <v>637</v>
@@ -24827,7 +24839,7 @@
         <v>1832</v>
       </c>
       <c r="B693" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C693" s="28" t="s">
         <v>637</v>
@@ -24850,7 +24862,7 @@
         <v>1832</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C694" s="28" t="s">
         <v>637</v>
@@ -24873,7 +24885,7 @@
         <v>1832</v>
       </c>
       <c r="B695" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C695" s="28" t="s">
         <v>637</v>
@@ -24896,7 +24908,7 @@
         <v>1832</v>
       </c>
       <c r="B696" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C696" s="28" t="s">
         <v>637</v>
@@ -24919,7 +24931,7 @@
         <v>1832</v>
       </c>
       <c r="B697" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C697" s="28" t="s">
         <v>637</v>
@@ -24942,7 +24954,7 @@
         <v>1832</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C698" s="28" t="s">
         <v>637</v>
@@ -24965,7 +24977,7 @@
         <v>1832</v>
       </c>
       <c r="B699" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C699" s="28" t="s">
         <v>637</v>
@@ -24988,7 +25000,7 @@
         <v>1832</v>
       </c>
       <c r="B700" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C700" s="28" t="s">
         <v>638</v>
@@ -25011,7 +25023,7 @@
         <v>1832</v>
       </c>
       <c r="B701" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C701" s="28" t="s">
         <v>638</v>
@@ -25034,7 +25046,7 @@
         <v>1832</v>
       </c>
       <c r="B702" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C702" s="28" t="s">
         <v>638</v>
@@ -25057,7 +25069,7 @@
         <v>1832</v>
       </c>
       <c r="B703" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C703" s="28" t="s">
         <v>638</v>
@@ -25080,7 +25092,7 @@
         <v>1832</v>
       </c>
       <c r="B704" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C704" s="28" t="s">
         <v>638</v>
@@ -25103,7 +25115,7 @@
         <v>1832</v>
       </c>
       <c r="B705" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C705" s="28" t="s">
         <v>638</v>
@@ -25126,7 +25138,7 @@
         <v>1832</v>
       </c>
       <c r="B706" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C706" s="28" t="s">
         <v>638</v>
@@ -25149,7 +25161,7 @@
         <v>1832</v>
       </c>
       <c r="B707" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C707" s="28" t="s">
         <v>638</v>
@@ -25172,7 +25184,7 @@
         <v>1832</v>
       </c>
       <c r="B708" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C708" s="28" t="s">
         <v>228</v>
@@ -25195,7 +25207,7 @@
         <v>1832</v>
       </c>
       <c r="B709" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C709" s="28" t="s">
         <v>228</v>
@@ -25218,7 +25230,7 @@
         <v>1832</v>
       </c>
       <c r="B710" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C710" s="28" t="s">
         <v>228</v>
@@ -25241,7 +25253,7 @@
         <v>1832</v>
       </c>
       <c r="B711" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C711" s="28" t="s">
         <v>228</v>
@@ -25264,7 +25276,7 @@
         <v>1832</v>
       </c>
       <c r="B712" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C712" s="28" t="s">
         <v>228</v>
@@ -25287,7 +25299,7 @@
         <v>1832</v>
       </c>
       <c r="B713" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C713" s="28" t="s">
         <v>228</v>
@@ -25310,7 +25322,7 @@
         <v>1832</v>
       </c>
       <c r="B714" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C714" s="28" t="s">
         <v>228</v>
@@ -25333,7 +25345,7 @@
         <v>1832</v>
       </c>
       <c r="B715" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C715" s="28" t="s">
         <v>228</v>
@@ -25356,7 +25368,7 @@
         <v>1832</v>
       </c>
       <c r="B716" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C716" s="28" t="s">
         <v>228</v>
@@ -25379,7 +25391,7 @@
         <v>1832</v>
       </c>
       <c r="B717" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C717" s="28" t="s">
         <v>228</v>
@@ -25402,7 +25414,7 @@
         <v>1832</v>
       </c>
       <c r="B718" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C718" s="28" t="s">
         <v>228</v>
@@ -25425,7 +25437,7 @@
         <v>1832</v>
       </c>
       <c r="B719" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C719" s="28" t="s">
         <v>228</v>
@@ -25448,7 +25460,7 @@
         <v>1832</v>
       </c>
       <c r="B720" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C720" s="28" t="s">
         <v>228</v>
@@ -25471,7 +25483,7 @@
         <v>1832</v>
       </c>
       <c r="B721" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C721" s="28" t="s">
         <v>228</v>
@@ -25494,7 +25506,7 @@
         <v>1832</v>
       </c>
       <c r="B722" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C722" s="28" t="s">
         <v>228</v>
@@ -25517,7 +25529,7 @@
         <v>1832</v>
       </c>
       <c r="B723" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C723" s="28" t="s">
         <v>228</v>
@@ -25540,7 +25552,7 @@
         <v>1832</v>
       </c>
       <c r="B724" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C724" s="28" t="s">
         <v>639</v>
@@ -25563,7 +25575,7 @@
         <v>1832</v>
       </c>
       <c r="B725" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C725" s="28" t="s">
         <v>639</v>
@@ -25586,7 +25598,7 @@
         <v>1832</v>
       </c>
       <c r="B726" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C726" s="28" t="s">
         <v>639</v>
@@ -25609,7 +25621,7 @@
         <v>1832</v>
       </c>
       <c r="B727" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C727" s="28" t="s">
         <v>639</v>
@@ -25632,7 +25644,7 @@
         <v>1832</v>
       </c>
       <c r="B728" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C728" s="28" t="s">
         <v>639</v>
@@ -25655,7 +25667,7 @@
         <v>1832</v>
       </c>
       <c r="B729" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C729" s="28" t="s">
         <v>639</v>
@@ -25678,7 +25690,7 @@
         <v>1832</v>
       </c>
       <c r="B730" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C730" s="28" t="s">
         <v>639</v>
@@ -25701,7 +25713,7 @@
         <v>1832</v>
       </c>
       <c r="B731" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C731" s="28" t="s">
         <v>639</v>
@@ -25724,7 +25736,7 @@
         <v>1832</v>
       </c>
       <c r="B732" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C732" s="28" t="s">
         <v>639</v>
@@ -25747,7 +25759,7 @@
         <v>1832</v>
       </c>
       <c r="B733" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C733" t="s">
         <v>640</v>
@@ -25770,7 +25782,7 @@
         <v>1832</v>
       </c>
       <c r="B734" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C734" t="s">
         <v>640</v>
@@ -25793,7 +25805,7 @@
         <v>1832</v>
       </c>
       <c r="B735" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C735" t="s">
         <v>640</v>
@@ -25816,7 +25828,7 @@
         <v>1832</v>
       </c>
       <c r="B736" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C736" t="s">
         <v>640</v>
@@ -25839,7 +25851,7 @@
         <v>1832</v>
       </c>
       <c r="B737" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C737" t="s">
         <v>640</v>
@@ -25862,7 +25874,7 @@
         <v>1832</v>
       </c>
       <c r="B738" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C738" t="s">
         <v>640</v>
@@ -25885,7 +25897,7 @@
         <v>1832</v>
       </c>
       <c r="B739" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C739" t="s">
         <v>640</v>
@@ -25908,7 +25920,7 @@
         <v>1832</v>
       </c>
       <c r="B740" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C740" t="s">
         <v>640</v>
@@ -25931,7 +25943,7 @@
         <v>1832</v>
       </c>
       <c r="B741" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C741" t="s">
         <v>640</v>
@@ -25954,7 +25966,7 @@
         <v>1832</v>
       </c>
       <c r="B742" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C742" t="s">
         <v>640</v>
@@ -25977,7 +25989,7 @@
         <v>1832</v>
       </c>
       <c r="B743" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C743" t="s">
         <v>640</v>
@@ -26000,7 +26012,7 @@
         <v>1832</v>
       </c>
       <c r="B744" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C744" t="s">
         <v>640</v>
@@ -26023,7 +26035,7 @@
         <v>1832</v>
       </c>
       <c r="B745" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C745" t="s">
         <v>640</v>
@@ -26046,7 +26058,7 @@
         <v>1832</v>
       </c>
       <c r="B746" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C746" s="28" t="s">
         <v>641</v>
@@ -26069,7 +26081,7 @@
         <v>1832</v>
       </c>
       <c r="B747" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C747" s="28" t="s">
         <v>641</v>
@@ -26092,7 +26104,7 @@
         <v>1832</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C748" s="28" t="s">
         <v>641</v>
@@ -26115,7 +26127,7 @@
         <v>1832</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C749" s="28" t="s">
         <v>641</v>
@@ -26138,7 +26150,7 @@
         <v>1832</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C750" s="28" t="s">
         <v>641</v>
@@ -26161,7 +26173,7 @@
         <v>1832</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C751" s="28" t="s">
         <v>641</v>
@@ -26184,7 +26196,7 @@
         <v>1832</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C752" s="28" t="s">
         <v>641</v>
@@ -26207,7 +26219,7 @@
         <v>1832</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C753" s="28" t="s">
         <v>641</v>
@@ -26230,7 +26242,7 @@
         <v>1832</v>
       </c>
       <c r="B754" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C754" s="28" t="s">
         <v>641</v>
@@ -26253,7 +26265,7 @@
         <v>1832</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C755" s="28" t="s">
         <v>641</v>
@@ -26276,7 +26288,7 @@
         <v>1832</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C756" s="28" t="s">
         <v>641</v>
@@ -26299,7 +26311,7 @@
         <v>1832</v>
       </c>
       <c r="B757" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C757" s="28" t="s">
         <v>641</v>
@@ -26322,7 +26334,7 @@
         <v>1832</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C758" s="28" t="s">
         <v>641</v>
@@ -26345,7 +26357,7 @@
         <v>1832</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C759" s="28" t="s">
         <v>641</v>
@@ -26368,7 +26380,7 @@
         <v>1832</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C760" s="28" t="s">
         <v>641</v>
@@ -26391,7 +26403,7 @@
         <v>1832</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C761" s="28" t="s">
         <v>641</v>
@@ -26414,7 +26426,7 @@
         <v>1832</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C762" s="28" t="s">
         <v>641</v>
@@ -26437,7 +26449,7 @@
         <v>1832</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C763" s="28" t="s">
         <v>641</v>
@@ -26460,7 +26472,7 @@
         <v>1832</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C764" s="28" t="s">
         <v>641</v>
@@ -26483,7 +26495,7 @@
         <v>1832</v>
       </c>
       <c r="B765" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C765" s="28" t="s">
         <v>641</v>
@@ -26506,7 +26518,7 @@
         <v>1832</v>
       </c>
       <c r="B766" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C766" s="28" t="s">
         <v>641</v>
@@ -26529,7 +26541,7 @@
         <v>1832</v>
       </c>
       <c r="B767" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C767" s="28" t="s">
         <v>641</v>
@@ -26552,7 +26564,7 @@
         <v>1832</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C768" s="28" t="s">
         <v>641</v>
@@ -26575,7 +26587,7 @@
         <v>1832</v>
       </c>
       <c r="B769" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C769" s="28" t="s">
         <v>641</v>
@@ -26598,7 +26610,7 @@
         <v>1832</v>
       </c>
       <c r="B770" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C770" s="28" t="s">
         <v>641</v>
@@ -26621,7 +26633,7 @@
         <v>1832</v>
       </c>
       <c r="B771" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C771" s="28" t="s">
         <v>641</v>
@@ -26644,7 +26656,7 @@
         <v>1832</v>
       </c>
       <c r="B772" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C772" s="28" t="s">
         <v>641</v>
@@ -26667,7 +26679,7 @@
         <v>1832</v>
       </c>
       <c r="B773" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C773" s="28" t="s">
         <v>641</v>
@@ -26690,7 +26702,7 @@
         <v>1832</v>
       </c>
       <c r="B774" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C774" s="28" t="s">
         <v>641</v>
@@ -26713,7 +26725,7 @@
         <v>1832</v>
       </c>
       <c r="B775" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C775" s="28" t="s">
         <v>641</v>
@@ -26736,7 +26748,7 @@
         <v>1832</v>
       </c>
       <c r="B776" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C776" s="28" t="s">
         <v>641</v>
@@ -26759,7 +26771,7 @@
         <v>1832</v>
       </c>
       <c r="B777" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C777" s="28" t="s">
         <v>641</v>
@@ -26782,7 +26794,7 @@
         <v>1832</v>
       </c>
       <c r="B778" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C778" s="28" t="s">
         <v>641</v>
@@ -26805,7 +26817,7 @@
         <v>1832</v>
       </c>
       <c r="B779" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C779" s="28" t="s">
         <v>641</v>
@@ -26828,7 +26840,7 @@
         <v>1832</v>
       </c>
       <c r="B780" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C780" s="28" t="s">
         <v>641</v>
@@ -26851,7 +26863,7 @@
         <v>1832</v>
       </c>
       <c r="B781" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C781" s="28" t="s">
         <v>641</v>
@@ -26874,7 +26886,7 @@
         <v>1832</v>
       </c>
       <c r="B782" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C782" s="28" t="s">
         <v>641</v>
@@ -26897,7 +26909,7 @@
         <v>1832</v>
       </c>
       <c r="B783" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C783" s="28" t="s">
         <v>641</v>
@@ -26920,7 +26932,7 @@
         <v>1832</v>
       </c>
       <c r="B784" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C784" s="28" t="s">
         <v>641</v>
@@ -26943,7 +26955,7 @@
         <v>1832</v>
       </c>
       <c r="B785" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C785" s="28" t="s">
         <v>641</v>
@@ -26966,7 +26978,7 @@
         <v>1832</v>
       </c>
       <c r="B786" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C786" s="28" t="s">
         <v>641</v>
@@ -26989,7 +27001,7 @@
         <v>1832</v>
       </c>
       <c r="B787" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C787" s="28" t="s">
         <v>641</v>
@@ -27012,7 +27024,7 @@
         <v>1832</v>
       </c>
       <c r="B788" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C788" s="28" t="s">
         <v>641</v>
@@ -27035,7 +27047,7 @@
         <v>1832</v>
       </c>
       <c r="B789" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C789" s="28" t="s">
         <v>641</v>
@@ -27058,7 +27070,7 @@
         <v>1832</v>
       </c>
       <c r="B790" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C790" s="28" t="s">
         <v>641</v>
@@ -27081,7 +27093,7 @@
         <v>1832</v>
       </c>
       <c r="B791" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C791" s="28" t="s">
         <v>641</v>
@@ -27104,7 +27116,7 @@
         <v>1832</v>
       </c>
       <c r="B792" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C792" s="28" t="s">
         <v>641</v>
@@ -27127,7 +27139,7 @@
         <v>1832</v>
       </c>
       <c r="B793" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C793" s="28" t="s">
         <v>641</v>
@@ -27150,7 +27162,7 @@
         <v>1832</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C794" s="28" t="s">
         <v>641</v>
@@ -27173,7 +27185,7 @@
         <v>1832</v>
       </c>
       <c r="B795" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C795" s="28" t="s">
         <v>641</v>
@@ -27196,7 +27208,7 @@
         <v>1832</v>
       </c>
       <c r="B796" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C796" s="28" t="s">
         <v>641</v>
@@ -27219,7 +27231,7 @@
         <v>1832</v>
       </c>
       <c r="B797" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C797" s="28" t="s">
         <v>641</v>
@@ -27242,7 +27254,7 @@
         <v>1832</v>
       </c>
       <c r="B798" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C798" s="28" t="s">
         <v>641</v>
@@ -27265,7 +27277,7 @@
         <v>1832</v>
       </c>
       <c r="B799" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C799" s="28" t="s">
         <v>641</v>
@@ -27288,7 +27300,7 @@
         <v>1832</v>
       </c>
       <c r="B800" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C800" s="28" t="s">
         <v>641</v>
@@ -27311,7 +27323,7 @@
         <v>1832</v>
       </c>
       <c r="B801" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C801" s="28" t="s">
         <v>641</v>
@@ -27334,7 +27346,7 @@
         <v>1832</v>
       </c>
       <c r="B802" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C802" s="28" t="s">
         <v>641</v>
@@ -27357,7 +27369,7 @@
         <v>1832</v>
       </c>
       <c r="B803" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C803" s="28" t="s">
         <v>641</v>
@@ -27380,7 +27392,7 @@
         <v>1832</v>
       </c>
       <c r="B804" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C804" s="28" t="s">
         <v>641</v>
@@ -27403,7 +27415,7 @@
         <v>1832</v>
       </c>
       <c r="B805" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C805" s="28" t="s">
         <v>641</v>
@@ -27426,7 +27438,7 @@
         <v>1832</v>
       </c>
       <c r="B806" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C806" s="28" t="s">
         <v>641</v>
@@ -27449,7 +27461,7 @@
         <v>1832</v>
       </c>
       <c r="B807" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C807" s="28" t="s">
         <v>641</v>
@@ -27472,7 +27484,7 @@
         <v>1832</v>
       </c>
       <c r="B808" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C808" s="28" t="s">
         <v>641</v>
@@ -27495,7 +27507,7 @@
         <v>1832</v>
       </c>
       <c r="B809" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C809" s="28" t="s">
         <v>641</v>
@@ -27518,7 +27530,7 @@
         <v>1832</v>
       </c>
       <c r="B810" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C810" s="28" t="s">
         <v>641</v>
@@ -27541,7 +27553,7 @@
         <v>1832</v>
       </c>
       <c r="B811" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C811" s="28" t="s">
         <v>641</v>
@@ -27564,7 +27576,7 @@
         <v>1832</v>
       </c>
       <c r="B812" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C812" s="28" t="s">
         <v>641</v>
@@ -27587,7 +27599,7 @@
         <v>1832</v>
       </c>
       <c r="B813" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C813" s="28" t="s">
         <v>641</v>
@@ -27610,7 +27622,7 @@
         <v>1832</v>
       </c>
       <c r="B814" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C814" s="28" t="s">
         <v>641</v>
@@ -27633,7 +27645,7 @@
         <v>1832</v>
       </c>
       <c r="B815" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C815" s="28" t="s">
         <v>641</v>
@@ -27656,7 +27668,7 @@
         <v>1832</v>
       </c>
       <c r="B816" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C816" s="28" t="s">
         <v>641</v>
@@ -27679,7 +27691,7 @@
         <v>1832</v>
       </c>
       <c r="B817" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C817" s="28" t="s">
         <v>641</v>
@@ -27702,7 +27714,7 @@
         <v>1832</v>
       </c>
       <c r="B818" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C818" s="28" t="s">
         <v>641</v>
@@ -27725,7 +27737,7 @@
         <v>1832</v>
       </c>
       <c r="B819" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C819" s="28" t="s">
         <v>641</v>
@@ -27748,7 +27760,7 @@
         <v>1832</v>
       </c>
       <c r="B820" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C820" s="28" t="s">
         <v>641</v>
@@ -27771,7 +27783,7 @@
         <v>1832</v>
       </c>
       <c r="B821" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C821" s="28" t="s">
         <v>641</v>
@@ -27794,7 +27806,7 @@
         <v>1832</v>
       </c>
       <c r="B822" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C822" s="28" t="s">
         <v>641</v>
@@ -27817,7 +27829,7 @@
         <v>1832</v>
       </c>
       <c r="B823" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C823" s="28" t="s">
         <v>641</v>
@@ -27840,7 +27852,7 @@
         <v>1832</v>
       </c>
       <c r="B824" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C824" s="28" t="s">
         <v>641</v>
@@ -27863,7 +27875,7 @@
         <v>1832</v>
       </c>
       <c r="B825" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C825" s="28" t="s">
         <v>641</v>
@@ -27886,7 +27898,7 @@
         <v>1832</v>
       </c>
       <c r="B826" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C826" s="28" t="s">
         <v>641</v>
@@ -27909,7 +27921,7 @@
         <v>1832</v>
       </c>
       <c r="B827" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C827" s="28" t="s">
         <v>641</v>
@@ -27932,7 +27944,7 @@
         <v>1832</v>
       </c>
       <c r="B828" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C828" s="28" t="s">
         <v>641</v>
@@ -27955,7 +27967,7 @@
         <v>1832</v>
       </c>
       <c r="B829" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C829" s="28" t="s">
         <v>641</v>
@@ -27978,7 +27990,7 @@
         <v>1832</v>
       </c>
       <c r="B830" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C830" s="28" t="s">
         <v>642</v>
@@ -28001,7 +28013,7 @@
         <v>1832</v>
       </c>
       <c r="B831" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C831" s="28" t="s">
         <v>642</v>
@@ -28024,7 +28036,7 @@
         <v>1832</v>
       </c>
       <c r="B832" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C832" s="28" t="s">
         <v>642</v>
@@ -28047,7 +28059,7 @@
         <v>1832</v>
       </c>
       <c r="B833" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C833" s="28" t="s">
         <v>642</v>
@@ -28070,7 +28082,7 @@
         <v>1832</v>
       </c>
       <c r="B834" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C834" s="28" t="s">
         <v>642</v>
@@ -28093,7 +28105,7 @@
         <v>1832</v>
       </c>
       <c r="B835" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C835" s="28" t="s">
         <v>642</v>
@@ -28116,7 +28128,7 @@
         <v>1832</v>
       </c>
       <c r="B836" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C836" s="28" t="s">
         <v>642</v>
@@ -28139,7 +28151,7 @@
         <v>1832</v>
       </c>
       <c r="B837" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C837" s="28" t="s">
         <v>642</v>
@@ -28162,7 +28174,7 @@
         <v>1832</v>
       </c>
       <c r="B838" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C838" s="28" t="s">
         <v>642</v>
@@ -28185,7 +28197,7 @@
         <v>1832</v>
       </c>
       <c r="B839" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C839" s="28" t="s">
         <v>642</v>
@@ -28208,7 +28220,7 @@
         <v>1832</v>
       </c>
       <c r="B840" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C840" s="28" t="s">
         <v>642</v>
@@ -28231,7 +28243,7 @@
         <v>1832</v>
       </c>
       <c r="B841" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C841" s="28" t="s">
         <v>642</v>
@@ -28254,7 +28266,7 @@
         <v>1832</v>
       </c>
       <c r="B842" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C842" s="28" t="s">
         <v>642</v>
@@ -28277,7 +28289,7 @@
         <v>1832</v>
       </c>
       <c r="B843" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C843" s="28" t="s">
         <v>642</v>
@@ -28300,7 +28312,7 @@
         <v>1832</v>
       </c>
       <c r="B844" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C844" s="28" t="s">
         <v>642</v>
@@ -28323,7 +28335,7 @@
         <v>1832</v>
       </c>
       <c r="B845" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C845" s="28" t="s">
         <v>642</v>
@@ -28346,7 +28358,7 @@
         <v>1832</v>
       </c>
       <c r="B846" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C846" s="28" t="s">
         <v>642</v>
@@ -28369,7 +28381,7 @@
         <v>1832</v>
       </c>
       <c r="B847" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C847" s="28" t="s">
         <v>642</v>
@@ -28392,7 +28404,7 @@
         <v>1832</v>
       </c>
       <c r="B848" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C848" s="28" t="s">
         <v>642</v>
@@ -28415,7 +28427,7 @@
         <v>1832</v>
       </c>
       <c r="B849" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C849" s="28" t="s">
         <v>642</v>
@@ -28438,7 +28450,7 @@
         <v>1832</v>
       </c>
       <c r="B850" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C850" s="28" t="s">
         <v>642</v>
@@ -28461,7 +28473,7 @@
         <v>1832</v>
       </c>
       <c r="B851" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C851" s="28" t="s">
         <v>642</v>
@@ -28484,7 +28496,7 @@
         <v>1832</v>
       </c>
       <c r="B852" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C852" s="28" t="s">
         <v>642</v>
@@ -28507,7 +28519,7 @@
         <v>1832</v>
       </c>
       <c r="B853" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C853" s="28" t="s">
         <v>642</v>
@@ -28530,7 +28542,7 @@
         <v>1832</v>
       </c>
       <c r="B854" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C854" s="28" t="s">
         <v>642</v>
@@ -28553,7 +28565,7 @@
         <v>1832</v>
       </c>
       <c r="B855" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C855" s="28" t="s">
         <v>642</v>
@@ -28576,7 +28588,7 @@
         <v>1832</v>
       </c>
       <c r="B856" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C856" s="28" t="s">
         <v>642</v>
@@ -28599,7 +28611,7 @@
         <v>1832</v>
       </c>
       <c r="B857" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C857" s="28" t="s">
         <v>642</v>
@@ -28622,7 +28634,7 @@
         <v>1832</v>
       </c>
       <c r="B858" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C858" s="28" t="s">
         <v>642</v>
@@ -28645,7 +28657,7 @@
         <v>1832</v>
       </c>
       <c r="B859" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C859" s="28" t="s">
         <v>642</v>
@@ -28668,7 +28680,7 @@
         <v>1832</v>
       </c>
       <c r="B860" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C860" s="28" t="s">
         <v>642</v>
@@ -28691,7 +28703,7 @@
         <v>1832</v>
       </c>
       <c r="B861" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C861" s="28" t="s">
         <v>642</v>
@@ -28714,7 +28726,7 @@
         <v>1832</v>
       </c>
       <c r="B862" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C862" s="28" t="s">
         <v>642</v>
@@ -28737,7 +28749,7 @@
         <v>1832</v>
       </c>
       <c r="B863" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C863" s="28" t="s">
         <v>642</v>
@@ -28760,7 +28772,7 @@
         <v>1832</v>
       </c>
       <c r="B864" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C864" s="28" t="s">
         <v>642</v>
@@ -28783,7 +28795,7 @@
         <v>1832</v>
       </c>
       <c r="B865" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C865" s="28" t="s">
         <v>642</v>
@@ -28806,7 +28818,7 @@
         <v>1832</v>
       </c>
       <c r="B866" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C866" s="28" t="s">
         <v>642</v>
@@ -28829,7 +28841,7 @@
         <v>1832</v>
       </c>
       <c r="B867" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C867" s="28" t="s">
         <v>642</v>
@@ -28852,7 +28864,7 @@
         <v>1832</v>
       </c>
       <c r="B868" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C868" s="28" t="s">
         <v>642</v>
@@ -28875,7 +28887,7 @@
         <v>1832</v>
       </c>
       <c r="B869" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C869" s="28" t="s">
         <v>642</v>
@@ -28898,7 +28910,7 @@
         <v>1832</v>
       </c>
       <c r="B870" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C870" s="28" t="s">
         <v>642</v>
@@ -28921,7 +28933,7 @@
         <v>1832</v>
       </c>
       <c r="B871" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C871" s="28" t="s">
         <v>642</v>
@@ -28944,7 +28956,7 @@
         <v>1832</v>
       </c>
       <c r="B872" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C872" s="28" t="s">
         <v>642</v>
@@ -28967,7 +28979,7 @@
         <v>1832</v>
       </c>
       <c r="B873" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C873" s="28" t="s">
         <v>642</v>
@@ -28990,7 +29002,7 @@
         <v>1832</v>
       </c>
       <c r="B874" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C874" s="28" t="s">
         <v>642</v>
@@ -29013,7 +29025,7 @@
         <v>1832</v>
       </c>
       <c r="B875" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C875" s="28" t="s">
         <v>642</v>
@@ -29036,7 +29048,7 @@
         <v>1832</v>
       </c>
       <c r="B876" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C876" s="28" t="s">
         <v>642</v>
@@ -29059,7 +29071,7 @@
         <v>1832</v>
       </c>
       <c r="B877" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C877" s="28" t="s">
         <v>642</v>
@@ -29082,7 +29094,7 @@
         <v>1832</v>
       </c>
       <c r="B878" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C878" s="28" t="s">
         <v>642</v>
@@ -29105,7 +29117,7 @@
         <v>1832</v>
       </c>
       <c r="B879" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C879" s="28" t="s">
         <v>642</v>
@@ -29128,7 +29140,7 @@
         <v>1832</v>
       </c>
       <c r="B880" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C880" t="s">
         <v>642</v>
@@ -29151,7 +29163,7 @@
         <v>1832</v>
       </c>
       <c r="B881" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C881" s="28" t="s">
         <v>642</v>
@@ -29174,7 +29186,7 @@
         <v>1832</v>
       </c>
       <c r="B882" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C882" s="28" t="s">
         <v>642</v>
@@ -29197,7 +29209,7 @@
         <v>1832</v>
       </c>
       <c r="B883" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C883" s="28" t="s">
         <v>642</v>
@@ -29220,7 +29232,7 @@
         <v>1832</v>
       </c>
       <c r="B884" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C884" s="28" t="s">
         <v>642</v>
@@ -29243,7 +29255,7 @@
         <v>1832</v>
       </c>
       <c r="B885" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C885" s="28" t="s">
         <v>642</v>
@@ -29266,7 +29278,7 @@
         <v>1832</v>
       </c>
       <c r="B886" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C886" s="28" t="s">
         <v>642</v>
@@ -29289,7 +29301,7 @@
         <v>1832</v>
       </c>
       <c r="B887" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C887" s="28" t="s">
         <v>642</v>
@@ -29312,7 +29324,7 @@
         <v>1832</v>
       </c>
       <c r="B888" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C888" s="28" t="s">
         <v>642</v>
@@ -29335,7 +29347,7 @@
         <v>1832</v>
       </c>
       <c r="B889" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C889" s="28" t="s">
         <v>642</v>
@@ -29358,7 +29370,7 @@
         <v>1832</v>
       </c>
       <c r="B890" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C890" s="28" t="s">
         <v>642</v>
@@ -29381,7 +29393,7 @@
         <v>1832</v>
       </c>
       <c r="B891" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C891" s="28" t="s">
         <v>642</v>
@@ -29404,7 +29416,7 @@
         <v>1832</v>
       </c>
       <c r="B892" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C892" s="30" t="s">
         <v>643</v>
@@ -29427,7 +29439,7 @@
         <v>1832</v>
       </c>
       <c r="B893" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C893" s="30" t="s">
         <v>643</v>
@@ -29450,7 +29462,7 @@
         <v>1832</v>
       </c>
       <c r="B894" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C894" s="30" t="s">
         <v>643</v>
@@ -29473,7 +29485,7 @@
         <v>1832</v>
       </c>
       <c r="B895" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C895" s="30" t="s">
         <v>643</v>
@@ -29496,7 +29508,7 @@
         <v>1832</v>
       </c>
       <c r="B896" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C896" s="30" t="s">
         <v>643</v>
@@ -29519,7 +29531,7 @@
         <v>1832</v>
       </c>
       <c r="B897" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C897" s="30" t="s">
         <v>643</v>
@@ -29542,7 +29554,7 @@
         <v>1832</v>
       </c>
       <c r="B898" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C898" s="30" t="s">
         <v>643</v>
@@ -29565,7 +29577,7 @@
         <v>1832</v>
       </c>
       <c r="B899" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C899" s="30" t="s">
         <v>643</v>
@@ -29588,7 +29600,7 @@
         <v>1832</v>
       </c>
       <c r="B900" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C900" s="30" t="s">
         <v>643</v>
@@ -29611,7 +29623,7 @@
         <v>1832</v>
       </c>
       <c r="B901" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C901" s="30" t="s">
         <v>643</v>
@@ -29634,7 +29646,7 @@
         <v>1832</v>
       </c>
       <c r="B902" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C902" s="30" t="s">
         <v>643</v>
@@ -29657,7 +29669,7 @@
         <v>1832</v>
       </c>
       <c r="B903" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C903" s="32" t="s">
         <v>643</v>
@@ -29680,7 +29692,7 @@
         <v>1832</v>
       </c>
       <c r="B904" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C904" s="30" t="s">
         <v>643</v>
@@ -29703,7 +29715,7 @@
         <v>1832</v>
       </c>
       <c r="B905" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C905" s="30" t="s">
         <v>643</v>
@@ -29726,7 +29738,7 @@
         <v>1832</v>
       </c>
       <c r="B906" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C906" s="30" t="s">
         <v>643</v>
@@ -29749,7 +29761,7 @@
         <v>1832</v>
       </c>
       <c r="B907" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C907" s="30" t="s">
         <v>643</v>
@@ -29772,7 +29784,7 @@
         <v>1832</v>
       </c>
       <c r="B908" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C908" s="30" t="s">
         <v>643</v>
@@ -29795,7 +29807,7 @@
         <v>1832</v>
       </c>
       <c r="B909" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C909" s="30" t="s">
         <v>643</v>
@@ -29818,7 +29830,7 @@
         <v>1832</v>
       </c>
       <c r="B910" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C910" s="30" t="s">
         <v>643</v>
@@ -29841,7 +29853,7 @@
         <v>1832</v>
       </c>
       <c r="B911" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C911" s="30" t="s">
         <v>643</v>
@@ -29864,7 +29876,7 @@
         <v>1832</v>
       </c>
       <c r="B912" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C912" s="32" t="s">
         <v>643</v>
@@ -29887,7 +29899,7 @@
         <v>1832</v>
       </c>
       <c r="B913" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C913" s="30" t="s">
         <v>643</v>
@@ -29910,7 +29922,7 @@
         <v>1832</v>
       </c>
       <c r="B914" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C914" s="30" t="s">
         <v>643</v>
@@ -29933,7 +29945,7 @@
         <v>1832</v>
       </c>
       <c r="B915" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C915" s="28" t="s">
         <v>222</v>
@@ -29956,7 +29968,7 @@
         <v>1832</v>
       </c>
       <c r="B916" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C916" s="28" t="s">
         <v>222</v>
@@ -29979,7 +29991,7 @@
         <v>1832</v>
       </c>
       <c r="B917" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C917" s="28" t="s">
         <v>222</v>
@@ -30002,7 +30014,7 @@
         <v>1832</v>
       </c>
       <c r="B918" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C918" s="28" t="s">
         <v>222</v>
@@ -30025,7 +30037,7 @@
         <v>1832</v>
       </c>
       <c r="B919" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C919" s="28" t="s">
         <v>222</v>
@@ -30048,7 +30060,7 @@
         <v>1832</v>
       </c>
       <c r="B920" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C920" s="28" t="s">
         <v>222</v>
@@ -30071,7 +30083,7 @@
         <v>1832</v>
       </c>
       <c r="B921" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C921" s="28" t="s">
         <v>222</v>
@@ -30094,7 +30106,7 @@
         <v>1832</v>
       </c>
       <c r="B922" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C922" t="s">
         <v>222</v>
@@ -30117,7 +30129,7 @@
         <v>1832</v>
       </c>
       <c r="B923" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C923" s="28" t="s">
         <v>222</v>
@@ -30140,7 +30152,7 @@
         <v>1832</v>
       </c>
       <c r="B924" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C924" s="28" t="s">
         <v>222</v>
@@ -30163,7 +30175,7 @@
         <v>1832</v>
       </c>
       <c r="B925" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C925" s="28" t="s">
         <v>222</v>
@@ -30186,7 +30198,7 @@
         <v>1832</v>
       </c>
       <c r="B926" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C926" s="28" t="s">
         <v>222</v>
@@ -30209,7 +30221,7 @@
         <v>1832</v>
       </c>
       <c r="B927" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C927" s="28" t="s">
         <v>222</v>
@@ -30232,7 +30244,7 @@
         <v>1832</v>
       </c>
       <c r="B928" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C928" s="28" t="s">
         <v>222</v>
@@ -30255,7 +30267,7 @@
         <v>1832</v>
       </c>
       <c r="B929" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C929" s="28" t="s">
         <v>222</v>
@@ -30278,7 +30290,7 @@
         <v>1832</v>
       </c>
       <c r="B930" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C930" s="28" t="s">
         <v>222</v>
@@ -30301,7 +30313,7 @@
         <v>1832</v>
       </c>
       <c r="B931" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C931" s="28" t="s">
         <v>222</v>
@@ -30324,7 +30336,7 @@
         <v>1832</v>
       </c>
       <c r="B932" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C932" s="28" t="s">
         <v>222</v>
@@ -30347,7 +30359,7 @@
         <v>1832</v>
       </c>
       <c r="B933" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C933" s="28" t="s">
         <v>222</v>
@@ -30370,7 +30382,7 @@
         <v>1832</v>
       </c>
       <c r="B934" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C934" s="28" t="s">
         <v>222</v>
@@ -30393,7 +30405,7 @@
         <v>1832</v>
       </c>
       <c r="B935" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C935" s="28" t="s">
         <v>222</v>
@@ -30416,7 +30428,7 @@
         <v>1832</v>
       </c>
       <c r="B936" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C936" s="28" t="s">
         <v>222</v>
@@ -30439,7 +30451,7 @@
         <v>1832</v>
       </c>
       <c r="B937" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C937" s="28" t="s">
         <v>222</v>
@@ -30462,7 +30474,7 @@
         <v>1832</v>
       </c>
       <c r="B938" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C938" s="28" t="s">
         <v>222</v>
@@ -30485,7 +30497,7 @@
         <v>1832</v>
       </c>
       <c r="B939" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C939" s="28" t="s">
         <v>222</v>
@@ -30508,7 +30520,7 @@
         <v>1832</v>
       </c>
       <c r="B940" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C940" s="28" t="s">
         <v>222</v>
@@ -30531,7 +30543,7 @@
         <v>1832</v>
       </c>
       <c r="B941" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C941" s="28" t="s">
         <v>222</v>
@@ -30554,7 +30566,7 @@
         <v>1832</v>
       </c>
       <c r="B942" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C942" s="28" t="s">
         <v>222</v>
@@ -30577,7 +30589,7 @@
         <v>1832</v>
       </c>
       <c r="B943" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C943" s="28" t="s">
         <v>222</v>
@@ -30600,7 +30612,7 @@
         <v>1832</v>
       </c>
       <c r="B944" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C944" s="28" t="s">
         <v>222</v>
@@ -30623,7 +30635,7 @@
         <v>1832</v>
       </c>
       <c r="B945" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C945" s="28" t="s">
         <v>222</v>
@@ -30646,7 +30658,7 @@
         <v>1832</v>
       </c>
       <c r="B946" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C946" s="28" t="s">
         <v>222</v>
@@ -30669,7 +30681,7 @@
         <v>1832</v>
       </c>
       <c r="B947" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C947" s="28" t="s">
         <v>222</v>
@@ -30692,7 +30704,7 @@
         <v>1832</v>
       </c>
       <c r="B948" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C948" s="28" t="s">
         <v>222</v>
@@ -30715,7 +30727,7 @@
         <v>1832</v>
       </c>
       <c r="B949" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C949" s="28" t="s">
         <v>222</v>
@@ -30738,7 +30750,7 @@
         <v>1832</v>
       </c>
       <c r="B950" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C950" s="28" t="s">
         <v>222</v>
@@ -30761,7 +30773,7 @@
         <v>1832</v>
       </c>
       <c r="B951" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C951" s="28" t="s">
         <v>222</v>
@@ -30784,7 +30796,7 @@
         <v>1832</v>
       </c>
       <c r="B952" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C952" s="28" t="s">
         <v>222</v>
@@ -30807,7 +30819,7 @@
         <v>1832</v>
       </c>
       <c r="B953" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C953" s="28" t="s">
         <v>222</v>
@@ -30830,7 +30842,7 @@
         <v>1832</v>
       </c>
       <c r="B954" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C954" s="28" t="s">
         <v>222</v>
@@ -30853,7 +30865,7 @@
         <v>1832</v>
       </c>
       <c r="B955" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C955" s="28" t="s">
         <v>222</v>
@@ -30876,7 +30888,7 @@
         <v>1832</v>
       </c>
       <c r="B956" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C956" s="28" t="s">
         <v>222</v>
@@ -30899,7 +30911,7 @@
         <v>1832</v>
       </c>
       <c r="B957" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C957" s="28" t="s">
         <v>222</v>
@@ -30922,7 +30934,7 @@
         <v>1832</v>
       </c>
       <c r="B958" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C958" s="28" t="s">
         <v>222</v>
@@ -30945,7 +30957,7 @@
         <v>1832</v>
       </c>
       <c r="B959" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C959" s="28" t="s">
         <v>222</v>
@@ -30968,7 +30980,7 @@
         <v>1832</v>
       </c>
       <c r="B960" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C960" s="28" t="s">
         <v>222</v>
@@ -30991,7 +31003,7 @@
         <v>1832</v>
       </c>
       <c r="B961" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C961" s="28" t="s">
         <v>222</v>
@@ -31014,7 +31026,7 @@
         <v>1832</v>
       </c>
       <c r="B962" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C962" s="28" t="s">
         <v>222</v>
@@ -31037,7 +31049,7 @@
         <v>1832</v>
       </c>
       <c r="B963" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C963" s="28" t="s">
         <v>222</v>
@@ -31060,7 +31072,7 @@
         <v>1832</v>
       </c>
       <c r="B964" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C964" s="28" t="s">
         <v>222</v>
@@ -31084,7 +31096,7 @@
         <v>1832</v>
       </c>
       <c r="B965" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C965" s="28" t="s">
         <v>222</v>
@@ -31108,7 +31120,7 @@
         <v>1832</v>
       </c>
       <c r="B966" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C966" s="28" t="s">
         <v>222</v>
@@ -31131,7 +31143,7 @@
         <v>1832</v>
       </c>
       <c r="B967" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C967" s="28" t="s">
         <v>222</v>
@@ -31155,7 +31167,7 @@
         <v>1832</v>
       </c>
       <c r="B968" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C968" s="28" t="s">
         <v>222</v>
@@ -31179,7 +31191,7 @@
         <v>1832</v>
       </c>
       <c r="B969" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C969" s="28" t="s">
         <v>222</v>
@@ -31203,7 +31215,7 @@
         <v>1832</v>
       </c>
       <c r="B970" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C970" s="28" t="s">
         <v>222</v>
@@ -31227,7 +31239,7 @@
         <v>1832</v>
       </c>
       <c r="B971" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C971" s="28" t="s">
         <v>222</v>
@@ -31251,7 +31263,7 @@
         <v>1832</v>
       </c>
       <c r="B972" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C972" s="28" t="s">
         <v>222</v>
@@ -31275,7 +31287,7 @@
         <v>1832</v>
       </c>
       <c r="B973" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C973" s="28" t="s">
         <v>222</v>
@@ -31299,7 +31311,7 @@
         <v>1832</v>
       </c>
       <c r="B974" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C974" s="28" t="s">
         <v>222</v>
@@ -31323,7 +31335,7 @@
         <v>1832</v>
       </c>
       <c r="B975" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C975" s="28" t="s">
         <v>222</v>
@@ -31346,7 +31358,7 @@
         <v>1832</v>
       </c>
       <c r="B976" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C976" s="28" t="s">
         <v>222</v>
@@ -31369,7 +31381,7 @@
         <v>1832</v>
       </c>
       <c r="B977" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C977" s="28" t="s">
         <v>222</v>
@@ -31392,7 +31404,7 @@
         <v>1832</v>
       </c>
       <c r="B978" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C978" s="28" t="s">
         <v>222</v>
@@ -31415,7 +31427,7 @@
         <v>1832</v>
       </c>
       <c r="B979" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C979" s="28" t="s">
         <v>222</v>
@@ -31438,7 +31450,7 @@
         <v>1832</v>
       </c>
       <c r="B980" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C980" s="28" t="s">
         <v>222</v>
@@ -31461,7 +31473,7 @@
         <v>1832</v>
       </c>
       <c r="B981" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C981" s="28" t="s">
         <v>222</v>
@@ -31484,7 +31496,7 @@
         <v>1832</v>
       </c>
       <c r="B982" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C982" s="28" t="s">
         <v>222</v>
@@ -31507,7 +31519,7 @@
         <v>1832</v>
       </c>
       <c r="B983" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C983" s="28" t="s">
         <v>222</v>
@@ -31530,7 +31542,7 @@
         <v>1832</v>
       </c>
       <c r="B984" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C984" s="28" t="s">
         <v>222</v>
@@ -31553,7 +31565,7 @@
         <v>1832</v>
       </c>
       <c r="B985" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C985" s="28" t="s">
         <v>222</v>
@@ -31576,7 +31588,7 @@
         <v>1832</v>
       </c>
       <c r="B986" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C986" s="28" t="s">
         <v>222</v>
@@ -31599,7 +31611,7 @@
         <v>1832</v>
       </c>
       <c r="B987" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C987" s="28" t="s">
         <v>222</v>
@@ -31622,7 +31634,7 @@
         <v>1832</v>
       </c>
       <c r="B988" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C988" s="28" t="s">
         <v>222</v>
@@ -31645,7 +31657,7 @@
         <v>1832</v>
       </c>
       <c r="B989" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C989" s="28" t="s">
         <v>222</v>
@@ -31668,7 +31680,7 @@
         <v>1832</v>
       </c>
       <c r="B990" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C990" s="28" t="s">
         <v>222</v>
@@ -31691,7 +31703,7 @@
         <v>1832</v>
       </c>
       <c r="B991" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C991" s="28" t="s">
         <v>222</v>
@@ -31714,7 +31726,7 @@
         <v>1832</v>
       </c>
       <c r="B992" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C992" s="28" t="s">
         <v>222</v>
@@ -31737,7 +31749,7 @@
         <v>1832</v>
       </c>
       <c r="B993" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C993" s="28" t="s">
         <v>222</v>
@@ -31760,7 +31772,7 @@
         <v>1832</v>
       </c>
       <c r="B994" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C994" s="28" t="s">
         <v>222</v>
@@ -31783,7 +31795,7 @@
         <v>1832</v>
       </c>
       <c r="B995" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C995" s="28" t="s">
         <v>222</v>
@@ -31806,7 +31818,7 @@
         <v>1832</v>
       </c>
       <c r="B996" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C996" s="28" t="s">
         <v>222</v>
@@ -31829,7 +31841,7 @@
         <v>1832</v>
       </c>
       <c r="B997" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C997" s="28" t="s">
         <v>222</v>
@@ -31852,7 +31864,7 @@
         <v>1832</v>
       </c>
       <c r="B998" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C998" s="28" t="s">
         <v>222</v>
@@ -31875,7 +31887,7 @@
         <v>1832</v>
       </c>
       <c r="B999" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C999" s="28" t="s">
         <v>222</v>
@@ -31898,7 +31910,7 @@
         <v>1832</v>
       </c>
       <c r="B1000" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C1000" s="28" t="s">
         <v>222</v>
@@ -31921,7 +31933,7 @@
         <v>1832</v>
       </c>
       <c r="B1001" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C1001" s="28" t="s">
         <v>222</v>
@@ -31944,7 +31956,7 @@
         <v>1832</v>
       </c>
       <c r="B1002" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C1002" s="28" t="s">
         <v>222</v>
@@ -31967,7 +31979,7 @@
         <v>1832</v>
       </c>
       <c r="B1003" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C1003" s="28" t="s">
         <v>222</v>
@@ -31990,7 +32002,7 @@
         <v>1832</v>
       </c>
       <c r="B1004" s="9" t="s">
-        <v>1917</v>
+        <v>2070</v>
       </c>
       <c r="C1004" s="28" t="s">
         <v>222</v>
@@ -32013,7 +32025,7 @@
         <v>1835</v>
       </c>
       <c r="B1005" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1005" s="8" t="s">
         <v>509</v>
@@ -32034,7 +32046,7 @@
         <v>1835</v>
       </c>
       <c r="B1006" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1006" s="8" t="s">
         <v>509</v>
@@ -32055,7 +32067,7 @@
         <v>1835</v>
       </c>
       <c r="B1007" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1007" s="8" t="s">
         <v>509</v>
@@ -32076,7 +32088,7 @@
         <v>1835</v>
       </c>
       <c r="B1008" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1008" s="8" t="s">
         <v>509</v>
@@ -32097,7 +32109,7 @@
         <v>1835</v>
       </c>
       <c r="B1009" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1009" s="8" t="s">
         <v>509</v>
@@ -32118,7 +32130,7 @@
         <v>1835</v>
       </c>
       <c r="B1010" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1010" s="8" t="s">
         <v>509</v>
@@ -32139,7 +32151,7 @@
         <v>1835</v>
       </c>
       <c r="B1011" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1011" s="8" t="s">
         <v>509</v>
@@ -32160,7 +32172,7 @@
         <v>1835</v>
       </c>
       <c r="B1012" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1012" s="8" t="s">
         <v>509</v>
@@ -32181,7 +32193,7 @@
         <v>1835</v>
       </c>
       <c r="B1013" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1013" s="8" t="s">
         <v>509</v>
@@ -32202,7 +32214,7 @@
         <v>1835</v>
       </c>
       <c r="B1014" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1014" s="8" t="s">
         <v>509</v>
@@ -32223,7 +32235,7 @@
         <v>1835</v>
       </c>
       <c r="B1015" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1015" s="8" t="s">
         <v>509</v>
@@ -32244,7 +32256,7 @@
         <v>1835</v>
       </c>
       <c r="B1016" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1016" s="8" t="s">
         <v>509</v>
@@ -32265,7 +32277,7 @@
         <v>1835</v>
       </c>
       <c r="B1017" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1017" s="8" t="s">
         <v>509</v>
@@ -32286,7 +32298,7 @@
         <v>1835</v>
       </c>
       <c r="B1018" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1018" s="8" t="s">
         <v>509</v>
@@ -32307,7 +32319,7 @@
         <v>1835</v>
       </c>
       <c r="B1019" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1019" s="8" t="s">
         <v>509</v>
@@ -32328,7 +32340,7 @@
         <v>1835</v>
       </c>
       <c r="B1020" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1020" s="8" t="s">
         <v>509</v>
@@ -32349,7 +32361,7 @@
         <v>1835</v>
       </c>
       <c r="B1021" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1021" s="8" t="s">
         <v>509</v>
@@ -32370,7 +32382,7 @@
         <v>1835</v>
       </c>
       <c r="B1022" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1022" s="8" t="s">
         <v>509</v>
@@ -32391,7 +32403,7 @@
         <v>1835</v>
       </c>
       <c r="B1023" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1023" s="8" t="s">
         <v>403</v>
@@ -32412,7 +32424,7 @@
         <v>1835</v>
       </c>
       <c r="B1024" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1024" s="8" t="s">
         <v>403</v>
@@ -32433,7 +32445,7 @@
         <v>1835</v>
       </c>
       <c r="B1025" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1025" s="8" t="s">
         <v>403</v>
@@ -32454,7 +32466,7 @@
         <v>1835</v>
       </c>
       <c r="B1026" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1026" s="8" t="s">
         <v>403</v>
@@ -32475,7 +32487,7 @@
         <v>1835</v>
       </c>
       <c r="B1027" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1027" s="8" t="s">
         <v>403</v>
@@ -32496,7 +32508,7 @@
         <v>1835</v>
       </c>
       <c r="B1028" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1028" s="8" t="s">
         <v>403</v>
@@ -32517,7 +32529,7 @@
         <v>1835</v>
       </c>
       <c r="B1029" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1029" s="8" t="s">
         <v>403</v>
@@ -32538,7 +32550,7 @@
         <v>1835</v>
       </c>
       <c r="B1030" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1030" s="8" t="s">
         <v>403</v>
@@ -32559,7 +32571,7 @@
         <v>1835</v>
       </c>
       <c r="B1031" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1031" s="8" t="s">
         <v>403</v>
@@ -32580,7 +32592,7 @@
         <v>1835</v>
       </c>
       <c r="B1032" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1032" s="8" t="s">
         <v>403</v>
@@ -32601,7 +32613,7 @@
         <v>1835</v>
       </c>
       <c r="B1033" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1033" s="8" t="s">
         <v>403</v>
@@ -32622,7 +32634,7 @@
         <v>1835</v>
       </c>
       <c r="B1034" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1034" s="8" t="s">
         <v>403</v>
@@ -32643,7 +32655,7 @@
         <v>1835</v>
       </c>
       <c r="B1035" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1035" s="8" t="s">
         <v>403</v>
@@ -32664,7 +32676,7 @@
         <v>1835</v>
       </c>
       <c r="B1036" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1036" s="8" t="s">
         <v>403</v>
@@ -32685,7 +32697,7 @@
         <v>1835</v>
       </c>
       <c r="B1037" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1037" s="8" t="s">
         <v>403</v>
@@ -32706,7 +32718,7 @@
         <v>1835</v>
       </c>
       <c r="B1038" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1038" s="8" t="s">
         <v>403</v>
@@ -32727,7 +32739,7 @@
         <v>1835</v>
       </c>
       <c r="B1039" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1039" s="8" t="s">
         <v>403</v>
@@ -32748,7 +32760,7 @@
         <v>1835</v>
       </c>
       <c r="B1040" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1040" s="8" t="s">
         <v>403</v>
@@ -32769,7 +32781,7 @@
         <v>1835</v>
       </c>
       <c r="B1041" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1041" s="8" t="s">
         <v>403</v>
@@ -32790,7 +32802,7 @@
         <v>1835</v>
       </c>
       <c r="B1042" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1042" s="8" t="s">
         <v>403</v>
@@ -32811,7 +32823,7 @@
         <v>1835</v>
       </c>
       <c r="B1043" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1043" s="8" t="s">
         <v>403</v>
@@ -32832,7 +32844,7 @@
         <v>1835</v>
       </c>
       <c r="B1044" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1044" s="8" t="s">
         <v>403</v>
@@ -32853,7 +32865,7 @@
         <v>1835</v>
       </c>
       <c r="B1045" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1045" s="8" t="s">
         <v>403</v>
@@ -32874,7 +32886,7 @@
         <v>1835</v>
       </c>
       <c r="B1046" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1046" s="8" t="s">
         <v>403</v>
@@ -32895,7 +32907,7 @@
         <v>1835</v>
       </c>
       <c r="B1047" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1047" s="8" t="s">
         <v>403</v>
@@ -32916,7 +32928,7 @@
         <v>1835</v>
       </c>
       <c r="B1048" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1048" s="8" t="s">
         <v>403</v>
@@ -32937,7 +32949,7 @@
         <v>1835</v>
       </c>
       <c r="B1049" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1049" s="8" t="s">
         <v>403</v>
@@ -32958,7 +32970,7 @@
         <v>1835</v>
       </c>
       <c r="B1050" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1050" s="8" t="s">
         <v>403</v>
@@ -32979,7 +32991,7 @@
         <v>1835</v>
       </c>
       <c r="B1051" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1051" s="8" t="s">
         <v>403</v>
@@ -33000,7 +33012,7 @@
         <v>1835</v>
       </c>
       <c r="B1052" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1052" s="8" t="s">
         <v>403</v>
@@ -33021,7 +33033,7 @@
         <v>1835</v>
       </c>
       <c r="B1053" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1053" s="8" t="s">
         <v>403</v>
@@ -33042,7 +33054,7 @@
         <v>1835</v>
       </c>
       <c r="B1054" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1054" s="8" t="s">
         <v>403</v>
@@ -33063,7 +33075,7 @@
         <v>1835</v>
       </c>
       <c r="B1055" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1055" s="8" t="s">
         <v>403</v>
@@ -33084,7 +33096,7 @@
         <v>1835</v>
       </c>
       <c r="B1056" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1056" s="8" t="s">
         <v>403</v>
@@ -33105,7 +33117,7 @@
         <v>1835</v>
       </c>
       <c r="B1057" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1057" s="8" t="s">
         <v>403</v>
@@ -33126,7 +33138,7 @@
         <v>1835</v>
       </c>
       <c r="B1058" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1058" s="8" t="s">
         <v>403</v>
@@ -33147,7 +33159,7 @@
         <v>1835</v>
       </c>
       <c r="B1059" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1059" s="8" t="s">
         <v>403</v>
@@ -33168,7 +33180,7 @@
         <v>1835</v>
       </c>
       <c r="B1060" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1060" s="8" t="s">
         <v>403</v>
@@ -33189,7 +33201,7 @@
         <v>1835</v>
       </c>
       <c r="B1061" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1061" s="8" t="s">
         <v>403</v>
@@ -33210,7 +33222,7 @@
         <v>1835</v>
       </c>
       <c r="B1062" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1062" s="8" t="s">
         <v>403</v>
@@ -33231,7 +33243,7 @@
         <v>1835</v>
       </c>
       <c r="B1063" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1063" s="8" t="s">
         <v>403</v>
@@ -33252,7 +33264,7 @@
         <v>1835</v>
       </c>
       <c r="B1064" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1064" s="8" t="s">
         <v>403</v>
@@ -33273,7 +33285,7 @@
         <v>1835</v>
       </c>
       <c r="B1065" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1065" s="8" t="s">
         <v>403</v>
@@ -33294,7 +33306,7 @@
         <v>1835</v>
       </c>
       <c r="B1066" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1066" s="8" t="s">
         <v>403</v>
@@ -33315,7 +33327,7 @@
         <v>1835</v>
       </c>
       <c r="B1067" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1067" s="8" t="s">
         <v>403</v>
@@ -33336,7 +33348,7 @@
         <v>1835</v>
       </c>
       <c r="B1068" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1068" s="8" t="s">
         <v>403</v>
@@ -33357,7 +33369,7 @@
         <v>1835</v>
       </c>
       <c r="B1069" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1069" s="8" t="s">
         <v>403</v>
@@ -33378,7 +33390,7 @@
         <v>1835</v>
       </c>
       <c r="B1070" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1070" s="8" t="s">
         <v>403</v>
@@ -33399,7 +33411,7 @@
         <v>1835</v>
       </c>
       <c r="B1071" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1071" s="8" t="s">
         <v>403</v>
@@ -33420,7 +33432,7 @@
         <v>1835</v>
       </c>
       <c r="B1072" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1072" s="8" t="s">
         <v>403</v>
@@ -33441,7 +33453,7 @@
         <v>1835</v>
       </c>
       <c r="B1073" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1073" s="8" t="s">
         <v>403</v>
@@ -33462,7 +33474,7 @@
         <v>1835</v>
       </c>
       <c r="B1074" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1074" s="8" t="s">
         <v>403</v>
@@ -33483,7 +33495,7 @@
         <v>1835</v>
       </c>
       <c r="B1075" s="8" t="s">
-        <v>1917</v>
+        <v>2071</v>
       </c>
       <c r="C1075" s="8" t="s">
         <v>403</v>

--- a/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
+++ b/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\P20 WIN Data Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1640F1C5-04F3-44F9-8746-9A67CB7A0A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B313D060-931C-42DA-8150-D571375EE453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-1695" windowWidth="24240" windowHeight="13140" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7688,21 +7688,6 @@
     <t>Department of Children and Families (DCF)</t>
   </si>
   <si>
-    <t>CCIC All Programs</t>
-  </si>
-  <si>
-    <t>OEC All Programs</t>
-  </si>
-  <si>
-    <t>OHE All Programs</t>
-  </si>
-  <si>
-    <t>SDE All Programs</t>
-  </si>
-  <si>
-    <t>UConn All Programs</t>
-  </si>
-  <si>
     <t>Homeless Management Information System (HMIS)</t>
   </si>
   <si>
@@ -8003,6 +7988,21 @@
 RESV – Reserves,
 UN – Uncategorized.  For foreign institutions use the ETS/College Board country code based on where the school is located(this is a 3 digit code)
 Retrieved from the System Office CDST plus the College Board web site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCIC Member Institutions </t>
+  </si>
+  <si>
+    <t>OEC Programs</t>
+  </si>
+  <si>
+    <t>OHE Programs</t>
+  </si>
+  <si>
+    <t>SDE Programs</t>
+  </si>
+  <si>
+    <t>UConn</t>
   </si>
 </sst>
 </file>
@@ -8582,9 +8582,9 @@
   </sheetPr>
   <dimension ref="A1:AJ1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
+      <selection pane="bottomLeft" activeCell="C1050" sqref="C1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8655,25 +8655,25 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -8707,25 +8707,25 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>2092</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2096</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>2097</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -8759,25 +8759,25 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -8811,25 +8811,25 @@
     </row>
     <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>1625</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -8863,25 +8863,25 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -8915,25 +8915,25 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -8967,25 +8967,25 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -9019,25 +9019,25 @@
     </row>
     <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>1625</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -9071,25 +9071,25 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -9123,25 +9123,25 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -9175,25 +9175,25 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -9224,25 +9224,25 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -9273,646 +9273,646 @@
     </row>
     <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B15" s="37" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>2068</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="E15" s="39" t="s">
         <v>2069</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>2073</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>2074</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>2145</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>2068</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>2150</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>638</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>1847</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>1850</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="F27" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>1923</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="F29" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>194</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>1848</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="F34" s="38" t="s">
         <v>1625</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="F35" s="37" t="s">
         <v>1625</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="F36" s="37" t="s">
         <v>1625</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C37" s="37" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E37" s="40" t="s">
         <v>2132</v>
       </c>
-      <c r="D37" s="37" t="s">
-        <v>2136</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>2137</v>
-      </c>
       <c r="F37" s="37" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="F38" s="37" t="s">
         <v>1625</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>1625</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
         <v>1829</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>222</v>
@@ -9941,7 +9941,7 @@
         <v>1829</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>222</v>
@@ -9962,7 +9962,7 @@
         <v>1829</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>222</v>
@@ -9983,7 +9983,7 @@
         <v>1829</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>222</v>
@@ -10004,7 +10004,7 @@
         <v>1829</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>222</v>
@@ -10025,7 +10025,7 @@
         <v>1829</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>222</v>
@@ -10046,7 +10046,7 @@
         <v>1829</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>222</v>
@@ -10067,7 +10067,7 @@
         <v>1829</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>222</v>
@@ -10088,7 +10088,7 @@
         <v>1829</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>222</v>
@@ -10109,7 +10109,7 @@
         <v>1829</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>222</v>
@@ -10130,7 +10130,7 @@
         <v>1829</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>222</v>
@@ -10151,7 +10151,7 @@
         <v>1829</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>222</v>
@@ -10172,7 +10172,7 @@
         <v>1829</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>222</v>
@@ -10193,7 +10193,7 @@
         <v>1829</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>222</v>
@@ -10214,7 +10214,7 @@
         <v>1829</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>222</v>
@@ -10235,7 +10235,7 @@
         <v>1829</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>222</v>
@@ -10256,7 +10256,7 @@
         <v>1829</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>222</v>
@@ -10277,7 +10277,7 @@
         <v>1829</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>222</v>
@@ -10298,7 +10298,7 @@
         <v>1829</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>398</v>
@@ -10319,7 +10319,7 @@
         <v>1829</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>398</v>
@@ -10340,7 +10340,7 @@
         <v>1829</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>398</v>
@@ -10361,7 +10361,7 @@
         <v>1829</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>398</v>
@@ -10382,7 +10382,7 @@
         <v>1829</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>398</v>
@@ -10403,7 +10403,7 @@
         <v>1829</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>398</v>
@@ -10424,7 +10424,7 @@
         <v>1829</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>398</v>
@@ -10445,7 +10445,7 @@
         <v>1829</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>398</v>
@@ -10466,7 +10466,7 @@
         <v>1829</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>398</v>
@@ -10487,7 +10487,7 @@
         <v>1829</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>398</v>
@@ -10508,7 +10508,7 @@
         <v>1829</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>398</v>
@@ -10529,7 +10529,7 @@
         <v>1829</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>398</v>
@@ -10550,7 +10550,7 @@
         <v>1829</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>226</v>
@@ -10571,7 +10571,7 @@
         <v>1829</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>226</v>
@@ -10592,7 +10592,7 @@
         <v>1829</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>47</v>
@@ -10613,7 +10613,7 @@
         <v>1829</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>47</v>
@@ -10634,7 +10634,7 @@
         <v>1829</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>47</v>
@@ -10655,7 +10655,7 @@
         <v>1829</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>47</v>
@@ -10676,7 +10676,7 @@
         <v>1829</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>47</v>
@@ -10697,7 +10697,7 @@
         <v>1829</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>47</v>
@@ -10718,7 +10718,7 @@
         <v>1829</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>47</v>
@@ -10739,7 +10739,7 @@
         <v>1829</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>47</v>
@@ -10760,7 +10760,7 @@
         <v>1829</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>47</v>
@@ -10781,7 +10781,7 @@
         <v>1829</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>47</v>
@@ -10802,7 +10802,7 @@
         <v>1829</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>47</v>
@@ -10823,7 +10823,7 @@
         <v>1829</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>47</v>
@@ -10844,7 +10844,7 @@
         <v>1829</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>47</v>
@@ -10865,7 +10865,7 @@
         <v>1829</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>47</v>
@@ -10886,7 +10886,7 @@
         <v>1829</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>47</v>
@@ -10907,7 +10907,7 @@
         <v>1829</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>47</v>
@@ -10928,7 +10928,7 @@
         <v>1829</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>47</v>
@@ -10949,7 +10949,7 @@
         <v>1829</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>47</v>
@@ -10970,7 +10970,7 @@
         <v>1829</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>47</v>
@@ -10991,7 +10991,7 @@
         <v>1829</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>47</v>
@@ -11012,7 +11012,7 @@
         <v>1829</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>47</v>
@@ -11033,7 +11033,7 @@
         <v>1829</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>47</v>
@@ -11054,7 +11054,7 @@
         <v>1829</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>47</v>
@@ -11075,7 +11075,7 @@
         <v>1829</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>47</v>
@@ -11096,7 +11096,7 @@
         <v>1829</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>47</v>
@@ -11117,7 +11117,7 @@
         <v>1829</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>47</v>
@@ -11138,7 +11138,7 @@
         <v>1829</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>47</v>
@@ -11159,7 +11159,7 @@
         <v>1829</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>47</v>
@@ -11180,7 +11180,7 @@
         <v>1829</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>47</v>
@@ -11201,7 +11201,7 @@
         <v>1829</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>47</v>
@@ -11222,7 +11222,7 @@
         <v>1829</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>47</v>
@@ -11243,7 +11243,7 @@
         <v>1829</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>47</v>
@@ -11264,7 +11264,7 @@
         <v>1829</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>47</v>
@@ -11285,7 +11285,7 @@
         <v>1829</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>47</v>
@@ -11306,7 +11306,7 @@
         <v>1829</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>220</v>
@@ -11327,7 +11327,7 @@
         <v>1829</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>220</v>
@@ -11348,7 +11348,7 @@
         <v>1829</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>220</v>
@@ -11369,7 +11369,7 @@
         <v>1829</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>220</v>
@@ -11390,7 +11390,7 @@
         <v>1829</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>220</v>
@@ -11411,7 +11411,7 @@
         <v>1829</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>220</v>
@@ -11432,7 +11432,7 @@
         <v>1829</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>220</v>
@@ -11453,7 +11453,7 @@
         <v>1829</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>220</v>
@@ -11474,7 +11474,7 @@
         <v>1829</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>220</v>
@@ -11495,7 +11495,7 @@
         <v>1829</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>220</v>
@@ -11516,7 +11516,7 @@
         <v>1829</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>220</v>
@@ -11537,7 +11537,7 @@
         <v>1829</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>220</v>
@@ -11558,7 +11558,7 @@
         <v>1829</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>220</v>
@@ -11579,7 +11579,7 @@
         <v>1829</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>220</v>
@@ -11600,7 +11600,7 @@
         <v>1829</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>220</v>
@@ -11621,7 +11621,7 @@
         <v>1829</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>220</v>
@@ -11642,7 +11642,7 @@
         <v>1829</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>220</v>
@@ -11663,7 +11663,7 @@
         <v>1829</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>220</v>
@@ -11684,7 +11684,7 @@
         <v>1829</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>220</v>
@@ -11705,7 +11705,7 @@
         <v>1829</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>220</v>
@@ -11726,7 +11726,7 @@
         <v>1829</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>220</v>
@@ -11747,7 +11747,7 @@
         <v>1829</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>220</v>
@@ -11756,7 +11756,7 @@
         <v>92</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="15" t="s">
@@ -11768,7 +11768,7 @@
         <v>1829</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>220</v>
@@ -11789,7 +11789,7 @@
         <v>1829</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>220</v>
@@ -11810,7 +11810,7 @@
         <v>1829</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>220</v>
@@ -11831,7 +11831,7 @@
         <v>1829</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>220</v>
@@ -11852,7 +11852,7 @@
         <v>1829</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>228</v>
@@ -11873,7 +11873,7 @@
         <v>1829</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>228</v>
@@ -12554,7 +12554,7 @@
         <v>49</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="F167"/>
       <c r="G167" s="15" t="s">
@@ -15356,7 +15356,7 @@
         <v>167</v>
       </c>
       <c r="E241" s="14" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="F241"/>
       <c r="G241" s="15" t="s">
@@ -15692,7 +15692,7 @@
         <v>60</v>
       </c>
       <c r="E257" s="19" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="F257"/>
       <c r="G257" s="15" t="s">
@@ -15713,7 +15713,7 @@
         <v>179</v>
       </c>
       <c r="E258" s="14" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="F258"/>
       <c r="G258" s="15" t="s">
@@ -19022,7 +19022,7 @@
         <v>1826</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C423" s="8" t="s">
         <v>628</v>
@@ -19043,7 +19043,7 @@
         <v>1826</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C424" s="8" t="s">
         <v>628</v>
@@ -19064,7 +19064,7 @@
         <v>1826</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C425" s="8" t="s">
         <v>628</v>
@@ -19085,7 +19085,7 @@
         <v>1826</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>628</v>
@@ -19106,7 +19106,7 @@
         <v>1826</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>628</v>
@@ -19127,7 +19127,7 @@
         <v>1826</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C428" s="8" t="s">
         <v>628</v>
@@ -19148,7 +19148,7 @@
         <v>1826</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C429" s="8" t="s">
         <v>628</v>
@@ -19169,7 +19169,7 @@
         <v>1826</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>628</v>
@@ -19190,7 +19190,7 @@
         <v>1826</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C431" s="8" t="s">
         <v>628</v>
@@ -19211,7 +19211,7 @@
         <v>1826</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C432" s="8" t="s">
         <v>628</v>
@@ -19232,7 +19232,7 @@
         <v>1826</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C433" s="8" t="s">
         <v>628</v>
@@ -19253,7 +19253,7 @@
         <v>1826</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C434" s="8" t="s">
         <v>628</v>
@@ -19274,7 +19274,7 @@
         <v>1826</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C435" s="8" t="s">
         <v>628</v>
@@ -19295,7 +19295,7 @@
         <v>1826</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C436" s="8" t="s">
         <v>628</v>
@@ -19316,7 +19316,7 @@
         <v>1826</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C437" s="8" t="s">
         <v>628</v>
@@ -19337,7 +19337,7 @@
         <v>1826</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C438" s="8" t="s">
         <v>628</v>
@@ -19358,7 +19358,7 @@
         <v>1826</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C439" s="8" t="s">
         <v>628</v>
@@ -19379,7 +19379,7 @@
         <v>1826</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C440" s="8" t="s">
         <v>628</v>
@@ -19400,7 +19400,7 @@
         <v>1826</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C441" s="8" t="s">
         <v>628</v>
@@ -19421,7 +19421,7 @@
         <v>1826</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C442" s="8" t="s">
         <v>628</v>
@@ -19442,7 +19442,7 @@
         <v>1826</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C443" s="8" t="s">
         <v>628</v>
@@ -19463,7 +19463,7 @@
         <v>1826</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C444" s="8" t="s">
         <v>628</v>
@@ -19484,7 +19484,7 @@
         <v>1826</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C445" s="8" t="s">
         <v>628</v>
@@ -19505,7 +19505,7 @@
         <v>1826</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C446" s="8" t="s">
         <v>628</v>
@@ -19526,7 +19526,7 @@
         <v>1826</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C447" s="8" t="s">
         <v>628</v>
@@ -19547,7 +19547,7 @@
         <v>1826</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C448" s="8" t="s">
         <v>628</v>
@@ -19568,7 +19568,7 @@
         <v>1826</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C449" s="8" t="s">
         <v>628</v>
@@ -19589,7 +19589,7 @@
         <v>1826</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C450" s="8" t="s">
         <v>628</v>
@@ -19610,7 +19610,7 @@
         <v>1826</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C451" s="8" t="s">
         <v>628</v>
@@ -19631,7 +19631,7 @@
         <v>1826</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C452" s="8" t="s">
         <v>628</v>
@@ -19652,7 +19652,7 @@
         <v>1826</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C453" s="8" t="s">
         <v>628</v>
@@ -19673,7 +19673,7 @@
         <v>1826</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C454" s="8" t="s">
         <v>628</v>
@@ -19694,7 +19694,7 @@
         <v>1826</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>628</v>
@@ -19715,7 +19715,7 @@
         <v>1826</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C456" s="8" t="s">
         <v>628</v>
@@ -19736,7 +19736,7 @@
         <v>1826</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C457" s="8" t="s">
         <v>628</v>
@@ -19757,7 +19757,7 @@
         <v>1826</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C458" s="8" t="s">
         <v>628</v>
@@ -19778,7 +19778,7 @@
         <v>1826</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C459" s="8" t="s">
         <v>628</v>
@@ -19799,7 +19799,7 @@
         <v>1826</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C460" s="8" t="s">
         <v>628</v>
@@ -19820,7 +19820,7 @@
         <v>1826</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C461" s="8" t="s">
         <v>628</v>
@@ -19841,7 +19841,7 @@
         <v>1826</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C462" s="8" t="s">
         <v>628</v>
@@ -19862,7 +19862,7 @@
         <v>1826</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C463" s="8" t="s">
         <v>628</v>
@@ -19883,7 +19883,7 @@
         <v>1826</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C464" s="8" t="s">
         <v>628</v>
@@ -19904,7 +19904,7 @@
         <v>1826</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>628</v>
@@ -19925,7 +19925,7 @@
         <v>1826</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C466" s="8" t="s">
         <v>628</v>
@@ -19944,7 +19944,7 @@
         <v>1826</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C467" s="8" t="s">
         <v>628</v>
@@ -19965,7 +19965,7 @@
         <v>1826</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C468" s="8" t="s">
         <v>628</v>
@@ -19986,7 +19986,7 @@
         <v>1826</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C469" s="8" t="s">
         <v>628</v>
@@ -20007,7 +20007,7 @@
         <v>1826</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C470" s="8" t="s">
         <v>628</v>
@@ -20028,7 +20028,7 @@
         <v>1826</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C471" s="8" t="s">
         <v>628</v>
@@ -20049,7 +20049,7 @@
         <v>1826</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C472" s="8" t="s">
         <v>628</v>
@@ -20070,7 +20070,7 @@
         <v>1826</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C473" s="8" t="s">
         <v>628</v>
@@ -20091,7 +20091,7 @@
         <v>1826</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>628</v>
@@ -20112,7 +20112,7 @@
         <v>1826</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C475" s="8" t="s">
         <v>628</v>
@@ -20133,7 +20133,7 @@
         <v>1826</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C476" s="8" t="s">
         <v>628</v>
@@ -20154,7 +20154,7 @@
         <v>1826</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C477" s="8" t="s">
         <v>628</v>
@@ -20175,7 +20175,7 @@
         <v>1826</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C478" s="8" t="s">
         <v>628</v>
@@ -20196,7 +20196,7 @@
         <v>1826</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C479" s="8" t="s">
         <v>628</v>
@@ -20217,7 +20217,7 @@
         <v>1826</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C480" s="8" t="s">
         <v>628</v>
@@ -20238,7 +20238,7 @@
         <v>1826</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C481" s="8" t="s">
         <v>628</v>
@@ -20259,7 +20259,7 @@
         <v>1826</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C482" s="8" t="s">
         <v>628</v>
@@ -20280,7 +20280,7 @@
         <v>1826</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>2064</v>
+        <v>2153</v>
       </c>
       <c r="C483" s="8" t="s">
         <v>628</v>
@@ -20301,7 +20301,7 @@
         <v>1827</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C484" s="8" t="s">
         <v>222</v>
@@ -20324,7 +20324,7 @@
         <v>1827</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C485" s="8" t="s">
         <v>222</v>
@@ -20347,7 +20347,7 @@
         <v>1827</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C486" s="8" t="s">
         <v>222</v>
@@ -20370,7 +20370,7 @@
         <v>1827</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C487" s="8" t="s">
         <v>222</v>
@@ -20393,7 +20393,7 @@
         <v>1827</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C488" s="8" t="s">
         <v>222</v>
@@ -20416,7 +20416,7 @@
         <v>1827</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C489" s="8" t="s">
         <v>222</v>
@@ -20439,7 +20439,7 @@
         <v>1827</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C490" s="8" t="s">
         <v>222</v>
@@ -20462,7 +20462,7 @@
         <v>1827</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C491" s="8" t="s">
         <v>222</v>
@@ -20485,7 +20485,7 @@
         <v>1827</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C492" s="8" t="s">
         <v>222</v>
@@ -20508,7 +20508,7 @@
         <v>1827</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C493" s="8" t="s">
         <v>222</v>
@@ -20531,7 +20531,7 @@
         <v>1827</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C494" s="8" t="s">
         <v>222</v>
@@ -20554,7 +20554,7 @@
         <v>1827</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C495" s="8" t="s">
         <v>222</v>
@@ -20577,7 +20577,7 @@
         <v>1827</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C496" s="8" t="s">
         <v>398</v>
@@ -20600,7 +20600,7 @@
         <v>1827</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C497" s="8" t="s">
         <v>398</v>
@@ -20623,7 +20623,7 @@
         <v>1827</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C498" s="8" t="s">
         <v>398</v>
@@ -20646,7 +20646,7 @@
         <v>1827</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C499" s="8" t="s">
         <v>398</v>
@@ -20669,7 +20669,7 @@
         <v>1827</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C500" s="8" t="s">
         <v>398</v>
@@ -20692,7 +20692,7 @@
         <v>1827</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C501" s="8" t="s">
         <v>398</v>
@@ -20715,7 +20715,7 @@
         <v>1827</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C502" s="8" t="s">
         <v>398</v>
@@ -20738,7 +20738,7 @@
         <v>1827</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C503" s="8" t="s">
         <v>398</v>
@@ -20761,7 +20761,7 @@
         <v>1827</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C504" s="8" t="s">
         <v>398</v>
@@ -20784,7 +20784,7 @@
         <v>1827</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C505" s="8" t="s">
         <v>398</v>
@@ -20807,7 +20807,7 @@
         <v>1827</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C506" s="8" t="s">
         <v>398</v>
@@ -20830,7 +20830,7 @@
         <v>1827</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C507" s="8" t="s">
         <v>220</v>
@@ -20853,7 +20853,7 @@
         <v>1827</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C508" s="8" t="s">
         <v>220</v>
@@ -20876,7 +20876,7 @@
         <v>1827</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C509" s="8" t="s">
         <v>220</v>
@@ -20899,7 +20899,7 @@
         <v>1827</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>220</v>
@@ -20922,7 +20922,7 @@
         <v>1827</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C511" s="8" t="s">
         <v>220</v>
@@ -20945,7 +20945,7 @@
         <v>1827</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C512" s="8" t="s">
         <v>220</v>
@@ -20968,7 +20968,7 @@
         <v>1827</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C513" s="8" t="s">
         <v>220</v>
@@ -20991,7 +20991,7 @@
         <v>1827</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C514" s="8" t="s">
         <v>220</v>
@@ -21014,7 +21014,7 @@
         <v>1827</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C515" s="8" t="s">
         <v>220</v>
@@ -21037,7 +21037,7 @@
         <v>1827</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C516" s="8" t="s">
         <v>220</v>
@@ -21060,7 +21060,7 @@
         <v>1827</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C517" s="8" t="s">
         <v>220</v>
@@ -21083,7 +21083,7 @@
         <v>1827</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C518" s="8" t="s">
         <v>220</v>
@@ -21106,7 +21106,7 @@
         <v>1827</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C519" s="8" t="s">
         <v>220</v>
@@ -21129,7 +21129,7 @@
         <v>1827</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C520" s="8" t="s">
         <v>220</v>
@@ -21152,7 +21152,7 @@
         <v>1827</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C521" s="8" t="s">
         <v>220</v>
@@ -21175,7 +21175,7 @@
         <v>1827</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C522" s="8" t="s">
         <v>220</v>
@@ -21198,7 +21198,7 @@
         <v>1827</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C523" s="8" t="s">
         <v>220</v>
@@ -21221,7 +21221,7 @@
         <v>1827</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>2065</v>
+        <v>2154</v>
       </c>
       <c r="C524" s="8" t="s">
         <v>220</v>
@@ -21244,7 +21244,7 @@
         <v>1828</v>
       </c>
       <c r="B525" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C525" s="28" t="s">
         <v>629</v>
@@ -21267,7 +21267,7 @@
         <v>1828</v>
       </c>
       <c r="B526" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C526" s="28" t="s">
         <v>629</v>
@@ -21290,7 +21290,7 @@
         <v>1828</v>
       </c>
       <c r="B527" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C527" s="28" t="s">
         <v>629</v>
@@ -21313,7 +21313,7 @@
         <v>1828</v>
       </c>
       <c r="B528" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C528" s="28" t="s">
         <v>629</v>
@@ -21336,7 +21336,7 @@
         <v>1828</v>
       </c>
       <c r="B529" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C529" s="28" t="s">
         <v>629</v>
@@ -21359,7 +21359,7 @@
         <v>1828</v>
       </c>
       <c r="B530" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C530" s="28" t="s">
         <v>629</v>
@@ -21382,7 +21382,7 @@
         <v>1828</v>
       </c>
       <c r="B531" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C531" s="28" t="s">
         <v>629</v>
@@ -21405,7 +21405,7 @@
         <v>1828</v>
       </c>
       <c r="B532" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C532" s="28" t="s">
         <v>629</v>
@@ -21428,7 +21428,7 @@
         <v>1828</v>
       </c>
       <c r="B533" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C533" s="28" t="s">
         <v>629</v>
@@ -21451,7 +21451,7 @@
         <v>1828</v>
       </c>
       <c r="B534" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C534" s="28" t="s">
         <v>629</v>
@@ -21474,7 +21474,7 @@
         <v>1828</v>
       </c>
       <c r="B535" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C535" s="28" t="s">
         <v>629</v>
@@ -21497,7 +21497,7 @@
         <v>1828</v>
       </c>
       <c r="B536" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C536" s="28" t="s">
         <v>629</v>
@@ -21520,7 +21520,7 @@
         <v>1828</v>
       </c>
       <c r="B537" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C537" s="28" t="s">
         <v>629</v>
@@ -21543,7 +21543,7 @@
         <v>1828</v>
       </c>
       <c r="B538" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C538" s="28" t="s">
         <v>629</v>
@@ -21566,7 +21566,7 @@
         <v>1828</v>
       </c>
       <c r="B539" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C539" s="28" t="s">
         <v>629</v>
@@ -21589,7 +21589,7 @@
         <v>1828</v>
       </c>
       <c r="B540" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C540" s="28" t="s">
         <v>629</v>
@@ -21612,7 +21612,7 @@
         <v>1828</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C541" s="28" t="s">
         <v>629</v>
@@ -21635,7 +21635,7 @@
         <v>1828</v>
       </c>
       <c r="B542" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C542" s="28" t="s">
         <v>629</v>
@@ -21658,7 +21658,7 @@
         <v>1828</v>
       </c>
       <c r="B543" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C543" s="28" t="s">
         <v>629</v>
@@ -21681,7 +21681,7 @@
         <v>1828</v>
       </c>
       <c r="B544" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C544" s="28" t="s">
         <v>629</v>
@@ -21704,7 +21704,7 @@
         <v>1828</v>
       </c>
       <c r="B545" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C545" s="28" t="s">
         <v>629</v>
@@ -21727,7 +21727,7 @@
         <v>1828</v>
       </c>
       <c r="B546" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C546" s="28" t="s">
         <v>629</v>
@@ -21750,7 +21750,7 @@
         <v>1828</v>
       </c>
       <c r="B547" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C547" s="28" t="s">
         <v>629</v>
@@ -21773,7 +21773,7 @@
         <v>1828</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C548" s="28" t="s">
         <v>629</v>
@@ -21796,7 +21796,7 @@
         <v>1828</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C549" s="28" t="s">
         <v>629</v>
@@ -21819,7 +21819,7 @@
         <v>1828</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C550" s="28" t="s">
         <v>629</v>
@@ -21842,7 +21842,7 @@
         <v>1828</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C551" s="28" t="s">
         <v>629</v>
@@ -21865,7 +21865,7 @@
         <v>1828</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C552" s="28" t="s">
         <v>629</v>
@@ -21888,7 +21888,7 @@
         <v>1828</v>
       </c>
       <c r="B553" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C553" s="28" t="s">
         <v>629</v>
@@ -21911,7 +21911,7 @@
         <v>1828</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C554" s="28" t="s">
         <v>629</v>
@@ -21934,7 +21934,7 @@
         <v>1828</v>
       </c>
       <c r="B555" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C555" s="28" t="s">
         <v>629</v>
@@ -21957,7 +21957,7 @@
         <v>1828</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C556" s="28" t="s">
         <v>629</v>
@@ -21980,7 +21980,7 @@
         <v>1828</v>
       </c>
       <c r="B557" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C557" s="28" t="s">
         <v>629</v>
@@ -22003,7 +22003,7 @@
         <v>1828</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C558" t="s">
         <v>629</v>
@@ -22026,7 +22026,7 @@
         <v>1828</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C559" t="s">
         <v>629</v>
@@ -22049,7 +22049,7 @@
         <v>1828</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C560" t="s">
         <v>629</v>
@@ -22072,7 +22072,7 @@
         <v>1828</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C561" t="s">
         <v>629</v>
@@ -22095,7 +22095,7 @@
         <v>1828</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C562" t="s">
         <v>629</v>
@@ -22118,7 +22118,7 @@
         <v>1828</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C563" t="s">
         <v>629</v>
@@ -22141,7 +22141,7 @@
         <v>1828</v>
       </c>
       <c r="B564" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C564" t="s">
         <v>629</v>
@@ -22164,7 +22164,7 @@
         <v>1828</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C565" t="s">
         <v>629</v>
@@ -22187,7 +22187,7 @@
         <v>1828</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C566" t="s">
         <v>629</v>
@@ -22210,7 +22210,7 @@
         <v>1828</v>
       </c>
       <c r="B567" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C567" t="s">
         <v>629</v>
@@ -22233,7 +22233,7 @@
         <v>1828</v>
       </c>
       <c r="B568" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C568" t="s">
         <v>629</v>
@@ -22256,7 +22256,7 @@
         <v>1828</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C569" t="s">
         <v>629</v>
@@ -22279,7 +22279,7 @@
         <v>1828</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C570" s="28" t="s">
         <v>629</v>
@@ -22302,7 +22302,7 @@
         <v>1828</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C571" s="28" t="s">
         <v>629</v>
@@ -22325,7 +22325,7 @@
         <v>1828</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C572" s="28" t="s">
         <v>629</v>
@@ -22348,7 +22348,7 @@
         <v>1828</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C573" s="28" t="s">
         <v>629</v>
@@ -22371,7 +22371,7 @@
         <v>1828</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C574" s="28" t="s">
         <v>629</v>
@@ -22394,7 +22394,7 @@
         <v>1828</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C575" s="28" t="s">
         <v>629</v>
@@ -22417,7 +22417,7 @@
         <v>1828</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C576" s="28" t="s">
         <v>629</v>
@@ -22440,7 +22440,7 @@
         <v>1828</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C577" s="28" t="s">
         <v>629</v>
@@ -22463,7 +22463,7 @@
         <v>1828</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C578" s="28" t="s">
         <v>629</v>
@@ -22486,7 +22486,7 @@
         <v>1828</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C579" s="28" t="s">
         <v>629</v>
@@ -22509,7 +22509,7 @@
         <v>1828</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C580" s="28" t="s">
         <v>629</v>
@@ -22532,7 +22532,7 @@
         <v>1828</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C581" s="28" t="s">
         <v>629</v>
@@ -22555,7 +22555,7 @@
         <v>1828</v>
       </c>
       <c r="B582" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C582" s="28" t="s">
         <v>629</v>
@@ -22578,7 +22578,7 @@
         <v>1828</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C583" s="28" t="s">
         <v>629</v>
@@ -22601,7 +22601,7 @@
         <v>1828</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C584" s="28" t="s">
         <v>629</v>
@@ -22624,7 +22624,7 @@
         <v>1828</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C585" s="28" t="s">
         <v>629</v>
@@ -22647,7 +22647,7 @@
         <v>1828</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C586" s="28" t="s">
         <v>629</v>
@@ -22670,7 +22670,7 @@
         <v>1828</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C587" s="28" t="s">
         <v>629</v>
@@ -22693,7 +22693,7 @@
         <v>1828</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C588" s="28" t="s">
         <v>629</v>
@@ -22716,7 +22716,7 @@
         <v>1828</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C589" s="28" t="s">
         <v>629</v>
@@ -22739,7 +22739,7 @@
         <v>1828</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C590" s="28" t="s">
         <v>629</v>
@@ -22762,7 +22762,7 @@
         <v>1828</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C591" s="28" t="s">
         <v>629</v>
@@ -22785,7 +22785,7 @@
         <v>1828</v>
       </c>
       <c r="B592" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C592" s="28" t="s">
         <v>629</v>
@@ -22808,7 +22808,7 @@
         <v>1828</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C593" s="28" t="s">
         <v>629</v>
@@ -22831,7 +22831,7 @@
         <v>1828</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C594" s="28" t="s">
         <v>629</v>
@@ -22854,7 +22854,7 @@
         <v>1828</v>
       </c>
       <c r="B595" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C595" s="28" t="s">
         <v>629</v>
@@ -22877,7 +22877,7 @@
         <v>1828</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C596" s="28" t="s">
         <v>629</v>
@@ -22900,7 +22900,7 @@
         <v>1828</v>
       </c>
       <c r="B597" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C597" s="28" t="s">
         <v>629</v>
@@ -22923,7 +22923,7 @@
         <v>1828</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C598" s="28" t="s">
         <v>629</v>
@@ -22946,7 +22946,7 @@
         <v>1828</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C599" s="28" t="s">
         <v>629</v>
@@ -22969,7 +22969,7 @@
         <v>1828</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C600" s="28" t="s">
         <v>629</v>
@@ -22992,7 +22992,7 @@
         <v>1828</v>
       </c>
       <c r="B601" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C601" s="28" t="s">
         <v>629</v>
@@ -23015,7 +23015,7 @@
         <v>1828</v>
       </c>
       <c r="B602" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C602" s="28" t="s">
         <v>629</v>
@@ -23038,7 +23038,7 @@
         <v>1828</v>
       </c>
       <c r="B603" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C603" s="28" t="s">
         <v>629</v>
@@ -23061,7 +23061,7 @@
         <v>1828</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C604" s="28" t="s">
         <v>629</v>
@@ -23084,7 +23084,7 @@
         <v>1828</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C605" s="28" t="s">
         <v>629</v>
@@ -23107,7 +23107,7 @@
         <v>1828</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C606" s="28" t="s">
         <v>629</v>
@@ -23130,7 +23130,7 @@
         <v>1828</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C607" s="28" t="s">
         <v>629</v>
@@ -23153,7 +23153,7 @@
         <v>1828</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C608" s="28" t="s">
         <v>629</v>
@@ -23176,7 +23176,7 @@
         <v>1828</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C609" s="28" t="s">
         <v>629</v>
@@ -23199,7 +23199,7 @@
         <v>1828</v>
       </c>
       <c r="B610" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C610" s="28" t="s">
         <v>629</v>
@@ -23222,7 +23222,7 @@
         <v>1828</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C611" s="28" t="s">
         <v>629</v>
@@ -23245,7 +23245,7 @@
         <v>1828</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C612" s="28" t="s">
         <v>629</v>
@@ -23268,7 +23268,7 @@
         <v>1828</v>
       </c>
       <c r="B613" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C613" s="28" t="s">
         <v>629</v>
@@ -23291,7 +23291,7 @@
         <v>1828</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C614" s="28" t="s">
         <v>629</v>
@@ -23314,7 +23314,7 @@
         <v>1828</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C615" s="28" t="s">
         <v>630</v>
@@ -23337,7 +23337,7 @@
         <v>1828</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C616" s="28" t="s">
         <v>630</v>
@@ -23360,7 +23360,7 @@
         <v>1828</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C617" s="28" t="s">
         <v>630</v>
@@ -23383,7 +23383,7 @@
         <v>1828</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C618" s="28" t="s">
         <v>630</v>
@@ -23406,7 +23406,7 @@
         <v>1828</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C619" s="28" t="s">
         <v>630</v>
@@ -23429,7 +23429,7 @@
         <v>1828</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C620" s="28" t="s">
         <v>630</v>
@@ -23452,7 +23452,7 @@
         <v>1828</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C621" s="28" t="s">
         <v>630</v>
@@ -23475,7 +23475,7 @@
         <v>1828</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C622" s="28" t="s">
         <v>630</v>
@@ -23498,7 +23498,7 @@
         <v>1828</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C623" s="28" t="s">
         <v>630</v>
@@ -23521,7 +23521,7 @@
         <v>1828</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C624" s="28" t="s">
         <v>630</v>
@@ -23544,7 +23544,7 @@
         <v>1828</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C625" s="28" t="s">
         <v>630</v>
@@ -23567,7 +23567,7 @@
         <v>1828</v>
       </c>
       <c r="B626" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C626" s="28" t="s">
         <v>630</v>
@@ -23590,7 +23590,7 @@
         <v>1828</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C627" s="28" t="s">
         <v>630</v>
@@ -23613,7 +23613,7 @@
         <v>1828</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C628" s="28" t="s">
         <v>630</v>
@@ -23636,7 +23636,7 @@
         <v>1828</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C629" s="28" t="s">
         <v>630</v>
@@ -23659,7 +23659,7 @@
         <v>1828</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C630" s="28" t="s">
         <v>630</v>
@@ -23682,7 +23682,7 @@
         <v>1828</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C631" s="28" t="s">
         <v>630</v>
@@ -23705,7 +23705,7 @@
         <v>1828</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C632" s="28" t="s">
         <v>630</v>
@@ -23728,7 +23728,7 @@
         <v>1828</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C633" s="28" t="s">
         <v>630</v>
@@ -23751,7 +23751,7 @@
         <v>1828</v>
       </c>
       <c r="B634" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C634" s="28" t="s">
         <v>631</v>
@@ -23774,7 +23774,7 @@
         <v>1828</v>
       </c>
       <c r="B635" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C635" s="28" t="s">
         <v>631</v>
@@ -23797,7 +23797,7 @@
         <v>1828</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C636" s="28" t="s">
         <v>631</v>
@@ -23820,7 +23820,7 @@
         <v>1828</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C637" s="28" t="s">
         <v>631</v>
@@ -23843,7 +23843,7 @@
         <v>1828</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C638" s="28" t="s">
         <v>631</v>
@@ -23866,7 +23866,7 @@
         <v>1828</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C639" s="28" t="s">
         <v>631</v>
@@ -23889,7 +23889,7 @@
         <v>1828</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C640" s="28" t="s">
         <v>631</v>
@@ -23912,7 +23912,7 @@
         <v>1828</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C641" s="28" t="s">
         <v>631</v>
@@ -23935,7 +23935,7 @@
         <v>1828</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C642" s="28" t="s">
         <v>631</v>
@@ -23958,7 +23958,7 @@
         <v>1828</v>
       </c>
       <c r="B643" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C643" s="28" t="s">
         <v>631</v>
@@ -23981,7 +23981,7 @@
         <v>1828</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C644" s="28" t="s">
         <v>631</v>
@@ -24004,7 +24004,7 @@
         <v>1828</v>
       </c>
       <c r="B645" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C645" s="28" t="s">
         <v>631</v>
@@ -24027,7 +24027,7 @@
         <v>1828</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C646" s="28" t="s">
         <v>631</v>
@@ -24050,7 +24050,7 @@
         <v>1828</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C647" s="28" t="s">
         <v>632</v>
@@ -24073,7 +24073,7 @@
         <v>1828</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C648" s="28" t="s">
         <v>632</v>
@@ -24096,7 +24096,7 @@
         <v>1828</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C649" s="28" t="s">
         <v>632</v>
@@ -24119,7 +24119,7 @@
         <v>1828</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C650" s="28" t="s">
         <v>632</v>
@@ -24142,7 +24142,7 @@
         <v>1828</v>
       </c>
       <c r="B651" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C651" s="28" t="s">
         <v>632</v>
@@ -24165,7 +24165,7 @@
         <v>1828</v>
       </c>
       <c r="B652" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C652" s="28" t="s">
         <v>632</v>
@@ -24188,7 +24188,7 @@
         <v>1828</v>
       </c>
       <c r="B653" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C653" s="28" t="s">
         <v>632</v>
@@ -24211,7 +24211,7 @@
         <v>1828</v>
       </c>
       <c r="B654" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C654" s="28" t="s">
         <v>632</v>
@@ -24234,7 +24234,7 @@
         <v>1828</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C655" s="28" t="s">
         <v>632</v>
@@ -24257,7 +24257,7 @@
         <v>1828</v>
       </c>
       <c r="B656" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C656" s="28" t="s">
         <v>632</v>
@@ -24280,7 +24280,7 @@
         <v>1828</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C657" s="28" t="s">
         <v>632</v>
@@ -24303,7 +24303,7 @@
         <v>1828</v>
       </c>
       <c r="B658" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C658" s="28" t="s">
         <v>632</v>
@@ -24326,7 +24326,7 @@
         <v>1828</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C659" s="28" t="s">
         <v>632</v>
@@ -24349,7 +24349,7 @@
         <v>1828</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C660" s="28" t="s">
         <v>632</v>
@@ -24372,7 +24372,7 @@
         <v>1828</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C661" s="28" t="s">
         <v>632</v>
@@ -24395,7 +24395,7 @@
         <v>1828</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C662" s="28" t="s">
         <v>632</v>
@@ -24418,7 +24418,7 @@
         <v>1828</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C663" s="28" t="s">
         <v>632</v>
@@ -24441,7 +24441,7 @@
         <v>1828</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C664" s="28" t="s">
         <v>632</v>
@@ -24464,7 +24464,7 @@
         <v>1828</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C665" s="28" t="s">
         <v>632</v>
@@ -24487,7 +24487,7 @@
         <v>1828</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C666" s="28" t="s">
         <v>632</v>
@@ -24510,7 +24510,7 @@
         <v>1828</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C667" s="28" t="s">
         <v>632</v>
@@ -24533,7 +24533,7 @@
         <v>1828</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C668" s="28" t="s">
         <v>632</v>
@@ -24556,7 +24556,7 @@
         <v>1828</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C669" s="28" t="s">
         <v>632</v>
@@ -24579,7 +24579,7 @@
         <v>1828</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C670" s="28" t="s">
         <v>632</v>
@@ -24602,7 +24602,7 @@
         <v>1828</v>
       </c>
       <c r="B671" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C671" s="28" t="s">
         <v>632</v>
@@ -24625,7 +24625,7 @@
         <v>1828</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C672" s="28" t="s">
         <v>632</v>
@@ -24648,7 +24648,7 @@
         <v>1828</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C673" s="28" t="s">
         <v>632</v>
@@ -24671,7 +24671,7 @@
         <v>1828</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C674" s="28" t="s">
         <v>632</v>
@@ -24694,7 +24694,7 @@
         <v>1828</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C675" s="28" t="s">
         <v>632</v>
@@ -24717,7 +24717,7 @@
         <v>1828</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C676" t="s">
         <v>632</v>
@@ -24740,7 +24740,7 @@
         <v>1828</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C677" t="s">
         <v>632</v>
@@ -24763,7 +24763,7 @@
         <v>1828</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C678" s="28" t="s">
         <v>632</v>
@@ -24786,7 +24786,7 @@
         <v>1828</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C679" s="28" t="s">
         <v>632</v>
@@ -24809,7 +24809,7 @@
         <v>1828</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C680" s="28" t="s">
         <v>632</v>
@@ -24832,7 +24832,7 @@
         <v>1828</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C681" s="28" t="s">
         <v>632</v>
@@ -24855,7 +24855,7 @@
         <v>1828</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C682" s="28" t="s">
         <v>632</v>
@@ -24878,7 +24878,7 @@
         <v>1828</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C683" s="28" t="s">
         <v>632</v>
@@ -24901,7 +24901,7 @@
         <v>1828</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C684" s="28" t="s">
         <v>633</v>
@@ -24924,7 +24924,7 @@
         <v>1828</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C685" s="28" t="s">
         <v>634</v>
@@ -24947,7 +24947,7 @@
         <v>1828</v>
       </c>
       <c r="B686" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C686" s="28" t="s">
         <v>634</v>
@@ -24970,7 +24970,7 @@
         <v>1828</v>
       </c>
       <c r="B687" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C687" s="28" t="s">
         <v>634</v>
@@ -24993,7 +24993,7 @@
         <v>1828</v>
       </c>
       <c r="B688" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C688" s="28" t="s">
         <v>634</v>
@@ -25016,7 +25016,7 @@
         <v>1828</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C689" s="28" t="s">
         <v>634</v>
@@ -25039,7 +25039,7 @@
         <v>1828</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C690" s="28" t="s">
         <v>634</v>
@@ -25062,7 +25062,7 @@
         <v>1828</v>
       </c>
       <c r="B691" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C691" s="28" t="s">
         <v>634</v>
@@ -25085,7 +25085,7 @@
         <v>1828</v>
       </c>
       <c r="B692" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C692" s="28" t="s">
         <v>634</v>
@@ -25108,7 +25108,7 @@
         <v>1828</v>
       </c>
       <c r="B693" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C693" s="28" t="s">
         <v>634</v>
@@ -25131,7 +25131,7 @@
         <v>1828</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C694" s="28" t="s">
         <v>634</v>
@@ -25154,7 +25154,7 @@
         <v>1828</v>
       </c>
       <c r="B695" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C695" s="28" t="s">
         <v>634</v>
@@ -25177,7 +25177,7 @@
         <v>1828</v>
       </c>
       <c r="B696" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C696" s="28" t="s">
         <v>634</v>
@@ -25200,7 +25200,7 @@
         <v>1828</v>
       </c>
       <c r="B697" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C697" s="28" t="s">
         <v>634</v>
@@ -25223,7 +25223,7 @@
         <v>1828</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C698" s="28" t="s">
         <v>634</v>
@@ -25246,7 +25246,7 @@
         <v>1828</v>
       </c>
       <c r="B699" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C699" s="28" t="s">
         <v>634</v>
@@ -25269,7 +25269,7 @@
         <v>1828</v>
       </c>
       <c r="B700" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C700" s="28" t="s">
         <v>634</v>
@@ -25292,7 +25292,7 @@
         <v>1828</v>
       </c>
       <c r="B701" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C701" s="28" t="s">
         <v>634</v>
@@ -25315,7 +25315,7 @@
         <v>1828</v>
       </c>
       <c r="B702" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C702" s="28" t="s">
         <v>634</v>
@@ -25338,7 +25338,7 @@
         <v>1828</v>
       </c>
       <c r="B703" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C703" s="28" t="s">
         <v>634</v>
@@ -25361,7 +25361,7 @@
         <v>1828</v>
       </c>
       <c r="B704" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C704" s="28" t="s">
         <v>634</v>
@@ -25384,7 +25384,7 @@
         <v>1828</v>
       </c>
       <c r="B705" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C705" s="28" t="s">
         <v>634</v>
@@ -25407,7 +25407,7 @@
         <v>1828</v>
       </c>
       <c r="B706" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C706" s="28" t="s">
         <v>634</v>
@@ -25430,7 +25430,7 @@
         <v>1828</v>
       </c>
       <c r="B707" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C707" s="28" t="s">
         <v>634</v>
@@ -25453,7 +25453,7 @@
         <v>1828</v>
       </c>
       <c r="B708" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C708" s="28" t="s">
         <v>634</v>
@@ -25476,7 +25476,7 @@
         <v>1828</v>
       </c>
       <c r="B709" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C709" s="28" t="s">
         <v>634</v>
@@ -25499,7 +25499,7 @@
         <v>1828</v>
       </c>
       <c r="B710" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C710" s="28" t="s">
         <v>634</v>
@@ -25522,7 +25522,7 @@
         <v>1828</v>
       </c>
       <c r="B711" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C711" s="28" t="s">
         <v>634</v>
@@ -25545,7 +25545,7 @@
         <v>1828</v>
       </c>
       <c r="B712" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C712" s="28" t="s">
         <v>634</v>
@@ -25568,7 +25568,7 @@
         <v>1828</v>
       </c>
       <c r="B713" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C713" s="28" t="s">
         <v>634</v>
@@ -25591,7 +25591,7 @@
         <v>1828</v>
       </c>
       <c r="B714" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C714" s="28" t="s">
         <v>634</v>
@@ -25614,7 +25614,7 @@
         <v>1828</v>
       </c>
       <c r="B715" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C715" s="28" t="s">
         <v>634</v>
@@ -25637,7 +25637,7 @@
         <v>1828</v>
       </c>
       <c r="B716" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C716" s="28" t="s">
         <v>634</v>
@@ -25660,7 +25660,7 @@
         <v>1828</v>
       </c>
       <c r="B717" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C717" s="28" t="s">
         <v>634</v>
@@ -25683,7 +25683,7 @@
         <v>1828</v>
       </c>
       <c r="B718" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C718" s="28" t="s">
         <v>634</v>
@@ -25706,7 +25706,7 @@
         <v>1828</v>
       </c>
       <c r="B719" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C719" s="28" t="s">
         <v>634</v>
@@ -25729,7 +25729,7 @@
         <v>1828</v>
       </c>
       <c r="B720" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C720" s="28" t="s">
         <v>634</v>
@@ -25752,7 +25752,7 @@
         <v>1828</v>
       </c>
       <c r="B721" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C721" s="28" t="s">
         <v>634</v>
@@ -25775,7 +25775,7 @@
         <v>1828</v>
       </c>
       <c r="B722" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C722" s="28" t="s">
         <v>634</v>
@@ -25798,7 +25798,7 @@
         <v>1828</v>
       </c>
       <c r="B723" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C723" s="28" t="s">
         <v>634</v>
@@ -25821,7 +25821,7 @@
         <v>1828</v>
       </c>
       <c r="B724" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C724" s="28" t="s">
         <v>634</v>
@@ -25844,7 +25844,7 @@
         <v>1828</v>
       </c>
       <c r="B725" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C725" s="28" t="s">
         <v>634</v>
@@ -25867,7 +25867,7 @@
         <v>1828</v>
       </c>
       <c r="B726" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C726" s="28" t="s">
         <v>634</v>
@@ -25890,7 +25890,7 @@
         <v>1828</v>
       </c>
       <c r="B727" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C727" s="28" t="s">
         <v>634</v>
@@ -25913,7 +25913,7 @@
         <v>1828</v>
       </c>
       <c r="B728" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C728" s="28" t="s">
         <v>634</v>
@@ -25936,7 +25936,7 @@
         <v>1828</v>
       </c>
       <c r="B729" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C729" s="28" t="s">
         <v>634</v>
@@ -25959,7 +25959,7 @@
         <v>1828</v>
       </c>
       <c r="B730" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C730" s="28" t="s">
         <v>634</v>
@@ -25982,7 +25982,7 @@
         <v>1828</v>
       </c>
       <c r="B731" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C731" s="28" t="s">
         <v>634</v>
@@ -26005,7 +26005,7 @@
         <v>1828</v>
       </c>
       <c r="B732" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C732" s="28" t="s">
         <v>634</v>
@@ -26028,7 +26028,7 @@
         <v>1828</v>
       </c>
       <c r="B733" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C733" s="28" t="s">
         <v>634</v>
@@ -26051,7 +26051,7 @@
         <v>1828</v>
       </c>
       <c r="B734" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C734" s="28" t="s">
         <v>634</v>
@@ -26074,7 +26074,7 @@
         <v>1828</v>
       </c>
       <c r="B735" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C735" s="28" t="s">
         <v>634</v>
@@ -26097,7 +26097,7 @@
         <v>1828</v>
       </c>
       <c r="B736" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C736" s="28" t="s">
         <v>634</v>
@@ -26120,7 +26120,7 @@
         <v>1828</v>
       </c>
       <c r="B737" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C737" s="28" t="s">
         <v>634</v>
@@ -26143,7 +26143,7 @@
         <v>1828</v>
       </c>
       <c r="B738" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C738" s="28" t="s">
         <v>634</v>
@@ -26166,7 +26166,7 @@
         <v>1828</v>
       </c>
       <c r="B739" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C739" s="28" t="s">
         <v>634</v>
@@ -26189,7 +26189,7 @@
         <v>1828</v>
       </c>
       <c r="B740" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C740" s="28" t="s">
         <v>635</v>
@@ -26212,7 +26212,7 @@
         <v>1828</v>
       </c>
       <c r="B741" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C741" s="28" t="s">
         <v>635</v>
@@ -26235,7 +26235,7 @@
         <v>1828</v>
       </c>
       <c r="B742" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C742" s="28" t="s">
         <v>635</v>
@@ -26258,7 +26258,7 @@
         <v>1828</v>
       </c>
       <c r="B743" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C743" s="28" t="s">
         <v>635</v>
@@ -26281,7 +26281,7 @@
         <v>1828</v>
       </c>
       <c r="B744" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C744" s="28" t="s">
         <v>635</v>
@@ -26304,7 +26304,7 @@
         <v>1828</v>
       </c>
       <c r="B745" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C745" s="28" t="s">
         <v>635</v>
@@ -26327,7 +26327,7 @@
         <v>1828</v>
       </c>
       <c r="B746" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C746" s="28" t="s">
         <v>635</v>
@@ -26350,7 +26350,7 @@
         <v>1828</v>
       </c>
       <c r="B747" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C747" s="28" t="s">
         <v>635</v>
@@ -26373,7 +26373,7 @@
         <v>1828</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C748" s="28" t="s">
         <v>226</v>
@@ -26396,7 +26396,7 @@
         <v>1828</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C749" s="28" t="s">
         <v>226</v>
@@ -26419,7 +26419,7 @@
         <v>1828</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C750" s="28" t="s">
         <v>226</v>
@@ -26442,7 +26442,7 @@
         <v>1828</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C751" s="28" t="s">
         <v>226</v>
@@ -26465,7 +26465,7 @@
         <v>1828</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C752" s="28" t="s">
         <v>226</v>
@@ -26488,7 +26488,7 @@
         <v>1828</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C753" s="28" t="s">
         <v>226</v>
@@ -26511,7 +26511,7 @@
         <v>1828</v>
       </c>
       <c r="B754" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C754" s="28" t="s">
         <v>226</v>
@@ -26534,7 +26534,7 @@
         <v>1828</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C755" s="28" t="s">
         <v>226</v>
@@ -26557,7 +26557,7 @@
         <v>1828</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C756" s="28" t="s">
         <v>226</v>
@@ -26580,7 +26580,7 @@
         <v>1828</v>
       </c>
       <c r="B757" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C757" s="28" t="s">
         <v>226</v>
@@ -26603,7 +26603,7 @@
         <v>1828</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C758" s="28" t="s">
         <v>226</v>
@@ -26626,7 +26626,7 @@
         <v>1828</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C759" s="28" t="s">
         <v>226</v>
@@ -26649,7 +26649,7 @@
         <v>1828</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C760" s="28" t="s">
         <v>226</v>
@@ -26672,7 +26672,7 @@
         <v>1828</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C761" s="28" t="s">
         <v>226</v>
@@ -26695,7 +26695,7 @@
         <v>1828</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C762" s="28" t="s">
         <v>226</v>
@@ -26718,7 +26718,7 @@
         <v>1828</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C763" s="28" t="s">
         <v>226</v>
@@ -26741,7 +26741,7 @@
         <v>1828</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C764" s="28" t="s">
         <v>636</v>
@@ -26764,7 +26764,7 @@
         <v>1828</v>
       </c>
       <c r="B765" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C765" s="28" t="s">
         <v>636</v>
@@ -26787,7 +26787,7 @@
         <v>1828</v>
       </c>
       <c r="B766" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C766" s="28" t="s">
         <v>636</v>
@@ -26810,7 +26810,7 @@
         <v>1828</v>
       </c>
       <c r="B767" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C767" s="28" t="s">
         <v>636</v>
@@ -26833,7 +26833,7 @@
         <v>1828</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C768" s="28" t="s">
         <v>636</v>
@@ -26856,7 +26856,7 @@
         <v>1828</v>
       </c>
       <c r="B769" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C769" s="28" t="s">
         <v>636</v>
@@ -26879,7 +26879,7 @@
         <v>1828</v>
       </c>
       <c r="B770" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C770" s="28" t="s">
         <v>636</v>
@@ -26902,7 +26902,7 @@
         <v>1828</v>
       </c>
       <c r="B771" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C771" s="28" t="s">
         <v>636</v>
@@ -26925,7 +26925,7 @@
         <v>1828</v>
       </c>
       <c r="B772" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C772" s="28" t="s">
         <v>636</v>
@@ -26948,7 +26948,7 @@
         <v>1828</v>
       </c>
       <c r="B773" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C773" t="s">
         <v>637</v>
@@ -26971,7 +26971,7 @@
         <v>1828</v>
       </c>
       <c r="B774" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C774" t="s">
         <v>637</v>
@@ -26994,7 +26994,7 @@
         <v>1828</v>
       </c>
       <c r="B775" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C775" t="s">
         <v>637</v>
@@ -27017,7 +27017,7 @@
         <v>1828</v>
       </c>
       <c r="B776" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C776" t="s">
         <v>637</v>
@@ -27040,7 +27040,7 @@
         <v>1828</v>
       </c>
       <c r="B777" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C777" t="s">
         <v>637</v>
@@ -27063,7 +27063,7 @@
         <v>1828</v>
       </c>
       <c r="B778" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C778" t="s">
         <v>637</v>
@@ -27086,7 +27086,7 @@
         <v>1828</v>
       </c>
       <c r="B779" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C779" t="s">
         <v>637</v>
@@ -27109,7 +27109,7 @@
         <v>1828</v>
       </c>
       <c r="B780" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C780" t="s">
         <v>637</v>
@@ -27132,7 +27132,7 @@
         <v>1828</v>
       </c>
       <c r="B781" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C781" t="s">
         <v>637</v>
@@ -27155,7 +27155,7 @@
         <v>1828</v>
       </c>
       <c r="B782" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C782" t="s">
         <v>637</v>
@@ -27178,7 +27178,7 @@
         <v>1828</v>
       </c>
       <c r="B783" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C783" t="s">
         <v>637</v>
@@ -27201,7 +27201,7 @@
         <v>1828</v>
       </c>
       <c r="B784" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C784" t="s">
         <v>637</v>
@@ -27224,7 +27224,7 @@
         <v>1828</v>
       </c>
       <c r="B785" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C785" t="s">
         <v>637</v>
@@ -27247,7 +27247,7 @@
         <v>1828</v>
       </c>
       <c r="B786" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C786" s="28" t="s">
         <v>638</v>
@@ -27270,7 +27270,7 @@
         <v>1828</v>
       </c>
       <c r="B787" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C787" s="28" t="s">
         <v>638</v>
@@ -27293,7 +27293,7 @@
         <v>1828</v>
       </c>
       <c r="B788" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C788" s="28" t="s">
         <v>638</v>
@@ -27316,7 +27316,7 @@
         <v>1828</v>
       </c>
       <c r="B789" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C789" s="28" t="s">
         <v>638</v>
@@ -27339,7 +27339,7 @@
         <v>1828</v>
       </c>
       <c r="B790" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C790" s="28" t="s">
         <v>638</v>
@@ -27362,7 +27362,7 @@
         <v>1828</v>
       </c>
       <c r="B791" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C791" s="28" t="s">
         <v>638</v>
@@ -27385,7 +27385,7 @@
         <v>1828</v>
       </c>
       <c r="B792" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C792" s="28" t="s">
         <v>638</v>
@@ -27408,7 +27408,7 @@
         <v>1828</v>
       </c>
       <c r="B793" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C793" s="28" t="s">
         <v>638</v>
@@ -27431,7 +27431,7 @@
         <v>1828</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C794" s="28" t="s">
         <v>638</v>
@@ -27454,7 +27454,7 @@
         <v>1828</v>
       </c>
       <c r="B795" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C795" s="28" t="s">
         <v>638</v>
@@ -27477,7 +27477,7 @@
         <v>1828</v>
       </c>
       <c r="B796" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C796" s="28" t="s">
         <v>638</v>
@@ -27500,7 +27500,7 @@
         <v>1828</v>
       </c>
       <c r="B797" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C797" s="28" t="s">
         <v>638</v>
@@ -27523,7 +27523,7 @@
         <v>1828</v>
       </c>
       <c r="B798" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C798" s="28" t="s">
         <v>638</v>
@@ -27546,7 +27546,7 @@
         <v>1828</v>
       </c>
       <c r="B799" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C799" s="28" t="s">
         <v>638</v>
@@ -27569,7 +27569,7 @@
         <v>1828</v>
       </c>
       <c r="B800" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C800" s="28" t="s">
         <v>638</v>
@@ -27592,7 +27592,7 @@
         <v>1828</v>
       </c>
       <c r="B801" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C801" s="28" t="s">
         <v>638</v>
@@ -27615,7 +27615,7 @@
         <v>1828</v>
       </c>
       <c r="B802" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C802" s="28" t="s">
         <v>638</v>
@@ -27638,7 +27638,7 @@
         <v>1828</v>
       </c>
       <c r="B803" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C803" s="28" t="s">
         <v>638</v>
@@ -27661,7 +27661,7 @@
         <v>1828</v>
       </c>
       <c r="B804" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C804" s="28" t="s">
         <v>638</v>
@@ -27684,7 +27684,7 @@
         <v>1828</v>
       </c>
       <c r="B805" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C805" s="28" t="s">
         <v>638</v>
@@ -27707,7 +27707,7 @@
         <v>1828</v>
       </c>
       <c r="B806" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C806" s="28" t="s">
         <v>638</v>
@@ -27730,7 +27730,7 @@
         <v>1828</v>
       </c>
       <c r="B807" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C807" s="28" t="s">
         <v>638</v>
@@ -27753,7 +27753,7 @@
         <v>1828</v>
       </c>
       <c r="B808" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C808" s="28" t="s">
         <v>638</v>
@@ -27776,7 +27776,7 @@
         <v>1828</v>
       </c>
       <c r="B809" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C809" s="28" t="s">
         <v>638</v>
@@ -27799,7 +27799,7 @@
         <v>1828</v>
       </c>
       <c r="B810" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C810" s="28" t="s">
         <v>638</v>
@@ -27822,7 +27822,7 @@
         <v>1828</v>
       </c>
       <c r="B811" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C811" s="28" t="s">
         <v>638</v>
@@ -27845,7 +27845,7 @@
         <v>1828</v>
       </c>
       <c r="B812" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C812" s="28" t="s">
         <v>638</v>
@@ -27868,7 +27868,7 @@
         <v>1828</v>
       </c>
       <c r="B813" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C813" s="28" t="s">
         <v>638</v>
@@ -27891,7 +27891,7 @@
         <v>1828</v>
       </c>
       <c r="B814" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C814" s="28" t="s">
         <v>638</v>
@@ -27914,7 +27914,7 @@
         <v>1828</v>
       </c>
       <c r="B815" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C815" s="28" t="s">
         <v>638</v>
@@ -27937,7 +27937,7 @@
         <v>1828</v>
       </c>
       <c r="B816" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C816" s="28" t="s">
         <v>638</v>
@@ -27960,7 +27960,7 @@
         <v>1828</v>
       </c>
       <c r="B817" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C817" s="28" t="s">
         <v>638</v>
@@ -27983,7 +27983,7 @@
         <v>1828</v>
       </c>
       <c r="B818" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C818" s="28" t="s">
         <v>638</v>
@@ -28006,7 +28006,7 @@
         <v>1828</v>
       </c>
       <c r="B819" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C819" s="28" t="s">
         <v>638</v>
@@ -28029,7 +28029,7 @@
         <v>1828</v>
       </c>
       <c r="B820" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C820" s="28" t="s">
         <v>638</v>
@@ -28052,7 +28052,7 @@
         <v>1828</v>
       </c>
       <c r="B821" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C821" s="28" t="s">
         <v>638</v>
@@ -28075,7 +28075,7 @@
         <v>1828</v>
       </c>
       <c r="B822" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C822" s="28" t="s">
         <v>638</v>
@@ -28098,7 +28098,7 @@
         <v>1828</v>
       </c>
       <c r="B823" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C823" s="28" t="s">
         <v>638</v>
@@ -28121,7 +28121,7 @@
         <v>1828</v>
       </c>
       <c r="B824" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C824" s="28" t="s">
         <v>638</v>
@@ -28144,7 +28144,7 @@
         <v>1828</v>
       </c>
       <c r="B825" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C825" s="28" t="s">
         <v>638</v>
@@ -28167,7 +28167,7 @@
         <v>1828</v>
       </c>
       <c r="B826" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C826" s="28" t="s">
         <v>638</v>
@@ -28190,7 +28190,7 @@
         <v>1828</v>
       </c>
       <c r="B827" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C827" s="28" t="s">
         <v>638</v>
@@ -28213,7 +28213,7 @@
         <v>1828</v>
       </c>
       <c r="B828" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C828" s="28" t="s">
         <v>638</v>
@@ -28236,7 +28236,7 @@
         <v>1828</v>
       </c>
       <c r="B829" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C829" s="28" t="s">
         <v>638</v>
@@ -28259,7 +28259,7 @@
         <v>1828</v>
       </c>
       <c r="B830" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C830" s="28" t="s">
         <v>638</v>
@@ -28282,7 +28282,7 @@
         <v>1828</v>
       </c>
       <c r="B831" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C831" s="28" t="s">
         <v>638</v>
@@ -28305,7 +28305,7 @@
         <v>1828</v>
       </c>
       <c r="B832" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C832" s="28" t="s">
         <v>638</v>
@@ -28328,7 +28328,7 @@
         <v>1828</v>
       </c>
       <c r="B833" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C833" s="28" t="s">
         <v>638</v>
@@ -28351,7 +28351,7 @@
         <v>1828</v>
       </c>
       <c r="B834" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C834" s="28" t="s">
         <v>638</v>
@@ -28374,7 +28374,7 @@
         <v>1828</v>
       </c>
       <c r="B835" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C835" s="28" t="s">
         <v>638</v>
@@ -28397,7 +28397,7 @@
         <v>1828</v>
       </c>
       <c r="B836" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C836" s="28" t="s">
         <v>638</v>
@@ -28420,7 +28420,7 @@
         <v>1828</v>
       </c>
       <c r="B837" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C837" s="28" t="s">
         <v>638</v>
@@ -28443,7 +28443,7 @@
         <v>1828</v>
       </c>
       <c r="B838" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C838" s="28" t="s">
         <v>638</v>
@@ -28466,7 +28466,7 @@
         <v>1828</v>
       </c>
       <c r="B839" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C839" s="28" t="s">
         <v>638</v>
@@ -28489,7 +28489,7 @@
         <v>1828</v>
       </c>
       <c r="B840" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C840" s="28" t="s">
         <v>638</v>
@@ -28512,7 +28512,7 @@
         <v>1828</v>
       </c>
       <c r="B841" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C841" s="28" t="s">
         <v>638</v>
@@ -28535,7 +28535,7 @@
         <v>1828</v>
       </c>
       <c r="B842" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C842" s="28" t="s">
         <v>638</v>
@@ -28558,7 +28558,7 @@
         <v>1828</v>
       </c>
       <c r="B843" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C843" s="28" t="s">
         <v>638</v>
@@ -28581,7 +28581,7 @@
         <v>1828</v>
       </c>
       <c r="B844" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C844" s="28" t="s">
         <v>638</v>
@@ -28604,7 +28604,7 @@
         <v>1828</v>
       </c>
       <c r="B845" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C845" s="28" t="s">
         <v>638</v>
@@ -28627,7 +28627,7 @@
         <v>1828</v>
       </c>
       <c r="B846" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C846" s="28" t="s">
         <v>638</v>
@@ -28650,7 +28650,7 @@
         <v>1828</v>
       </c>
       <c r="B847" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C847" s="28" t="s">
         <v>638</v>
@@ -28673,7 +28673,7 @@
         <v>1828</v>
       </c>
       <c r="B848" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C848" s="28" t="s">
         <v>638</v>
@@ -28696,7 +28696,7 @@
         <v>1828</v>
       </c>
       <c r="B849" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C849" s="28" t="s">
         <v>638</v>
@@ -28719,7 +28719,7 @@
         <v>1828</v>
       </c>
       <c r="B850" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C850" s="28" t="s">
         <v>638</v>
@@ -28742,7 +28742,7 @@
         <v>1828</v>
       </c>
       <c r="B851" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C851" s="28" t="s">
         <v>638</v>
@@ -28765,7 +28765,7 @@
         <v>1828</v>
       </c>
       <c r="B852" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C852" s="28" t="s">
         <v>638</v>
@@ -28788,7 +28788,7 @@
         <v>1828</v>
       </c>
       <c r="B853" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C853" s="28" t="s">
         <v>638</v>
@@ -28811,7 +28811,7 @@
         <v>1828</v>
       </c>
       <c r="B854" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C854" s="28" t="s">
         <v>638</v>
@@ -28834,7 +28834,7 @@
         <v>1828</v>
       </c>
       <c r="B855" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C855" s="28" t="s">
         <v>638</v>
@@ -28857,7 +28857,7 @@
         <v>1828</v>
       </c>
       <c r="B856" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C856" s="28" t="s">
         <v>638</v>
@@ -28880,7 +28880,7 @@
         <v>1828</v>
       </c>
       <c r="B857" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C857" s="28" t="s">
         <v>638</v>
@@ -28903,7 +28903,7 @@
         <v>1828</v>
       </c>
       <c r="B858" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C858" s="28" t="s">
         <v>638</v>
@@ -28926,7 +28926,7 @@
         <v>1828</v>
       </c>
       <c r="B859" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C859" s="28" t="s">
         <v>638</v>
@@ -28949,7 +28949,7 @@
         <v>1828</v>
       </c>
       <c r="B860" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C860" s="28" t="s">
         <v>638</v>
@@ -28972,7 +28972,7 @@
         <v>1828</v>
       </c>
       <c r="B861" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C861" s="28" t="s">
         <v>638</v>
@@ -28995,7 +28995,7 @@
         <v>1828</v>
       </c>
       <c r="B862" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C862" s="28" t="s">
         <v>638</v>
@@ -29018,7 +29018,7 @@
         <v>1828</v>
       </c>
       <c r="B863" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C863" s="28" t="s">
         <v>638</v>
@@ -29041,7 +29041,7 @@
         <v>1828</v>
       </c>
       <c r="B864" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C864" s="28" t="s">
         <v>638</v>
@@ -29064,7 +29064,7 @@
         <v>1828</v>
       </c>
       <c r="B865" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C865" s="28" t="s">
         <v>638</v>
@@ -29087,7 +29087,7 @@
         <v>1828</v>
       </c>
       <c r="B866" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C866" s="28" t="s">
         <v>638</v>
@@ -29110,7 +29110,7 @@
         <v>1828</v>
       </c>
       <c r="B867" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C867" s="28" t="s">
         <v>638</v>
@@ -29133,7 +29133,7 @@
         <v>1828</v>
       </c>
       <c r="B868" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C868" s="28" t="s">
         <v>638</v>
@@ -29156,7 +29156,7 @@
         <v>1828</v>
       </c>
       <c r="B869" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C869" s="28" t="s">
         <v>638</v>
@@ -29179,7 +29179,7 @@
         <v>1828</v>
       </c>
       <c r="B870" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C870" s="28" t="s">
         <v>639</v>
@@ -29202,7 +29202,7 @@
         <v>1828</v>
       </c>
       <c r="B871" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C871" s="28" t="s">
         <v>639</v>
@@ -29225,7 +29225,7 @@
         <v>1828</v>
       </c>
       <c r="B872" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C872" s="28" t="s">
         <v>639</v>
@@ -29248,7 +29248,7 @@
         <v>1828</v>
       </c>
       <c r="B873" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C873" s="28" t="s">
         <v>639</v>
@@ -29271,7 +29271,7 @@
         <v>1828</v>
       </c>
       <c r="B874" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C874" s="28" t="s">
         <v>639</v>
@@ -29294,7 +29294,7 @@
         <v>1828</v>
       </c>
       <c r="B875" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C875" s="28" t="s">
         <v>639</v>
@@ -29317,7 +29317,7 @@
         <v>1828</v>
       </c>
       <c r="B876" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C876" s="28" t="s">
         <v>639</v>
@@ -29340,7 +29340,7 @@
         <v>1828</v>
       </c>
       <c r="B877" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C877" s="28" t="s">
         <v>639</v>
@@ -29363,7 +29363,7 @@
         <v>1828</v>
       </c>
       <c r="B878" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C878" s="28" t="s">
         <v>639</v>
@@ -29386,7 +29386,7 @@
         <v>1828</v>
       </c>
       <c r="B879" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C879" s="28" t="s">
         <v>639</v>
@@ -29409,7 +29409,7 @@
         <v>1828</v>
       </c>
       <c r="B880" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C880" s="28" t="s">
         <v>639</v>
@@ -29432,7 +29432,7 @@
         <v>1828</v>
       </c>
       <c r="B881" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C881" s="28" t="s">
         <v>639</v>
@@ -29455,7 +29455,7 @@
         <v>1828</v>
       </c>
       <c r="B882" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C882" s="28" t="s">
         <v>639</v>
@@ -29478,7 +29478,7 @@
         <v>1828</v>
       </c>
       <c r="B883" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C883" s="28" t="s">
         <v>639</v>
@@ -29501,7 +29501,7 @@
         <v>1828</v>
       </c>
       <c r="B884" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C884" s="28" t="s">
         <v>639</v>
@@ -29524,7 +29524,7 @@
         <v>1828</v>
       </c>
       <c r="B885" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C885" s="28" t="s">
         <v>639</v>
@@ -29547,7 +29547,7 @@
         <v>1828</v>
       </c>
       <c r="B886" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C886" s="28" t="s">
         <v>639</v>
@@ -29570,7 +29570,7 @@
         <v>1828</v>
       </c>
       <c r="B887" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C887" s="28" t="s">
         <v>639</v>
@@ -29593,7 +29593,7 @@
         <v>1828</v>
       </c>
       <c r="B888" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C888" s="28" t="s">
         <v>639</v>
@@ -29616,7 +29616,7 @@
         <v>1828</v>
       </c>
       <c r="B889" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C889" s="28" t="s">
         <v>639</v>
@@ -29639,7 +29639,7 @@
         <v>1828</v>
       </c>
       <c r="B890" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C890" s="28" t="s">
         <v>639</v>
@@ -29662,7 +29662,7 @@
         <v>1828</v>
       </c>
       <c r="B891" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C891" s="28" t="s">
         <v>639</v>
@@ -29685,7 +29685,7 @@
         <v>1828</v>
       </c>
       <c r="B892" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C892" s="28" t="s">
         <v>639</v>
@@ -29708,7 +29708,7 @@
         <v>1828</v>
       </c>
       <c r="B893" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C893" s="28" t="s">
         <v>639</v>
@@ -29731,7 +29731,7 @@
         <v>1828</v>
       </c>
       <c r="B894" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C894" s="28" t="s">
         <v>639</v>
@@ -29754,7 +29754,7 @@
         <v>1828</v>
       </c>
       <c r="B895" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C895" s="28" t="s">
         <v>639</v>
@@ -29777,7 +29777,7 @@
         <v>1828</v>
       </c>
       <c r="B896" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C896" s="28" t="s">
         <v>639</v>
@@ -29800,7 +29800,7 @@
         <v>1828</v>
       </c>
       <c r="B897" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C897" s="28" t="s">
         <v>639</v>
@@ -29823,7 +29823,7 @@
         <v>1828</v>
       </c>
       <c r="B898" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C898" s="28" t="s">
         <v>639</v>
@@ -29846,7 +29846,7 @@
         <v>1828</v>
       </c>
       <c r="B899" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C899" s="28" t="s">
         <v>639</v>
@@ -29869,7 +29869,7 @@
         <v>1828</v>
       </c>
       <c r="B900" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C900" s="28" t="s">
         <v>639</v>
@@ -29892,7 +29892,7 @@
         <v>1828</v>
       </c>
       <c r="B901" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C901" s="28" t="s">
         <v>639</v>
@@ -29915,7 +29915,7 @@
         <v>1828</v>
       </c>
       <c r="B902" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C902" s="28" t="s">
         <v>639</v>
@@ -29938,7 +29938,7 @@
         <v>1828</v>
       </c>
       <c r="B903" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C903" s="28" t="s">
         <v>639</v>
@@ -29961,7 +29961,7 @@
         <v>1828</v>
       </c>
       <c r="B904" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C904" s="28" t="s">
         <v>639</v>
@@ -29984,7 +29984,7 @@
         <v>1828</v>
       </c>
       <c r="B905" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C905" s="28" t="s">
         <v>639</v>
@@ -30007,7 +30007,7 @@
         <v>1828</v>
       </c>
       <c r="B906" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C906" s="28" t="s">
         <v>639</v>
@@ -30030,7 +30030,7 @@
         <v>1828</v>
       </c>
       <c r="B907" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C907" s="28" t="s">
         <v>639</v>
@@ -30053,7 +30053,7 @@
         <v>1828</v>
       </c>
       <c r="B908" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C908" s="28" t="s">
         <v>639</v>
@@ -30076,7 +30076,7 @@
         <v>1828</v>
       </c>
       <c r="B909" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C909" s="28" t="s">
         <v>639</v>
@@ -30099,7 +30099,7 @@
         <v>1828</v>
       </c>
       <c r="B910" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C910" s="28" t="s">
         <v>639</v>
@@ -30122,7 +30122,7 @@
         <v>1828</v>
       </c>
       <c r="B911" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C911" s="28" t="s">
         <v>639</v>
@@ -30145,7 +30145,7 @@
         <v>1828</v>
       </c>
       <c r="B912" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C912" s="28" t="s">
         <v>639</v>
@@ -30168,7 +30168,7 @@
         <v>1828</v>
       </c>
       <c r="B913" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C913" s="28" t="s">
         <v>639</v>
@@ -30191,7 +30191,7 @@
         <v>1828</v>
       </c>
       <c r="B914" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C914" s="28" t="s">
         <v>639</v>
@@ -30214,7 +30214,7 @@
         <v>1828</v>
       </c>
       <c r="B915" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C915" s="28" t="s">
         <v>639</v>
@@ -30237,7 +30237,7 @@
         <v>1828</v>
       </c>
       <c r="B916" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C916" s="28" t="s">
         <v>639</v>
@@ -30260,7 +30260,7 @@
         <v>1828</v>
       </c>
       <c r="B917" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C917" s="28" t="s">
         <v>639</v>
@@ -30283,7 +30283,7 @@
         <v>1828</v>
       </c>
       <c r="B918" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C918" s="28" t="s">
         <v>639</v>
@@ -30306,7 +30306,7 @@
         <v>1828</v>
       </c>
       <c r="B919" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C919" s="28" t="s">
         <v>639</v>
@@ -30329,7 +30329,7 @@
         <v>1828</v>
       </c>
       <c r="B920" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C920" t="s">
         <v>639</v>
@@ -30352,7 +30352,7 @@
         <v>1828</v>
       </c>
       <c r="B921" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C921" s="28" t="s">
         <v>639</v>
@@ -30375,7 +30375,7 @@
         <v>1828</v>
       </c>
       <c r="B922" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C922" s="28" t="s">
         <v>639</v>
@@ -30398,7 +30398,7 @@
         <v>1828</v>
       </c>
       <c r="B923" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C923" s="28" t="s">
         <v>639</v>
@@ -30421,7 +30421,7 @@
         <v>1828</v>
       </c>
       <c r="B924" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C924" s="28" t="s">
         <v>639</v>
@@ -30444,7 +30444,7 @@
         <v>1828</v>
       </c>
       <c r="B925" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C925" s="28" t="s">
         <v>639</v>
@@ -30467,7 +30467,7 @@
         <v>1828</v>
       </c>
       <c r="B926" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C926" s="28" t="s">
         <v>639</v>
@@ -30490,7 +30490,7 @@
         <v>1828</v>
       </c>
       <c r="B927" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C927" s="28" t="s">
         <v>639</v>
@@ -30513,7 +30513,7 @@
         <v>1828</v>
       </c>
       <c r="B928" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C928" s="28" t="s">
         <v>639</v>
@@ -30536,7 +30536,7 @@
         <v>1828</v>
       </c>
       <c r="B929" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C929" s="28" t="s">
         <v>639</v>
@@ -30559,7 +30559,7 @@
         <v>1828</v>
       </c>
       <c r="B930" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C930" s="28" t="s">
         <v>639</v>
@@ -30582,7 +30582,7 @@
         <v>1828</v>
       </c>
       <c r="B931" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C931" s="28" t="s">
         <v>639</v>
@@ -30605,7 +30605,7 @@
         <v>1828</v>
       </c>
       <c r="B932" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C932" s="30" t="s">
         <v>640</v>
@@ -30628,7 +30628,7 @@
         <v>1828</v>
       </c>
       <c r="B933" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C933" s="30" t="s">
         <v>640</v>
@@ -30651,7 +30651,7 @@
         <v>1828</v>
       </c>
       <c r="B934" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C934" s="30" t="s">
         <v>640</v>
@@ -30674,7 +30674,7 @@
         <v>1828</v>
       </c>
       <c r="B935" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C935" s="30" t="s">
         <v>640</v>
@@ -30697,7 +30697,7 @@
         <v>1828</v>
       </c>
       <c r="B936" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C936" s="30" t="s">
         <v>640</v>
@@ -30720,7 +30720,7 @@
         <v>1828</v>
       </c>
       <c r="B937" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C937" s="30" t="s">
         <v>640</v>
@@ -30743,7 +30743,7 @@
         <v>1828</v>
       </c>
       <c r="B938" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C938" s="30" t="s">
         <v>640</v>
@@ -30766,7 +30766,7 @@
         <v>1828</v>
       </c>
       <c r="B939" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C939" s="30" t="s">
         <v>640</v>
@@ -30789,7 +30789,7 @@
         <v>1828</v>
       </c>
       <c r="B940" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C940" s="30" t="s">
         <v>640</v>
@@ -30812,7 +30812,7 @@
         <v>1828</v>
       </c>
       <c r="B941" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C941" s="30" t="s">
         <v>640</v>
@@ -30835,7 +30835,7 @@
         <v>1828</v>
       </c>
       <c r="B942" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C942" s="30" t="s">
         <v>640</v>
@@ -30858,7 +30858,7 @@
         <v>1828</v>
       </c>
       <c r="B943" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C943" s="32" t="s">
         <v>640</v>
@@ -30881,7 +30881,7 @@
         <v>1828</v>
       </c>
       <c r="B944" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C944" s="30" t="s">
         <v>640</v>
@@ -30904,7 +30904,7 @@
         <v>1828</v>
       </c>
       <c r="B945" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C945" s="30" t="s">
         <v>640</v>
@@ -30927,7 +30927,7 @@
         <v>1828</v>
       </c>
       <c r="B946" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C946" s="30" t="s">
         <v>640</v>
@@ -30950,7 +30950,7 @@
         <v>1828</v>
       </c>
       <c r="B947" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C947" s="30" t="s">
         <v>640</v>
@@ -30973,7 +30973,7 @@
         <v>1828</v>
       </c>
       <c r="B948" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C948" s="30" t="s">
         <v>640</v>
@@ -30996,7 +30996,7 @@
         <v>1828</v>
       </c>
       <c r="B949" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C949" s="30" t="s">
         <v>640</v>
@@ -31019,7 +31019,7 @@
         <v>1828</v>
       </c>
       <c r="B950" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C950" s="30" t="s">
         <v>640</v>
@@ -31042,7 +31042,7 @@
         <v>1828</v>
       </c>
       <c r="B951" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C951" s="30" t="s">
         <v>640</v>
@@ -31065,7 +31065,7 @@
         <v>1828</v>
       </c>
       <c r="B952" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C952" s="32" t="s">
         <v>640</v>
@@ -31088,7 +31088,7 @@
         <v>1828</v>
       </c>
       <c r="B953" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C953" s="30" t="s">
         <v>640</v>
@@ -31111,7 +31111,7 @@
         <v>1828</v>
       </c>
       <c r="B954" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C954" s="30" t="s">
         <v>640</v>
@@ -31134,7 +31134,7 @@
         <v>1828</v>
       </c>
       <c r="B955" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C955" s="28" t="s">
         <v>220</v>
@@ -31157,7 +31157,7 @@
         <v>1828</v>
       </c>
       <c r="B956" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C956" s="28" t="s">
         <v>220</v>
@@ -31180,7 +31180,7 @@
         <v>1828</v>
       </c>
       <c r="B957" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C957" s="28" t="s">
         <v>220</v>
@@ -31203,7 +31203,7 @@
         <v>1828</v>
       </c>
       <c r="B958" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C958" s="28" t="s">
         <v>220</v>
@@ -31226,7 +31226,7 @@
         <v>1828</v>
       </c>
       <c r="B959" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C959" s="28" t="s">
         <v>220</v>
@@ -31249,7 +31249,7 @@
         <v>1828</v>
       </c>
       <c r="B960" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C960" s="28" t="s">
         <v>220</v>
@@ -31272,7 +31272,7 @@
         <v>1828</v>
       </c>
       <c r="B961" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C961" s="28" t="s">
         <v>220</v>
@@ -31295,7 +31295,7 @@
         <v>1828</v>
       </c>
       <c r="B962" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C962" t="s">
         <v>220</v>
@@ -31318,7 +31318,7 @@
         <v>1828</v>
       </c>
       <c r="B963" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C963" s="28" t="s">
         <v>220</v>
@@ -31341,7 +31341,7 @@
         <v>1828</v>
       </c>
       <c r="B964" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C964" s="28" t="s">
         <v>220</v>
@@ -31365,7 +31365,7 @@
         <v>1828</v>
       </c>
       <c r="B965" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C965" s="28" t="s">
         <v>220</v>
@@ -31389,7 +31389,7 @@
         <v>1828</v>
       </c>
       <c r="B966" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C966" s="28" t="s">
         <v>220</v>
@@ -31412,7 +31412,7 @@
         <v>1828</v>
       </c>
       <c r="B967" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C967" s="28" t="s">
         <v>220</v>
@@ -31436,7 +31436,7 @@
         <v>1828</v>
       </c>
       <c r="B968" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C968" s="28" t="s">
         <v>220</v>
@@ -31460,7 +31460,7 @@
         <v>1828</v>
       </c>
       <c r="B969" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C969" s="28" t="s">
         <v>220</v>
@@ -31484,7 +31484,7 @@
         <v>1828</v>
       </c>
       <c r="B970" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C970" s="28" t="s">
         <v>220</v>
@@ -31508,7 +31508,7 @@
         <v>1828</v>
       </c>
       <c r="B971" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C971" s="28" t="s">
         <v>220</v>
@@ -31532,7 +31532,7 @@
         <v>1828</v>
       </c>
       <c r="B972" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C972" s="28" t="s">
         <v>220</v>
@@ -31556,7 +31556,7 @@
         <v>1828</v>
       </c>
       <c r="B973" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C973" s="28" t="s">
         <v>220</v>
@@ -31580,7 +31580,7 @@
         <v>1828</v>
       </c>
       <c r="B974" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C974" s="28" t="s">
         <v>220</v>
@@ -31604,7 +31604,7 @@
         <v>1828</v>
       </c>
       <c r="B975" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C975" s="28" t="s">
         <v>220</v>
@@ -31627,7 +31627,7 @@
         <v>1828</v>
       </c>
       <c r="B976" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C976" s="28" t="s">
         <v>220</v>
@@ -31650,7 +31650,7 @@
         <v>1828</v>
       </c>
       <c r="B977" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C977" s="28" t="s">
         <v>220</v>
@@ -31673,7 +31673,7 @@
         <v>1828</v>
       </c>
       <c r="B978" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C978" s="28" t="s">
         <v>220</v>
@@ -31696,7 +31696,7 @@
         <v>1828</v>
       </c>
       <c r="B979" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C979" s="28" t="s">
         <v>220</v>
@@ -31719,7 +31719,7 @@
         <v>1828</v>
       </c>
       <c r="B980" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C980" s="28" t="s">
         <v>220</v>
@@ -31742,7 +31742,7 @@
         <v>1828</v>
       </c>
       <c r="B981" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C981" s="28" t="s">
         <v>220</v>
@@ -31765,7 +31765,7 @@
         <v>1828</v>
       </c>
       <c r="B982" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C982" s="28" t="s">
         <v>220</v>
@@ -31788,7 +31788,7 @@
         <v>1828</v>
       </c>
       <c r="B983" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C983" s="28" t="s">
         <v>220</v>
@@ -31811,7 +31811,7 @@
         <v>1828</v>
       </c>
       <c r="B984" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C984" s="28" t="s">
         <v>220</v>
@@ -31834,7 +31834,7 @@
         <v>1828</v>
       </c>
       <c r="B985" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C985" s="28" t="s">
         <v>220</v>
@@ -31857,7 +31857,7 @@
         <v>1828</v>
       </c>
       <c r="B986" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C986" s="28" t="s">
         <v>220</v>
@@ -31880,7 +31880,7 @@
         <v>1828</v>
       </c>
       <c r="B987" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C987" s="28" t="s">
         <v>220</v>
@@ -31903,7 +31903,7 @@
         <v>1828</v>
       </c>
       <c r="B988" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C988" s="28" t="s">
         <v>220</v>
@@ -31926,7 +31926,7 @@
         <v>1828</v>
       </c>
       <c r="B989" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C989" s="28" t="s">
         <v>220</v>
@@ -31949,7 +31949,7 @@
         <v>1828</v>
       </c>
       <c r="B990" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C990" s="28" t="s">
         <v>220</v>
@@ -31972,7 +31972,7 @@
         <v>1828</v>
       </c>
       <c r="B991" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C991" s="28" t="s">
         <v>220</v>
@@ -31995,7 +31995,7 @@
         <v>1828</v>
       </c>
       <c r="B992" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C992" s="28" t="s">
         <v>220</v>
@@ -32018,7 +32018,7 @@
         <v>1828</v>
       </c>
       <c r="B993" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C993" s="28" t="s">
         <v>220</v>
@@ -32041,7 +32041,7 @@
         <v>1828</v>
       </c>
       <c r="B994" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C994" s="28" t="s">
         <v>220</v>
@@ -32064,7 +32064,7 @@
         <v>1828</v>
       </c>
       <c r="B995" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C995" s="28" t="s">
         <v>220</v>
@@ -32087,7 +32087,7 @@
         <v>1828</v>
       </c>
       <c r="B996" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C996" s="28" t="s">
         <v>220</v>
@@ -32110,7 +32110,7 @@
         <v>1828</v>
       </c>
       <c r="B997" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C997" s="28" t="s">
         <v>220</v>
@@ -32133,7 +32133,7 @@
         <v>1828</v>
       </c>
       <c r="B998" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C998" s="28" t="s">
         <v>220</v>
@@ -32156,7 +32156,7 @@
         <v>1828</v>
       </c>
       <c r="B999" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C999" s="28" t="s">
         <v>220</v>
@@ -32179,7 +32179,7 @@
         <v>1828</v>
       </c>
       <c r="B1000" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1000" s="28" t="s">
         <v>220</v>
@@ -32202,7 +32202,7 @@
         <v>1828</v>
       </c>
       <c r="B1001" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1001" s="28" t="s">
         <v>220</v>
@@ -32225,7 +32225,7 @@
         <v>1828</v>
       </c>
       <c r="B1002" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1002" s="28" t="s">
         <v>220</v>
@@ -32248,7 +32248,7 @@
         <v>1828</v>
       </c>
       <c r="B1003" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1003" s="28" t="s">
         <v>220</v>
@@ -32271,7 +32271,7 @@
         <v>1828</v>
       </c>
       <c r="B1004" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1004" s="28" t="s">
         <v>220</v>
@@ -32294,7 +32294,7 @@
         <v>1828</v>
       </c>
       <c r="B1005" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1005" s="28" t="s">
         <v>220</v>
@@ -32317,7 +32317,7 @@
         <v>1828</v>
       </c>
       <c r="B1006" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1006" s="28" t="s">
         <v>220</v>
@@ -32340,7 +32340,7 @@
         <v>1828</v>
       </c>
       <c r="B1007" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1007" s="28" t="s">
         <v>220</v>
@@ -32363,7 +32363,7 @@
         <v>1828</v>
       </c>
       <c r="B1008" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1008" s="28" t="s">
         <v>220</v>
@@ -32386,7 +32386,7 @@
         <v>1828</v>
       </c>
       <c r="B1009" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1009" s="28" t="s">
         <v>220</v>
@@ -32409,7 +32409,7 @@
         <v>1828</v>
       </c>
       <c r="B1010" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1010" s="28" t="s">
         <v>220</v>
@@ -32432,7 +32432,7 @@
         <v>1828</v>
       </c>
       <c r="B1011" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1011" s="28" t="s">
         <v>220</v>
@@ -32455,7 +32455,7 @@
         <v>1828</v>
       </c>
       <c r="B1012" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1012" s="28" t="s">
         <v>220</v>
@@ -32478,7 +32478,7 @@
         <v>1828</v>
       </c>
       <c r="B1013" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1013" s="28" t="s">
         <v>220</v>
@@ -32501,7 +32501,7 @@
         <v>1828</v>
       </c>
       <c r="B1014" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1014" s="28" t="s">
         <v>220</v>
@@ -32524,7 +32524,7 @@
         <v>1828</v>
       </c>
       <c r="B1015" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1015" s="28" t="s">
         <v>220</v>
@@ -32547,7 +32547,7 @@
         <v>1828</v>
       </c>
       <c r="B1016" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1016" s="28" t="s">
         <v>220</v>
@@ -32570,7 +32570,7 @@
         <v>1828</v>
       </c>
       <c r="B1017" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1017" s="28" t="s">
         <v>220</v>
@@ -32593,7 +32593,7 @@
         <v>1828</v>
       </c>
       <c r="B1018" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1018" s="28" t="s">
         <v>220</v>
@@ -32616,7 +32616,7 @@
         <v>1828</v>
       </c>
       <c r="B1019" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1019" s="28" t="s">
         <v>220</v>
@@ -32639,7 +32639,7 @@
         <v>1828</v>
       </c>
       <c r="B1020" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1020" s="28" t="s">
         <v>220</v>
@@ -32662,7 +32662,7 @@
         <v>1828</v>
       </c>
       <c r="B1021" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1021" s="28" t="s">
         <v>220</v>
@@ -32685,7 +32685,7 @@
         <v>1828</v>
       </c>
       <c r="B1022" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1022" s="28" t="s">
         <v>220</v>
@@ -32708,7 +32708,7 @@
         <v>1828</v>
       </c>
       <c r="B1023" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1023" s="28" t="s">
         <v>220</v>
@@ -32731,7 +32731,7 @@
         <v>1828</v>
       </c>
       <c r="B1024" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1024" s="28" t="s">
         <v>220</v>
@@ -32754,7 +32754,7 @@
         <v>1828</v>
       </c>
       <c r="B1025" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1025" s="28" t="s">
         <v>220</v>
@@ -32777,7 +32777,7 @@
         <v>1828</v>
       </c>
       <c r="B1026" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1026" s="28" t="s">
         <v>220</v>
@@ -32800,7 +32800,7 @@
         <v>1828</v>
       </c>
       <c r="B1027" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1027" s="28" t="s">
         <v>220</v>
@@ -32823,7 +32823,7 @@
         <v>1828</v>
       </c>
       <c r="B1028" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1028" s="28" t="s">
         <v>220</v>
@@ -32846,7 +32846,7 @@
         <v>1828</v>
       </c>
       <c r="B1029" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1029" s="28" t="s">
         <v>220</v>
@@ -32869,7 +32869,7 @@
         <v>1828</v>
       </c>
       <c r="B1030" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1030" s="28" t="s">
         <v>220</v>
@@ -32892,7 +32892,7 @@
         <v>1828</v>
       </c>
       <c r="B1031" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1031" s="28" t="s">
         <v>220</v>
@@ -32915,7 +32915,7 @@
         <v>1828</v>
       </c>
       <c r="B1032" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1032" s="28" t="s">
         <v>220</v>
@@ -32938,7 +32938,7 @@
         <v>1828</v>
       </c>
       <c r="B1033" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1033" s="28" t="s">
         <v>220</v>
@@ -32961,7 +32961,7 @@
         <v>1828</v>
       </c>
       <c r="B1034" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1034" s="28" t="s">
         <v>220</v>
@@ -32984,7 +32984,7 @@
         <v>1828</v>
       </c>
       <c r="B1035" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1035" s="28" t="s">
         <v>220</v>
@@ -33007,7 +33007,7 @@
         <v>1828</v>
       </c>
       <c r="B1036" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1036" s="28" t="s">
         <v>220</v>
@@ -33030,7 +33030,7 @@
         <v>1828</v>
       </c>
       <c r="B1037" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1037" s="28" t="s">
         <v>220</v>
@@ -33053,7 +33053,7 @@
         <v>1828</v>
       </c>
       <c r="B1038" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1038" s="28" t="s">
         <v>220</v>
@@ -33076,7 +33076,7 @@
         <v>1828</v>
       </c>
       <c r="B1039" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1039" s="28" t="s">
         <v>220</v>
@@ -33099,7 +33099,7 @@
         <v>1828</v>
       </c>
       <c r="B1040" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1040" s="28" t="s">
         <v>220</v>
@@ -33122,7 +33122,7 @@
         <v>1828</v>
       </c>
       <c r="B1041" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1041" s="28" t="s">
         <v>220</v>
@@ -33145,7 +33145,7 @@
         <v>1828</v>
       </c>
       <c r="B1042" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1042" s="28" t="s">
         <v>220</v>
@@ -33168,7 +33168,7 @@
         <v>1828</v>
       </c>
       <c r="B1043" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1043" s="28" t="s">
         <v>220</v>
@@ -33191,7 +33191,7 @@
         <v>1828</v>
       </c>
       <c r="B1044" s="9" t="s">
-        <v>2066</v>
+        <v>2155</v>
       </c>
       <c r="C1044" s="28" t="s">
         <v>220</v>
@@ -33214,7 +33214,7 @@
         <v>1831</v>
       </c>
       <c r="B1045" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1045" s="8" t="s">
         <v>506</v>
@@ -33235,7 +33235,7 @@
         <v>1831</v>
       </c>
       <c r="B1046" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1046" s="8" t="s">
         <v>506</v>
@@ -33256,7 +33256,7 @@
         <v>1831</v>
       </c>
       <c r="B1047" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1047" s="8" t="s">
         <v>506</v>
@@ -33277,7 +33277,7 @@
         <v>1831</v>
       </c>
       <c r="B1048" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1048" s="8" t="s">
         <v>506</v>
@@ -33298,7 +33298,7 @@
         <v>1831</v>
       </c>
       <c r="B1049" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1049" s="8" t="s">
         <v>506</v>
@@ -33319,7 +33319,7 @@
         <v>1831</v>
       </c>
       <c r="B1050" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1050" s="8" t="s">
         <v>506</v>
@@ -33340,7 +33340,7 @@
         <v>1831</v>
       </c>
       <c r="B1051" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1051" s="8" t="s">
         <v>506</v>
@@ -33361,7 +33361,7 @@
         <v>1831</v>
       </c>
       <c r="B1052" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1052" s="8" t="s">
         <v>506</v>
@@ -33382,7 +33382,7 @@
         <v>1831</v>
       </c>
       <c r="B1053" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1053" s="8" t="s">
         <v>506</v>
@@ -33403,7 +33403,7 @@
         <v>1831</v>
       </c>
       <c r="B1054" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1054" s="8" t="s">
         <v>506</v>
@@ -33424,7 +33424,7 @@
         <v>1831</v>
       </c>
       <c r="B1055" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1055" s="8" t="s">
         <v>506</v>
@@ -33445,7 +33445,7 @@
         <v>1831</v>
       </c>
       <c r="B1056" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1056" s="8" t="s">
         <v>506</v>
@@ -33466,7 +33466,7 @@
         <v>1831</v>
       </c>
       <c r="B1057" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1057" s="8" t="s">
         <v>506</v>
@@ -33487,7 +33487,7 @@
         <v>1831</v>
       </c>
       <c r="B1058" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1058" s="8" t="s">
         <v>506</v>
@@ -33508,7 +33508,7 @@
         <v>1831</v>
       </c>
       <c r="B1059" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1059" s="8" t="s">
         <v>506</v>
@@ -33529,7 +33529,7 @@
         <v>1831</v>
       </c>
       <c r="B1060" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1060" s="8" t="s">
         <v>506</v>
@@ -33550,7 +33550,7 @@
         <v>1831</v>
       </c>
       <c r="B1061" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1061" s="8" t="s">
         <v>506</v>
@@ -33571,7 +33571,7 @@
         <v>1831</v>
       </c>
       <c r="B1062" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1062" s="8" t="s">
         <v>506</v>
@@ -33592,7 +33592,7 @@
         <v>1831</v>
       </c>
       <c r="B1063" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1063" s="8" t="s">
         <v>400</v>
@@ -33613,7 +33613,7 @@
         <v>1831</v>
       </c>
       <c r="B1064" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1064" s="8" t="s">
         <v>400</v>
@@ -33634,7 +33634,7 @@
         <v>1831</v>
       </c>
       <c r="B1065" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1065" s="8" t="s">
         <v>400</v>
@@ -33655,7 +33655,7 @@
         <v>1831</v>
       </c>
       <c r="B1066" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1066" s="8" t="s">
         <v>400</v>
@@ -33676,7 +33676,7 @@
         <v>1831</v>
       </c>
       <c r="B1067" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1067" s="8" t="s">
         <v>400</v>
@@ -33697,7 +33697,7 @@
         <v>1831</v>
       </c>
       <c r="B1068" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1068" s="8" t="s">
         <v>400</v>
@@ -33718,7 +33718,7 @@
         <v>1831</v>
       </c>
       <c r="B1069" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1069" s="8" t="s">
         <v>400</v>
@@ -33739,7 +33739,7 @@
         <v>1831</v>
       </c>
       <c r="B1070" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1070" s="8" t="s">
         <v>400</v>
@@ -33760,7 +33760,7 @@
         <v>1831</v>
       </c>
       <c r="B1071" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1071" s="8" t="s">
         <v>400</v>
@@ -33781,7 +33781,7 @@
         <v>1831</v>
       </c>
       <c r="B1072" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1072" s="8" t="s">
         <v>400</v>
@@ -33802,7 +33802,7 @@
         <v>1831</v>
       </c>
       <c r="B1073" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1073" s="8" t="s">
         <v>400</v>
@@ -33823,7 +33823,7 @@
         <v>1831</v>
       </c>
       <c r="B1074" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1074" s="8" t="s">
         <v>400</v>
@@ -33844,7 +33844,7 @@
         <v>1831</v>
       </c>
       <c r="B1075" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1075" s="8" t="s">
         <v>400</v>
@@ -33865,7 +33865,7 @@
         <v>1831</v>
       </c>
       <c r="B1076" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1076" s="8" t="s">
         <v>400</v>
@@ -33886,7 +33886,7 @@
         <v>1831</v>
       </c>
       <c r="B1077" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1077" s="8" t="s">
         <v>400</v>
@@ -33907,7 +33907,7 @@
         <v>1831</v>
       </c>
       <c r="B1078" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1078" s="8" t="s">
         <v>400</v>
@@ -33928,7 +33928,7 @@
         <v>1831</v>
       </c>
       <c r="B1079" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1079" s="8" t="s">
         <v>400</v>
@@ -33949,7 +33949,7 @@
         <v>1831</v>
       </c>
       <c r="B1080" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1080" s="8" t="s">
         <v>400</v>
@@ -33970,7 +33970,7 @@
         <v>1831</v>
       </c>
       <c r="B1081" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1081" s="8" t="s">
         <v>400</v>
@@ -33991,7 +33991,7 @@
         <v>1831</v>
       </c>
       <c r="B1082" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1082" s="8" t="s">
         <v>400</v>
@@ -34012,7 +34012,7 @@
         <v>1831</v>
       </c>
       <c r="B1083" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1083" s="8" t="s">
         <v>400</v>
@@ -34033,7 +34033,7 @@
         <v>1831</v>
       </c>
       <c r="B1084" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1084" s="8" t="s">
         <v>400</v>
@@ -34054,7 +34054,7 @@
         <v>1831</v>
       </c>
       <c r="B1085" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1085" s="8" t="s">
         <v>400</v>
@@ -34075,7 +34075,7 @@
         <v>1831</v>
       </c>
       <c r="B1086" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1086" s="8" t="s">
         <v>400</v>
@@ -34096,7 +34096,7 @@
         <v>1831</v>
       </c>
       <c r="B1087" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1087" s="8" t="s">
         <v>400</v>
@@ -34117,7 +34117,7 @@
         <v>1831</v>
       </c>
       <c r="B1088" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1088" s="8" t="s">
         <v>400</v>
@@ -34138,7 +34138,7 @@
         <v>1831</v>
       </c>
       <c r="B1089" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1089" s="8" t="s">
         <v>400</v>
@@ -34159,7 +34159,7 @@
         <v>1831</v>
       </c>
       <c r="B1090" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1090" s="8" t="s">
         <v>400</v>
@@ -34180,7 +34180,7 @@
         <v>1831</v>
       </c>
       <c r="B1091" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1091" s="8" t="s">
         <v>400</v>
@@ -34201,7 +34201,7 @@
         <v>1831</v>
       </c>
       <c r="B1092" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1092" s="8" t="s">
         <v>400</v>
@@ -34222,7 +34222,7 @@
         <v>1831</v>
       </c>
       <c r="B1093" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1093" s="8" t="s">
         <v>400</v>
@@ -34243,7 +34243,7 @@
         <v>1831</v>
       </c>
       <c r="B1094" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1094" s="8" t="s">
         <v>400</v>
@@ -34264,7 +34264,7 @@
         <v>1831</v>
       </c>
       <c r="B1095" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1095" s="8" t="s">
         <v>400</v>
@@ -34285,7 +34285,7 @@
         <v>1831</v>
       </c>
       <c r="B1096" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1096" s="8" t="s">
         <v>400</v>
@@ -34306,7 +34306,7 @@
         <v>1831</v>
       </c>
       <c r="B1097" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1097" s="8" t="s">
         <v>400</v>
@@ -34327,7 +34327,7 @@
         <v>1831</v>
       </c>
       <c r="B1098" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1098" s="8" t="s">
         <v>400</v>
@@ -34348,7 +34348,7 @@
         <v>1831</v>
       </c>
       <c r="B1099" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1099" s="8" t="s">
         <v>400</v>
@@ -34369,7 +34369,7 @@
         <v>1831</v>
       </c>
       <c r="B1100" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1100" s="8" t="s">
         <v>400</v>
@@ -34390,7 +34390,7 @@
         <v>1831</v>
       </c>
       <c r="B1101" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1101" s="8" t="s">
         <v>400</v>
@@ -34411,7 +34411,7 @@
         <v>1831</v>
       </c>
       <c r="B1102" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1102" s="8" t="s">
         <v>400</v>
@@ -34432,7 +34432,7 @@
         <v>1831</v>
       </c>
       <c r="B1103" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1103" s="8" t="s">
         <v>400</v>
@@ -34453,7 +34453,7 @@
         <v>1831</v>
       </c>
       <c r="B1104" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1104" s="8" t="s">
         <v>400</v>
@@ -34474,7 +34474,7 @@
         <v>1831</v>
       </c>
       <c r="B1105" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1105" s="8" t="s">
         <v>400</v>
@@ -34495,7 +34495,7 @@
         <v>1831</v>
       </c>
       <c r="B1106" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1106" s="8" t="s">
         <v>400</v>
@@ -34516,7 +34516,7 @@
         <v>1831</v>
       </c>
       <c r="B1107" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1107" s="8" t="s">
         <v>400</v>
@@ -34537,7 +34537,7 @@
         <v>1831</v>
       </c>
       <c r="B1108" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1108" s="8" t="s">
         <v>400</v>
@@ -34558,7 +34558,7 @@
         <v>1831</v>
       </c>
       <c r="B1109" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1109" s="8" t="s">
         <v>400</v>
@@ -34579,7 +34579,7 @@
         <v>1831</v>
       </c>
       <c r="B1110" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1110" s="8" t="s">
         <v>400</v>
@@ -34600,7 +34600,7 @@
         <v>1831</v>
       </c>
       <c r="B1111" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1111" s="8" t="s">
         <v>400</v>
@@ -34621,7 +34621,7 @@
         <v>1831</v>
       </c>
       <c r="B1112" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1112" s="8" t="s">
         <v>400</v>
@@ -34642,7 +34642,7 @@
         <v>1831</v>
       </c>
       <c r="B1113" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1113" s="8" t="s">
         <v>400</v>
@@ -34663,7 +34663,7 @@
         <v>1831</v>
       </c>
       <c r="B1114" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1114" s="8" t="s">
         <v>400</v>
@@ -34684,7 +34684,7 @@
         <v>1831</v>
       </c>
       <c r="B1115" s="8" t="s">
-        <v>2067</v>
+        <v>2156</v>
       </c>
       <c r="C1115" s="8" t="s">
         <v>400</v>

--- a/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
+++ b/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
@@ -74,7 +74,7 @@
     <t>University of Connecticut (UConn)</t>
   </si>
   <si>
-    <t>Connecticut Technical and Career System(CTECS)</t>
+    <t>Connecticut Technical and Career System (CTECS)</t>
   </si>
   <si>
     <t>Department of Correction</t>

--- a/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
+++ b/P20 WIN Data Dictionary/P20WIN_Data_Dictionary.xlsx
@@ -9979,43 +9979,43 @@
     <t>2005 to 2021</t>
   </si>
   <si>
-    <t>1999 to 2021</t>
+    <t>2009 to 2024</t>
+  </si>
+  <si>
+    <t>1993 to 2023</t>
+  </si>
+  <si>
+    <t>2010-Current</t>
+  </si>
+  <si>
+    <t>2017 to 2021</t>
+  </si>
+  <si>
+    <t>2012 to 2023</t>
+  </si>
+  <si>
+    <t>2006-07 To Present</t>
+  </si>
+  <si>
+    <t>2014-15 to Present</t>
+  </si>
+  <si>
+    <t>2006-07 to Present</t>
+  </si>
+  <si>
+    <t>2020-21 to Present</t>
+  </si>
+  <si>
+    <t>2020-21 to Present, September-May</t>
+  </si>
+  <si>
+    <t>2015-16 to Present</t>
+  </si>
+  <si>
+    <t>2007-08 to Present</t>
   </si>
   <si>
     <t>2009 to 2021</t>
-  </si>
-  <si>
-    <t>1993 to 2023</t>
-  </si>
-  <si>
-    <t>2010-Current</t>
-  </si>
-  <si>
-    <t>2017 to 2021</t>
-  </si>
-  <si>
-    <t>2012 to 2023</t>
-  </si>
-  <si>
-    <t>2006-07 To Present</t>
-  </si>
-  <si>
-    <t>2014-15 to Present</t>
-  </si>
-  <si>
-    <t>2006-07 to Present</t>
-  </si>
-  <si>
-    <t>2020-21 to Present</t>
-  </si>
-  <si>
-    <t>2020-21 to Present, September-May</t>
-  </si>
-  <si>
-    <t>2015-16 to Present</t>
-  </si>
-  <si>
-    <t>2007-08 to Present</t>
   </si>
   <si>
     <t>2014 to 2022</t>
@@ -14290,7 +14290,7 @@
         <v>42</v>
       </c>
       <c r="H162" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="163">
@@ -14316,7 +14316,7 @@
         <v>42</v>
       </c>
       <c r="H163" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="164">
@@ -14342,7 +14342,7 @@
         <v>42</v>
       </c>
       <c r="H164" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="165">
@@ -14368,7 +14368,7 @@
         <v>42</v>
       </c>
       <c r="H165" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="166">
@@ -14394,7 +14394,7 @@
         <v>42</v>
       </c>
       <c r="H166" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="167">
@@ -14420,7 +14420,7 @@
         <v>42</v>
       </c>
       <c r="H167" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="168">
@@ -14446,7 +14446,7 @@
         <v>42</v>
       </c>
       <c r="H168" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="169">
@@ -14472,7 +14472,7 @@
         <v>42</v>
       </c>
       <c r="H169" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="170">
@@ -14498,7 +14498,7 @@
         <v>42</v>
       </c>
       <c r="H170" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="171">
@@ -14524,7 +14524,7 @@
         <v>42</v>
       </c>
       <c r="H171" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="172">
@@ -14550,7 +14550,7 @@
         <v>42</v>
       </c>
       <c r="H172" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="173">
@@ -14576,7 +14576,7 @@
         <v>42</v>
       </c>
       <c r="H173" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="174">
@@ -14602,7 +14602,7 @@
         <v>42</v>
       </c>
       <c r="H174" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="175">
@@ -14628,7 +14628,7 @@
         <v>42</v>
       </c>
       <c r="H175" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="176">
@@ -14654,7 +14654,7 @@
         <v>42</v>
       </c>
       <c r="H176" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="177">
@@ -14680,7 +14680,7 @@
         <v>42</v>
       </c>
       <c r="H177" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="178">
@@ -14706,7 +14706,7 @@
         <v>42</v>
       </c>
       <c r="H178" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="179">
@@ -14732,7 +14732,7 @@
         <v>42</v>
       </c>
       <c r="H179" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="180">
@@ -14758,7 +14758,7 @@
         <v>42</v>
       </c>
       <c r="H180" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="181">
@@ -14784,7 +14784,7 @@
         <v>42</v>
       </c>
       <c r="H181" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="182">
@@ -14810,7 +14810,7 @@
         <v>42</v>
       </c>
       <c r="H182" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="183">
@@ -14836,7 +14836,7 @@
         <v>42</v>
       </c>
       <c r="H183" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="184">
@@ -14862,7 +14862,7 @@
         <v>42</v>
       </c>
       <c r="H184" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="185">
@@ -14888,7 +14888,7 @@
         <v>42</v>
       </c>
       <c r="H185" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="186">
@@ -14914,7 +14914,7 @@
         <v>42</v>
       </c>
       <c r="H186" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="187">
@@ -14940,7 +14940,7 @@
         <v>42</v>
       </c>
       <c r="H187" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="188">
@@ -14966,7 +14966,7 @@
         <v>42</v>
       </c>
       <c r="H188" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="189">
@@ -14992,7 +14992,7 @@
         <v>42</v>
       </c>
       <c r="H189" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="190">
@@ -15018,7 +15018,7 @@
         <v>42</v>
       </c>
       <c r="H190" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="191">
@@ -15044,7 +15044,7 @@
         <v>42</v>
       </c>
       <c r="H191" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="192">
@@ -15070,7 +15070,7 @@
         <v>42</v>
       </c>
       <c r="H192" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="193">
@@ -15096,7 +15096,7 @@
         <v>42</v>
       </c>
       <c r="H193" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="194">
@@ -15122,7 +15122,7 @@
         <v>42</v>
       </c>
       <c r="H194" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="195">
@@ -15148,7 +15148,7 @@
         <v>42</v>
       </c>
       <c r="H195" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="196">
@@ -15174,7 +15174,7 @@
         <v>42</v>
       </c>
       <c r="H196" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="197">
@@ -15200,7 +15200,7 @@
         <v>42</v>
       </c>
       <c r="H197" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="198">
@@ -15226,7 +15226,7 @@
         <v>42</v>
       </c>
       <c r="H198" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="199">
@@ -15252,7 +15252,7 @@
         <v>42</v>
       </c>
       <c r="H199" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="200">
@@ -15278,7 +15278,7 @@
         <v>42</v>
       </c>
       <c r="H200" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="201">
@@ -15304,7 +15304,7 @@
         <v>42</v>
       </c>
       <c r="H201" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="202">
@@ -15330,7 +15330,7 @@
         <v>42</v>
       </c>
       <c r="H202" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="203">
@@ -15356,7 +15356,7 @@
         <v>42</v>
       </c>
       <c r="H203" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="204">
@@ -15382,7 +15382,7 @@
         <v>42</v>
       </c>
       <c r="H204" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="205">
@@ -15408,7 +15408,7 @@
         <v>42</v>
       </c>
       <c r="H205" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="206">
@@ -15434,7 +15434,7 @@
         <v>42</v>
       </c>
       <c r="H206" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="207">
@@ -15460,7 +15460,7 @@
         <v>42</v>
       </c>
       <c r="H207" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="208">
@@ -15486,7 +15486,7 @@
         <v>42</v>
       </c>
       <c r="H208" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="209">
@@ -15512,7 +15512,7 @@
         <v>42</v>
       </c>
       <c r="H209" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="210">
@@ -15538,7 +15538,7 @@
         <v>42</v>
       </c>
       <c r="H210" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="211">
@@ -15564,7 +15564,7 @@
         <v>42</v>
       </c>
       <c r="H211" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="212">
@@ -15590,7 +15590,7 @@
         <v>42</v>
       </c>
       <c r="H212" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="213">
@@ -15616,7 +15616,7 @@
         <v>42</v>
       </c>
       <c r="H213" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="214">
@@ -15642,7 +15642,7 @@
         <v>42</v>
       </c>
       <c r="H214" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="215">
@@ -15668,7 +15668,7 @@
         <v>42</v>
       </c>
       <c r="H215" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="216">
@@ -15694,7 +15694,7 @@
         <v>42</v>
       </c>
       <c r="H216" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="217">
@@ -15720,7 +15720,7 @@
         <v>42</v>
       </c>
       <c r="H217" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="218">
@@ -15746,7 +15746,7 @@
         <v>42</v>
       </c>
       <c r="H218" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="219">
@@ -15772,7 +15772,7 @@
         <v>42</v>
       </c>
       <c r="H219" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="220">
@@ -15798,7 +15798,7 @@
         <v>42</v>
       </c>
       <c r="H220" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="221">
@@ -15824,7 +15824,7 @@
         <v>42</v>
       </c>
       <c r="H221" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="222">
@@ -15850,7 +15850,7 @@
         <v>42</v>
       </c>
       <c r="H222" t="s">
-        <v>42</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="223">
@@ -15876,7 +15876,7 @@
         <v>42</v>
       </c>
       <c r="H223" t="s">
-        <v>42</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="224">
@@ -15902,7 +15902,7 @@
         <v>42</v>
       </c>
       <c r="H224" t="s">
-        <v>42</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="225">
@@ -15928,7 +15928,7 @@
         <v>42</v>
       </c>
       <c r="H225" t="s">
-        <v>42</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="226">
@@ -15954,7 +15954,7 @@
         <v>42</v>
       </c>
       <c r="H226" t="s">
-        <v>42</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="227">
@@ -31580,7 +31580,7 @@
         <v>2669</v>
       </c>
       <c r="H827" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="828">
@@ -31606,7 +31606,7 @@
         <v>2669</v>
       </c>
       <c r="H828" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="829">
@@ -31632,7 +31632,7 @@
         <v>2669</v>
       </c>
       <c r="H829" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="830">
@@ -31658,7 +31658,7 @@
         <v>2669</v>
       </c>
       <c r="H830" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="831">
@@ -31684,7 +31684,7 @@
         <v>2664</v>
       </c>
       <c r="H831" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="832">
@@ -31710,7 +31710,7 @@
         <v>2664</v>
       </c>
       <c r="H832" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="833">
@@ -31736,7 +31736,7 @@
         <v>2669</v>
       </c>
       <c r="H833" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="834">
@@ -31762,7 +31762,7 @@
         <v>2664</v>
       </c>
       <c r="H834" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="835">
@@ -31788,7 +31788,7 @@
         <v>2664</v>
       </c>
       <c r="H835" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="836">
@@ -31814,7 +31814,7 @@
         <v>2664</v>
       </c>
       <c r="H836" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="837">
@@ -31840,7 +31840,7 @@
         <v>2664</v>
       </c>
       <c r="H837" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="838">
@@ -31866,7 +31866,7 @@
         <v>2664</v>
       </c>
       <c r="H838" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="839">
@@ -31892,7 +31892,7 @@
         <v>2664</v>
       </c>
       <c r="H839" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="840">
@@ -31918,7 +31918,7 @@
         <v>2664</v>
       </c>
       <c r="H840" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="841">
@@ -31944,7 +31944,7 @@
         <v>2664</v>
       </c>
       <c r="H841" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="842">
@@ -31970,7 +31970,7 @@
         <v>2664</v>
       </c>
       <c r="H842" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="843">
@@ -31996,7 +31996,7 @@
         <v>2664</v>
       </c>
       <c r="H843" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="844">
@@ -32022,7 +32022,7 @@
         <v>2664</v>
       </c>
       <c r="H844" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="845">
@@ -32048,7 +32048,7 @@
         <v>2669</v>
       </c>
       <c r="H845" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="846">
@@ -32074,7 +32074,7 @@
         <v>42</v>
       </c>
       <c r="H846" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="847">
@@ -32100,7 +32100,7 @@
         <v>2669</v>
       </c>
       <c r="H847" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="848">
@@ -49962,7 +49962,7 @@
         <v>2682</v>
       </c>
       <c r="H1534" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1535">
@@ -49988,7 +49988,7 @@
         <v>2683</v>
       </c>
       <c r="H1535" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1536">
@@ -50014,7 +50014,7 @@
         <v>2684</v>
       </c>
       <c r="H1536" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1537">
@@ -50040,7 +50040,7 @@
         <v>2684</v>
       </c>
       <c r="H1537" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1538">
@@ -50066,7 +50066,7 @@
         <v>2685</v>
       </c>
       <c r="H1538" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1539">
@@ -50092,7 +50092,7 @@
         <v>2684</v>
       </c>
       <c r="H1539" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1540">
@@ -50118,7 +50118,7 @@
         <v>2685</v>
       </c>
       <c r="H1540" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1541">
@@ -50144,7 +50144,7 @@
         <v>2685</v>
       </c>
       <c r="H1541" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1542">
@@ -50170,7 +50170,7 @@
         <v>2685</v>
       </c>
       <c r="H1542" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1543">
@@ -50196,7 +50196,7 @@
         <v>2686</v>
       </c>
       <c r="H1543" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1544">
@@ -50222,7 +50222,7 @@
         <v>2687</v>
       </c>
       <c r="H1544" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1545">
@@ -50248,7 +50248,7 @@
         <v>2685</v>
       </c>
       <c r="H1545" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1546">
@@ -50274,7 +50274,7 @@
         <v>2685</v>
       </c>
       <c r="H1546" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1547">
@@ -50300,7 +50300,7 @@
         <v>2684</v>
       </c>
       <c r="H1547" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1548">
@@ -50326,7 +50326,7 @@
         <v>2684</v>
       </c>
       <c r="H1548" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1549">
@@ -50352,7 +50352,7 @@
         <v>2685</v>
       </c>
       <c r="H1549" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1550">
@@ -50378,7 +50378,7 @@
         <v>2685</v>
       </c>
       <c r="H1550" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1551">
@@ -50404,7 +50404,7 @@
         <v>2684</v>
       </c>
       <c r="H1551" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1552">
@@ -50430,7 +50430,7 @@
         <v>2685</v>
       </c>
       <c r="H1552" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1553">
@@ -50456,7 +50456,7 @@
         <v>2685</v>
       </c>
       <c r="H1553" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1554">
@@ -50482,7 +50482,7 @@
         <v>2688</v>
       </c>
       <c r="H1554" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1555">
@@ -50508,7 +50508,7 @@
         <v>2689</v>
       </c>
       <c r="H1555" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1556">
@@ -50534,7 +50534,7 @@
         <v>2684</v>
       </c>
       <c r="H1556" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1557">
@@ -50560,7 +50560,7 @@
         <v>2685</v>
       </c>
       <c r="H1557" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1558">
@@ -50586,7 +50586,7 @@
         <v>2690</v>
       </c>
       <c r="H1558" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1559">
@@ -50612,7 +50612,7 @@
         <v>2690</v>
       </c>
       <c r="H1559" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1560">
@@ -50638,7 +50638,7 @@
         <v>2690</v>
       </c>
       <c r="H1560" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1561">
@@ -50664,7 +50664,7 @@
         <v>2690</v>
       </c>
       <c r="H1561" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1562">
@@ -50690,7 +50690,7 @@
         <v>2690</v>
       </c>
       <c r="H1562" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1563">
@@ -50716,7 +50716,7 @@
         <v>2690</v>
       </c>
       <c r="H1563" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1564">
@@ -50742,7 +50742,7 @@
         <v>2690</v>
       </c>
       <c r="H1564" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1565">
@@ -50768,7 +50768,7 @@
         <v>2691</v>
       </c>
       <c r="H1565" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1566">
@@ -50794,7 +50794,7 @@
         <v>2691</v>
       </c>
       <c r="H1566" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1567">
@@ -50820,7 +50820,7 @@
         <v>2691</v>
       </c>
       <c r="H1567" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1568">
@@ -50846,7 +50846,7 @@
         <v>2691</v>
       </c>
       <c r="H1568" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1569">
@@ -50872,7 +50872,7 @@
         <v>2691</v>
       </c>
       <c r="H1569" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1570">
@@ -50898,7 +50898,7 @@
         <v>2685</v>
       </c>
       <c r="H1570" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1571">
@@ -50924,7 +50924,7 @@
         <v>2685</v>
       </c>
       <c r="H1571" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1572">
@@ -50950,7 +50950,7 @@
         <v>2685</v>
       </c>
       <c r="H1572" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1573">
@@ -50976,7 +50976,7 @@
         <v>2685</v>
       </c>
       <c r="H1573" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1574">
@@ -51002,7 +51002,7 @@
         <v>2690</v>
       </c>
       <c r="H1574" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1575">
@@ -51028,7 +51028,7 @@
         <v>42</v>
       </c>
       <c r="H1575" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1576">
@@ -51054,7 +51054,7 @@
         <v>42</v>
       </c>
       <c r="H1576" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1577">
@@ -51080,7 +51080,7 @@
         <v>42</v>
       </c>
       <c r="H1577" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1578">
@@ -51106,7 +51106,7 @@
         <v>42</v>
       </c>
       <c r="H1578" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1579">
@@ -51132,7 +51132,7 @@
         <v>42</v>
       </c>
       <c r="H1579" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1580">
@@ -51158,7 +51158,7 @@
         <v>42</v>
       </c>
       <c r="H1580" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1581">
@@ -51184,7 +51184,7 @@
         <v>42</v>
       </c>
       <c r="H1581" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1582">
@@ -51210,7 +51210,7 @@
         <v>42</v>
       </c>
       <c r="H1582" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1583">
@@ -51236,7 +51236,7 @@
         <v>42</v>
       </c>
       <c r="H1583" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1584">
@@ -51262,7 +51262,7 @@
         <v>42</v>
       </c>
       <c r="H1584" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1585">
@@ -51288,7 +51288,7 @@
         <v>42</v>
       </c>
       <c r="H1585" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1586">
@@ -51314,7 +51314,7 @@
         <v>42</v>
       </c>
       <c r="H1586" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1587">
@@ -51340,7 +51340,7 @@
         <v>42</v>
       </c>
       <c r="H1587" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1588">
@@ -51366,7 +51366,7 @@
         <v>42</v>
       </c>
       <c r="H1588" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1589">
@@ -51392,7 +51392,7 @@
         <v>42</v>
       </c>
       <c r="H1589" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1590">
@@ -51418,7 +51418,7 @@
         <v>42</v>
       </c>
       <c r="H1590" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1591">
@@ -51444,7 +51444,7 @@
         <v>42</v>
       </c>
       <c r="H1591" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1592">
@@ -51470,7 +51470,7 @@
         <v>42</v>
       </c>
       <c r="H1592" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1593">
@@ -51496,7 +51496,7 @@
         <v>42</v>
       </c>
       <c r="H1593" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1594">
@@ -51522,7 +51522,7 @@
         <v>42</v>
       </c>
       <c r="H1594" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1595">
@@ -51548,7 +51548,7 @@
         <v>42</v>
       </c>
       <c r="H1595" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1596">
@@ -51574,7 +51574,7 @@
         <v>42</v>
       </c>
       <c r="H1596" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1597">
@@ -51600,7 +51600,7 @@
         <v>42</v>
       </c>
       <c r="H1597" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1598">
@@ -51626,7 +51626,7 @@
         <v>42</v>
       </c>
       <c r="H1598" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1599">
@@ -51652,7 +51652,7 @@
         <v>42</v>
       </c>
       <c r="H1599" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1600">
@@ -51678,7 +51678,7 @@
         <v>42</v>
       </c>
       <c r="H1600" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1601">
@@ -51704,7 +51704,7 @@
         <v>42</v>
       </c>
       <c r="H1601" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1602">
@@ -51730,7 +51730,7 @@
         <v>42</v>
       </c>
       <c r="H1602" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1603">
@@ -51756,7 +51756,7 @@
         <v>42</v>
       </c>
       <c r="H1603" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1604">
@@ -51782,7 +51782,7 @@
         <v>42</v>
       </c>
       <c r="H1604" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1605">
@@ -51808,7 +51808,7 @@
         <v>42</v>
       </c>
       <c r="H1605" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1606">
@@ -51834,7 +51834,7 @@
         <v>42</v>
       </c>
       <c r="H1606" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1607">
@@ -51860,7 +51860,7 @@
         <v>42</v>
       </c>
       <c r="H1607" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1608">
@@ -51886,7 +51886,7 @@
         <v>42</v>
       </c>
       <c r="H1608" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1609">
@@ -51912,7 +51912,7 @@
         <v>42</v>
       </c>
       <c r="H1609" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1610">
@@ -51938,7 +51938,7 @@
         <v>42</v>
       </c>
       <c r="H1610" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1611">
@@ -51964,7 +51964,7 @@
         <v>42</v>
       </c>
       <c r="H1611" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1612">
@@ -51990,7 +51990,7 @@
         <v>42</v>
       </c>
       <c r="H1612" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1613">
@@ -52016,7 +52016,7 @@
         <v>42</v>
       </c>
       <c r="H1613" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1614">
@@ -52042,7 +52042,7 @@
         <v>42</v>
       </c>
       <c r="H1614" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1615">
@@ -52068,7 +52068,7 @@
         <v>42</v>
       </c>
       <c r="H1615" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1616">
@@ -52094,7 +52094,7 @@
         <v>42</v>
       </c>
       <c r="H1616" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1617">
@@ -52120,7 +52120,7 @@
         <v>42</v>
       </c>
       <c r="H1617" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1618">
@@ -52146,7 +52146,7 @@
         <v>42</v>
       </c>
       <c r="H1618" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1619">
@@ -52172,7 +52172,7 @@
         <v>42</v>
       </c>
       <c r="H1619" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1620">
@@ -52198,7 +52198,7 @@
         <v>42</v>
       </c>
       <c r="H1620" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1621">
@@ -52224,7 +52224,7 @@
         <v>42</v>
       </c>
       <c r="H1621" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1622">
@@ -52250,7 +52250,7 @@
         <v>42</v>
       </c>
       <c r="H1622" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1623">
@@ -52276,7 +52276,7 @@
         <v>42</v>
       </c>
       <c r="H1623" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1624">
@@ -52302,7 +52302,7 @@
         <v>42</v>
       </c>
       <c r="H1624" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1625">
@@ -52328,7 +52328,7 @@
         <v>42</v>
       </c>
       <c r="H1625" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1626">
@@ -52354,7 +52354,7 @@
         <v>42</v>
       </c>
       <c r="H1626" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1627">
@@ -52380,7 +52380,7 @@
         <v>42</v>
       </c>
       <c r="H1627" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1628">
@@ -52406,7 +52406,7 @@
         <v>42</v>
       </c>
       <c r="H1628" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1629">
@@ -52432,7 +52432,7 @@
         <v>42</v>
       </c>
       <c r="H1629" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1630">
@@ -52458,7 +52458,7 @@
         <v>42</v>
       </c>
       <c r="H1630" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1631">
@@ -52484,7 +52484,7 @@
         <v>42</v>
       </c>
       <c r="H1631" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1632">
@@ -52510,7 +52510,7 @@
         <v>42</v>
       </c>
       <c r="H1632" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1633">
@@ -52536,7 +52536,7 @@
         <v>42</v>
       </c>
       <c r="H1633" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1634">
@@ -52562,7 +52562,7 @@
         <v>42</v>
       </c>
       <c r="H1634" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1635">
@@ -52588,7 +52588,7 @@
         <v>42</v>
       </c>
       <c r="H1635" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1636">
@@ -52614,7 +52614,7 @@
         <v>2692</v>
       </c>
       <c r="H1636" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1637">
@@ -52640,7 +52640,7 @@
         <v>2693</v>
       </c>
       <c r="H1637" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1638">
@@ -52666,7 +52666,7 @@
         <v>2693</v>
       </c>
       <c r="H1638" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1639">
@@ -52692,7 +52692,7 @@
         <v>2694</v>
       </c>
       <c r="H1639" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1640">
@@ -52718,7 +52718,7 @@
         <v>2695</v>
       </c>
       <c r="H1640" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1641">
@@ -52744,7 +52744,7 @@
         <v>2696</v>
       </c>
       <c r="H1641" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1642">
@@ -52770,7 +52770,7 @@
         <v>2697</v>
       </c>
       <c r="H1642" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1643">
@@ -52796,7 +52796,7 @@
         <v>2697</v>
       </c>
       <c r="H1643" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1644">
@@ -52822,7 +52822,7 @@
         <v>2697</v>
       </c>
       <c r="H1644" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1645">
@@ -52848,7 +52848,7 @@
         <v>2698</v>
       </c>
       <c r="H1645" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1646">
@@ -52874,7 +52874,7 @@
         <v>2699</v>
       </c>
       <c r="H1646" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1647">
@@ -52900,7 +52900,7 @@
         <v>2700</v>
       </c>
       <c r="H1647" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1648">
@@ -52926,7 +52926,7 @@
         <v>2701</v>
       </c>
       <c r="H1648" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1649">
@@ -52952,7 +52952,7 @@
         <v>2702</v>
       </c>
       <c r="H1649" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1650">
@@ -52978,7 +52978,7 @@
         <v>2703</v>
       </c>
       <c r="H1650" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1651">
@@ -53004,7 +53004,7 @@
         <v>2704</v>
       </c>
       <c r="H1651" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1652">
@@ -53030,7 +53030,7 @@
         <v>2704</v>
       </c>
       <c r="H1652" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1653">
@@ -53056,7 +53056,7 @@
         <v>2704</v>
       </c>
       <c r="H1653" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1654">
@@ -53082,7 +53082,7 @@
         <v>2705</v>
       </c>
       <c r="H1654" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1655">
@@ -53108,7 +53108,7 @@
         <v>2706</v>
       </c>
       <c r="H1655" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1656">
@@ -53134,7 +53134,7 @@
         <v>2707</v>
       </c>
       <c r="H1656" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1657">
@@ -53160,7 +53160,7 @@
         <v>2708</v>
       </c>
       <c r="H1657" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1658">
@@ -53186,7 +53186,7 @@
         <v>2709</v>
       </c>
       <c r="H1658" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1659">
@@ -53212,7 +53212,7 @@
         <v>2710</v>
       </c>
       <c r="H1659" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1660">
@@ -53238,7 +53238,7 @@
         <v>2711</v>
       </c>
       <c r="H1660" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1661">
@@ -53264,7 +53264,7 @@
         <v>2712</v>
       </c>
       <c r="H1661" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1662">
@@ -53290,7 +53290,7 @@
         <v>2713</v>
       </c>
       <c r="H1662" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1663">
@@ -53316,7 +53316,7 @@
         <v>2712</v>
       </c>
       <c r="H1663" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1664">
@@ -53342,7 +53342,7 @@
         <v>2714</v>
       </c>
       <c r="H1664" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1665">
@@ -53368,7 +53368,7 @@
         <v>2715</v>
       </c>
       <c r="H1665" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1666">
@@ -53394,7 +53394,7 @@
         <v>2715</v>
       </c>
       <c r="H1666" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1667">
@@ -53420,7 +53420,7 @@
         <v>2715</v>
       </c>
       <c r="H1667" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1668">
@@ -53446,7 +53446,7 @@
         <v>2715</v>
       </c>
       <c r="H1668" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1669">
@@ -53472,7 +53472,7 @@
         <v>2716</v>
       </c>
       <c r="H1669" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1670">
@@ -53498,7 +53498,7 @@
         <v>2717</v>
       </c>
       <c r="H1670" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1671">
@@ -53524,7 +53524,7 @@
         <v>2715</v>
       </c>
       <c r="H1671" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1672">
@@ -53550,7 +53550,7 @@
         <v>2715</v>
       </c>
       <c r="H1672" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1673">
@@ -53576,7 +53576,7 @@
         <v>2715</v>
       </c>
       <c r="H1673" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1674">
@@ -53602,7 +53602,7 @@
         <v>2715</v>
       </c>
       <c r="H1674" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1675">
@@ -53628,7 +53628,7 @@
         <v>2700</v>
       </c>
       <c r="H1675" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1676">
@@ -53654,7 +53654,7 @@
         <v>2708</v>
       </c>
       <c r="H1676" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1677">
@@ -53810,7 +53810,7 @@
         <v>2720</v>
       </c>
       <c r="H1682" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1683">
@@ -53836,7 +53836,7 @@
         <v>2719</v>
       </c>
       <c r="H1683" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1684">
@@ -53862,7 +53862,7 @@
         <v>2721</v>
       </c>
       <c r="H1684" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1685">
@@ -53888,7 +53888,7 @@
         <v>2719</v>
       </c>
       <c r="H1685" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1686">
@@ -53914,7 +53914,7 @@
         <v>2721</v>
       </c>
       <c r="H1686" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1687">
@@ -53940,7 +53940,7 @@
         <v>2720</v>
       </c>
       <c r="H1687" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1688">
@@ -53966,7 +53966,7 @@
         <v>2722</v>
       </c>
       <c r="H1688" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1689">
@@ -53992,7 +53992,7 @@
         <v>2722</v>
       </c>
       <c r="H1689" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1690">
@@ -54018,7 +54018,7 @@
         <v>2723</v>
       </c>
       <c r="H1690" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1691">
@@ -54044,7 +54044,7 @@
         <v>2724</v>
       </c>
       <c r="H1691" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1692">
@@ -54070,7 +54070,7 @@
         <v>2724</v>
       </c>
       <c r="H1692" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1693">
@@ -54096,7 +54096,7 @@
         <v>2725</v>
       </c>
       <c r="H1693" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1694">
@@ -54122,7 +54122,7 @@
         <v>2725</v>
       </c>
       <c r="H1694" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1695">
@@ -54148,7 +54148,7 @@
         <v>2725</v>
       </c>
       <c r="H1695" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1696">
@@ -54174,7 +54174,7 @@
         <v>2724</v>
       </c>
       <c r="H1696" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1697">
@@ -54200,7 +54200,7 @@
         <v>2723</v>
       </c>
       <c r="H1697" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1698">
@@ -54226,7 +54226,7 @@
         <v>2723</v>
       </c>
       <c r="H1698" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1699">
@@ -54252,7 +54252,7 @@
         <v>2723</v>
       </c>
       <c r="H1699" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1700">
@@ -54278,7 +54278,7 @@
         <v>2725</v>
       </c>
       <c r="H1700" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1701">
@@ -54304,7 +54304,7 @@
         <v>2723</v>
       </c>
       <c r="H1701" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1702">
@@ -54330,7 +54330,7 @@
         <v>2723</v>
       </c>
       <c r="H1702" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1703">
@@ -54356,7 +54356,7 @@
         <v>2725</v>
       </c>
       <c r="H1703" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1704">
@@ -54382,7 +54382,7 @@
         <v>2726</v>
       </c>
       <c r="H1704" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1705">
@@ -54408,7 +54408,7 @@
         <v>2720</v>
       </c>
       <c r="H1705" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1706">
@@ -54434,7 +54434,7 @@
         <v>2719</v>
       </c>
       <c r="H1706" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1707">
@@ -54460,7 +54460,7 @@
         <v>2721</v>
       </c>
       <c r="H1707" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1708">
@@ -54486,7 +54486,7 @@
         <v>2719</v>
       </c>
       <c r="H1708" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1709">
@@ -54512,7 +54512,7 @@
         <v>2721</v>
       </c>
       <c r="H1709" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1710">
@@ -54538,7 +54538,7 @@
         <v>2720</v>
       </c>
       <c r="H1710" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1711">
@@ -54564,7 +54564,7 @@
         <v>2727</v>
       </c>
       <c r="H1711" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1712">
@@ -54590,7 +54590,7 @@
         <v>2728</v>
       </c>
       <c r="H1712" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1713">
@@ -54616,7 +54616,7 @@
         <v>2727</v>
       </c>
       <c r="H1713" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1714">
@@ -54642,7 +54642,7 @@
         <v>2729</v>
       </c>
       <c r="H1714" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1715">
@@ -54668,7 +54668,7 @@
         <v>2729</v>
       </c>
       <c r="H1715" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1716">
@@ -54694,7 +54694,7 @@
         <v>2720</v>
       </c>
       <c r="H1716" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1717">
@@ -54720,7 +54720,7 @@
         <v>2720</v>
       </c>
       <c r="H1717" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1718">
@@ -54746,7 +54746,7 @@
         <v>2719</v>
       </c>
       <c r="H1718" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1719">
@@ -54772,7 +54772,7 @@
         <v>2721</v>
       </c>
       <c r="H1719" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1720">
@@ -54798,7 +54798,7 @@
         <v>2719</v>
       </c>
       <c r="H1720" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1721">
@@ -54824,7 +54824,7 @@
         <v>2721</v>
       </c>
       <c r="H1721" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1722">
@@ -54850,7 +54850,7 @@
         <v>2719</v>
       </c>
       <c r="H1722" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1723">
@@ -54876,7 +54876,7 @@
         <v>2721</v>
       </c>
       <c r="H1723" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1724">
@@ -54902,7 +54902,7 @@
         <v>2720</v>
       </c>
       <c r="H1724" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1725">
@@ -54928,7 +54928,7 @@
         <v>2689</v>
       </c>
       <c r="H1725" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1726">
@@ -54954,7 +54954,7 @@
         <v>2689</v>
       </c>
       <c r="H1726" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1727">
@@ -54980,7 +54980,7 @@
         <v>2723</v>
       </c>
       <c r="H1727" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1728">
@@ -55006,7 +55006,7 @@
         <v>2730</v>
       </c>
       <c r="H1728" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1729">
@@ -55032,7 +55032,7 @@
         <v>2720</v>
       </c>
       <c r="H1729" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1730">
@@ -55058,7 +55058,7 @@
         <v>2719</v>
       </c>
       <c r="H1730" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1731">
@@ -55084,7 +55084,7 @@
         <v>2721</v>
       </c>
       <c r="H1731" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1732">
@@ -55110,7 +55110,7 @@
         <v>2719</v>
       </c>
       <c r="H1732" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1733">
@@ -55136,7 +55136,7 @@
         <v>2721</v>
       </c>
       <c r="H1733" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1734">
@@ -55162,7 +55162,7 @@
         <v>2720</v>
       </c>
       <c r="H1734" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1735">
@@ -55188,7 +55188,7 @@
         <v>2720</v>
       </c>
       <c r="H1735" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1736">
@@ -55214,7 +55214,7 @@
         <v>2720</v>
       </c>
       <c r="H1736" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1737">
@@ -55240,7 +55240,7 @@
         <v>2725</v>
       </c>
       <c r="H1737" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1738">
@@ -55266,7 +55266,7 @@
         <v>2725</v>
       </c>
       <c r="H1738" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1739">
@@ -55292,7 +55292,7 @@
         <v>2720</v>
       </c>
       <c r="H1739" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1740">
@@ -55318,7 +55318,7 @@
         <v>2719</v>
       </c>
       <c r="H1740" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1741">
@@ -55344,7 +55344,7 @@
         <v>2721</v>
       </c>
       <c r="H1741" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1742">
@@ -55370,7 +55370,7 @@
         <v>2719</v>
       </c>
       <c r="H1742" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1743">
@@ -55396,7 +55396,7 @@
         <v>2721</v>
       </c>
       <c r="H1743" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1744">
@@ -55422,7 +55422,7 @@
         <v>2720</v>
       </c>
       <c r="H1744" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1745">
@@ -55448,7 +55448,7 @@
         <v>2719</v>
       </c>
       <c r="H1745" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1746">
@@ -55474,7 +55474,7 @@
         <v>2720</v>
       </c>
       <c r="H1746" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1747">
@@ -55500,7 +55500,7 @@
         <v>2720</v>
       </c>
       <c r="H1747" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1748">
@@ -55526,7 +55526,7 @@
         <v>2720</v>
       </c>
       <c r="H1748" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1749">
@@ -55552,7 +55552,7 @@
         <v>2720</v>
       </c>
       <c r="H1749" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1750">
@@ -55578,7 +55578,7 @@
         <v>2720</v>
       </c>
       <c r="H1750" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1751">
@@ -55604,7 +55604,7 @@
         <v>2719</v>
       </c>
       <c r="H1751" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1752">
@@ -55630,7 +55630,7 @@
         <v>2721</v>
       </c>
       <c r="H1752" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1753">
@@ -55656,7 +55656,7 @@
         <v>2719</v>
       </c>
       <c r="H1753" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1754">
@@ -55682,7 +55682,7 @@
         <v>2721</v>
       </c>
       <c r="H1754" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1755">
@@ -55708,7 +55708,7 @@
         <v>2719</v>
       </c>
       <c r="H1755" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1756">
@@ -55734,7 +55734,7 @@
         <v>2721</v>
       </c>
       <c r="H1756" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1757">
@@ -55760,7 +55760,7 @@
         <v>2664</v>
       </c>
       <c r="H1757" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1758">
@@ -55786,7 +55786,7 @@
         <v>2689</v>
       </c>
       <c r="H1758" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1759">
@@ -55812,7 +55812,7 @@
         <v>2689</v>
       </c>
       <c r="H1759" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1760">
@@ -55838,7 +55838,7 @@
         <v>2731</v>
       </c>
       <c r="H1760" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1761">
@@ -55864,7 +55864,7 @@
         <v>2732</v>
       </c>
       <c r="H1761" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1762">
@@ -55890,7 +55890,7 @@
         <v>2723</v>
       </c>
       <c r="H1762" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1763">
@@ -55916,7 +55916,7 @@
         <v>2722</v>
       </c>
       <c r="H1763" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1764">
@@ -55942,7 +55942,7 @@
         <v>2733</v>
       </c>
       <c r="H1764" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1765">
@@ -55968,7 +55968,7 @@
         <v>2734</v>
       </c>
       <c r="H1765" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1766">
@@ -55994,7 +55994,7 @@
         <v>2725</v>
       </c>
       <c r="H1766" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1767">
@@ -56020,7 +56020,7 @@
         <v>2725</v>
       </c>
       <c r="H1767" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1768">
@@ -56046,7 +56046,7 @@
         <v>2719</v>
       </c>
       <c r="H1768" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1769">
@@ -56072,7 +56072,7 @@
         <v>2732</v>
       </c>
       <c r="H1769" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1770">
@@ -56098,7 +56098,7 @@
         <v>2735</v>
       </c>
       <c r="H1770" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1771">
@@ -56124,7 +56124,7 @@
         <v>2724</v>
       </c>
       <c r="H1771" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1772">
@@ -56150,7 +56150,7 @@
         <v>2724</v>
       </c>
       <c r="H1772" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1773">
@@ -56176,7 +56176,7 @@
         <v>2725</v>
       </c>
       <c r="H1773" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1774">
@@ -56202,7 +56202,7 @@
         <v>2720</v>
       </c>
       <c r="H1774" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1775">
@@ -56228,7 +56228,7 @@
         <v>2683</v>
       </c>
       <c r="H1775" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1776">
@@ -56254,7 +56254,7 @@
         <v>2683</v>
       </c>
       <c r="H1776" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1777">
@@ -56280,7 +56280,7 @@
         <v>2719</v>
       </c>
       <c r="H1777" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1778">
@@ -56306,7 +56306,7 @@
         <v>2732</v>
       </c>
       <c r="H1778" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1779">
@@ -56332,7 +56332,7 @@
         <v>2735</v>
       </c>
       <c r="H1779" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1780">
@@ -56358,7 +56358,7 @@
         <v>2729</v>
       </c>
       <c r="H1780" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1781">
@@ -56384,7 +56384,7 @@
         <v>2720</v>
       </c>
       <c r="H1781" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1782">
@@ -56410,7 +56410,7 @@
         <v>2719</v>
       </c>
       <c r="H1782" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1783">
@@ -56436,7 +56436,7 @@
         <v>2732</v>
       </c>
       <c r="H1783" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1784">
@@ -56462,7 +56462,7 @@
         <v>2735</v>
       </c>
       <c r="H1784" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1785">
@@ -56488,7 +56488,7 @@
         <v>2729</v>
       </c>
       <c r="H1785" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1786">
@@ -56514,7 +56514,7 @@
         <v>2729</v>
       </c>
       <c r="H1786" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1787">
@@ -56540,7 +56540,7 @@
         <v>2683</v>
       </c>
       <c r="H1787" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1788">
@@ -56566,7 +56566,7 @@
         <v>2729</v>
       </c>
       <c r="H1788" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1789">
@@ -56592,7 +56592,7 @@
         <v>2720</v>
       </c>
       <c r="H1789" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1790">
@@ -56618,7 +56618,7 @@
         <v>2664</v>
       </c>
       <c r="H1790" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1791">
@@ -56644,7 +56644,7 @@
         <v>2719</v>
       </c>
       <c r="H1791" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1792">
@@ -56670,7 +56670,7 @@
         <v>2721</v>
       </c>
       <c r="H1792" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1793">
@@ -56696,7 +56696,7 @@
         <v>2719</v>
       </c>
       <c r="H1793" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1794">
@@ -56722,7 +56722,7 @@
         <v>2721</v>
       </c>
       <c r="H1794" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1795">
@@ -56748,7 +56748,7 @@
         <v>2683</v>
       </c>
       <c r="H1795" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1796">
@@ -56774,7 +56774,7 @@
         <v>2719</v>
       </c>
       <c r="H1796" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1797">
@@ -56800,7 +56800,7 @@
         <v>2723</v>
       </c>
       <c r="H1797" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1798">
@@ -56826,7 +56826,7 @@
         <v>2726</v>
       </c>
       <c r="H1798" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1799">
@@ -56852,7 +56852,7 @@
         <v>2723</v>
       </c>
       <c r="H1799" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1800">
@@ -56878,7 +56878,7 @@
         <v>2720</v>
       </c>
       <c r="H1800" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1801">
@@ -56904,7 +56904,7 @@
         <v>2719</v>
       </c>
       <c r="H1801" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1802">
@@ -56930,7 +56930,7 @@
         <v>2723</v>
       </c>
       <c r="H1802" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1803">
@@ -56956,7 +56956,7 @@
         <v>2720</v>
       </c>
       <c r="H1803" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1804">
@@ -56982,7 +56982,7 @@
         <v>2719</v>
       </c>
       <c r="H1804" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1805">
@@ -57008,7 +57008,7 @@
         <v>2720</v>
       </c>
       <c r="H1805" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1806">
@@ -57034,7 +57034,7 @@
         <v>2723</v>
       </c>
       <c r="H1806" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1807">
@@ -57060,7 +57060,7 @@
         <v>2719</v>
       </c>
       <c r="H1807" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1808">
@@ -57086,7 +57086,7 @@
         <v>2720</v>
       </c>
       <c r="H1808" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1809">
@@ -57112,7 +57112,7 @@
         <v>2723</v>
       </c>
       <c r="H1809" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1810">
@@ -57138,7 +57138,7 @@
         <v>2725</v>
       </c>
       <c r="H1810" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1811">
@@ -57164,7 +57164,7 @@
         <v>2719</v>
       </c>
       <c r="H1811" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1812">
@@ -57190,7 +57190,7 @@
         <v>2719</v>
       </c>
       <c r="H1812" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1813">
@@ -57216,7 +57216,7 @@
         <v>2725</v>
       </c>
       <c r="H1813" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1814">
@@ -57242,7 +57242,7 @@
         <v>2727</v>
       </c>
       <c r="H1814" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1815">
@@ -57268,7 +57268,7 @@
         <v>2725</v>
       </c>
       <c r="H1815" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1816">
@@ -57294,7 +57294,7 @@
         <v>2725</v>
       </c>
       <c r="H1816" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1817">
@@ -57320,7 +57320,7 @@
         <v>2725</v>
       </c>
       <c r="H1817" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1818">
@@ -57346,7 +57346,7 @@
         <v>2725</v>
       </c>
       <c r="H1818" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1819">
@@ -57372,7 +57372,7 @@
         <v>2725</v>
       </c>
       <c r="H1819" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1820">
@@ -57398,7 +57398,7 @@
         <v>2720</v>
       </c>
       <c r="H1820" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1821">
@@ -57424,7 +57424,7 @@
         <v>2720</v>
       </c>
       <c r="H1821" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1822">
@@ -57450,7 +57450,7 @@
         <v>2669</v>
       </c>
       <c r="H1822" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1823">
@@ -57476,7 +57476,7 @@
         <v>2669</v>
       </c>
       <c r="H1823" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1824">
@@ -57502,7 +57502,7 @@
         <v>2669</v>
       </c>
       <c r="H1824" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1825">
@@ -57528,7 +57528,7 @@
         <v>2669</v>
       </c>
       <c r="H1825" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1826">
@@ -57554,7 +57554,7 @@
         <v>2720</v>
       </c>
       <c r="H1826" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1827">
@@ -57580,7 +57580,7 @@
         <v>2720</v>
       </c>
       <c r="H1827" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1828">
@@ -57606,7 +57606,7 @@
         <v>2723</v>
       </c>
       <c r="H1828" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1829">
@@ -57632,7 +57632,7 @@
         <v>2726</v>
       </c>
       <c r="H1829" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1830">
@@ -57658,7 +57658,7 @@
         <v>2720</v>
       </c>
       <c r="H1830" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1831">
@@ -57684,7 +57684,7 @@
         <v>2683</v>
       </c>
       <c r="H1831" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1832">
@@ -57710,7 +57710,7 @@
         <v>2683</v>
       </c>
       <c r="H1832" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1833">
@@ -57736,7 +57736,7 @@
         <v>2683</v>
       </c>
       <c r="H1833" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1834">
@@ -57762,7 +57762,7 @@
         <v>2720</v>
       </c>
       <c r="H1834" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1835">
@@ -57788,7 +57788,7 @@
         <v>2723</v>
       </c>
       <c r="H1835" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1836">
@@ -57814,7 +57814,7 @@
         <v>2719</v>
       </c>
       <c r="H1836" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1837">
@@ -57840,7 +57840,7 @@
         <v>2725</v>
       </c>
       <c r="H1837" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1838">
@@ -57866,7 +57866,7 @@
         <v>2725</v>
       </c>
       <c r="H1838" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1839">
@@ -57892,7 +57892,7 @@
         <v>2725</v>
       </c>
       <c r="H1839" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1840">
@@ -57918,7 +57918,7 @@
         <v>2725</v>
       </c>
       <c r="H1840" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1841">
@@ -57944,7 +57944,7 @@
         <v>2725</v>
       </c>
       <c r="H1841" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1842">
@@ -57970,7 +57970,7 @@
         <v>2725</v>
       </c>
       <c r="H1842" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1843">
@@ -57996,7 +57996,7 @@
         <v>2723</v>
       </c>
       <c r="H1843" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1844">
@@ -58022,7 +58022,7 @@
         <v>2719</v>
       </c>
       <c r="H1844" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1845">
@@ -59634,7 +59634,7 @@
         <v>42</v>
       </c>
       <c r="H1906" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1907">
@@ -59660,7 +59660,7 @@
         <v>42</v>
       </c>
       <c r="H1907" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1908">
@@ -59686,7 +59686,7 @@
         <v>42</v>
       </c>
       <c r="H1908" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1909">
@@ -59712,7 +59712,7 @@
         <v>42</v>
       </c>
       <c r="H1909" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1910">
@@ -59738,7 +59738,7 @@
         <v>42</v>
       </c>
       <c r="H1910" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1911">
@@ -59764,7 +59764,7 @@
         <v>42</v>
       </c>
       <c r="H1911" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1912">
@@ -59790,7 +59790,7 @@
         <v>42</v>
       </c>
       <c r="H1912" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1913">
@@ -59816,7 +59816,7 @@
         <v>42</v>
       </c>
       <c r="H1913" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1914">
@@ -59842,7 +59842,7 @@
         <v>42</v>
       </c>
       <c r="H1914" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1915">
@@ -59868,7 +59868,7 @@
         <v>42</v>
       </c>
       <c r="H1915" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1916">
@@ -59894,7 +59894,7 @@
         <v>42</v>
       </c>
       <c r="H1916" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1917">
@@ -59920,7 +59920,7 @@
         <v>42</v>
       </c>
       <c r="H1917" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1918">
@@ -59946,7 +59946,7 @@
         <v>42</v>
       </c>
       <c r="H1918" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1919">
@@ -59972,7 +59972,7 @@
         <v>42</v>
       </c>
       <c r="H1919" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1920">
@@ -59998,7 +59998,7 @@
         <v>42</v>
       </c>
       <c r="H1920" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1921">
@@ -60024,7 +60024,7 @@
         <v>42</v>
       </c>
       <c r="H1921" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1922">
@@ -60050,7 +60050,7 @@
         <v>42</v>
       </c>
       <c r="H1922" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1923">
@@ -60076,7 +60076,7 @@
         <v>42</v>
       </c>
       <c r="H1923" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1924">
@@ -60102,7 +60102,7 @@
         <v>42</v>
       </c>
       <c r="H1924" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1925">
@@ -60128,7 +60128,7 @@
         <v>42</v>
       </c>
       <c r="H1925" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1926">
@@ -60154,7 +60154,7 @@
         <v>42</v>
       </c>
       <c r="H1926" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1927">
@@ -60180,7 +60180,7 @@
         <v>42</v>
       </c>
       <c r="H1927" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1928">
@@ -60206,7 +60206,7 @@
         <v>42</v>
       </c>
       <c r="H1928" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1929">
@@ -60232,7 +60232,7 @@
         <v>42</v>
       </c>
       <c r="H1929" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1930">
@@ -60258,7 +60258,7 @@
         <v>42</v>
       </c>
       <c r="H1930" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1931">
@@ -60284,7 +60284,7 @@
         <v>42</v>
       </c>
       <c r="H1931" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1932">
@@ -60310,7 +60310,7 @@
         <v>42</v>
       </c>
       <c r="H1932" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1933">
@@ -60336,7 +60336,7 @@
         <v>42</v>
       </c>
       <c r="H1933" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1934">
@@ -60362,7 +60362,7 @@
         <v>42</v>
       </c>
       <c r="H1934" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1935">
@@ -60388,7 +60388,7 @@
         <v>42</v>
       </c>
       <c r="H1935" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1936">
@@ -60414,7 +60414,7 @@
         <v>42</v>
       </c>
       <c r="H1936" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1937">
@@ -60440,7 +60440,7 @@
         <v>42</v>
       </c>
       <c r="H1937" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1938">
@@ -60466,7 +60466,7 @@
         <v>42</v>
       </c>
       <c r="H1938" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1939">
@@ -60492,7 +60492,7 @@
         <v>42</v>
       </c>
       <c r="H1939" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1940">
@@ -60518,7 +60518,7 @@
         <v>42</v>
       </c>
       <c r="H1940" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1941">
@@ -60544,7 +60544,7 @@
         <v>42</v>
       </c>
       <c r="H1941" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1942">
@@ -60570,7 +60570,7 @@
         <v>42</v>
       </c>
       <c r="H1942" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1943">
@@ -60596,7 +60596,7 @@
         <v>42</v>
       </c>
       <c r="H1943" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1944">
@@ -60622,7 +60622,7 @@
         <v>42</v>
       </c>
       <c r="H1944" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1945">
@@ -60648,7 +60648,7 @@
         <v>42</v>
       </c>
       <c r="H1945" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1946">
@@ -60674,7 +60674,7 @@
         <v>42</v>
       </c>
       <c r="H1946" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1947">
@@ -60700,7 +60700,7 @@
         <v>42</v>
       </c>
       <c r="H1947" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1948">
@@ -60726,7 +60726,7 @@
         <v>42</v>
       </c>
       <c r="H1948" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1949">
@@ -60752,7 +60752,7 @@
         <v>42</v>
       </c>
       <c r="H1949" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1950">
@@ -60778,7 +60778,7 @@
         <v>42</v>
       </c>
       <c r="H1950" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1951">
@@ -60804,7 +60804,7 @@
         <v>42</v>
       </c>
       <c r="H1951" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1952">
@@ -60830,7 +60830,7 @@
         <v>42</v>
       </c>
       <c r="H1952" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1953">
@@ -60856,7 +60856,7 @@
         <v>42</v>
       </c>
       <c r="H1953" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1954">
@@ -60882,7 +60882,7 @@
         <v>42</v>
       </c>
       <c r="H1954" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1955">
@@ -60908,7 +60908,7 @@
         <v>42</v>
       </c>
       <c r="H1955" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1956">
@@ -60934,7 +60934,7 @@
         <v>42</v>
       </c>
       <c r="H1956" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1957">
@@ -60960,7 +60960,7 @@
         <v>42</v>
       </c>
       <c r="H1957" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1958">
@@ -60986,7 +60986,7 @@
         <v>42</v>
       </c>
       <c r="H1958" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1959">
@@ -61012,7 +61012,7 @@
         <v>42</v>
       </c>
       <c r="H1959" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1960">
@@ -61038,7 +61038,7 @@
         <v>42</v>
       </c>
       <c r="H1960" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1961">
@@ -61064,7 +61064,7 @@
         <v>42</v>
       </c>
       <c r="H1961" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1962">
@@ -61090,7 +61090,7 @@
         <v>42</v>
       </c>
       <c r="H1962" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1963">
@@ -61116,7 +61116,7 @@
         <v>42</v>
       </c>
       <c r="H1963" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1964">
@@ -61142,7 +61142,7 @@
         <v>42</v>
       </c>
       <c r="H1964" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1965">
@@ -61168,7 +61168,7 @@
         <v>42</v>
       </c>
       <c r="H1965" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1966">
@@ -61194,7 +61194,7 @@
         <v>42</v>
       </c>
       <c r="H1966" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1967">
@@ -61220,7 +61220,7 @@
         <v>42</v>
       </c>
       <c r="H1967" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1968">
@@ -61246,7 +61246,7 @@
         <v>42</v>
       </c>
       <c r="H1968" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1969">
@@ -61272,7 +61272,7 @@
         <v>42</v>
       </c>
       <c r="H1969" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1970">
@@ -61298,7 +61298,7 @@
         <v>42</v>
       </c>
       <c r="H1970" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1971">
@@ -61324,7 +61324,7 @@
         <v>42</v>
       </c>
       <c r="H1971" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1972">
@@ -61350,7 +61350,7 @@
         <v>42</v>
       </c>
       <c r="H1972" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1973">
@@ -61376,7 +61376,7 @@
         <v>42</v>
       </c>
       <c r="H1973" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1974">
@@ -61402,7 +61402,7 @@
         <v>42</v>
       </c>
       <c r="H1974" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1975">
@@ -61428,7 +61428,7 @@
         <v>42</v>
       </c>
       <c r="H1975" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1976">
@@ -61454,7 +61454,7 @@
         <v>42</v>
       </c>
       <c r="H1976" t="s">
-        <v>2780</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1977">
@@ -61480,7 +61480,7 @@
         <v>2682</v>
       </c>
       <c r="H1977" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1978">
@@ -61506,7 +61506,7 @@
         <v>2683</v>
       </c>
       <c r="H1978" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1979">
@@ -61532,7 +61532,7 @@
         <v>2684</v>
       </c>
       <c r="H1979" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1980">
@@ -61558,7 +61558,7 @@
         <v>2684</v>
       </c>
       <c r="H1980" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1981">
@@ -61584,7 +61584,7 @@
         <v>2685</v>
       </c>
       <c r="H1981" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1982">
@@ -61610,7 +61610,7 @@
         <v>2684</v>
       </c>
       <c r="H1982" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1983">
@@ -61636,7 +61636,7 @@
         <v>2685</v>
       </c>
       <c r="H1983" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1984">
@@ -61662,7 +61662,7 @@
         <v>2685</v>
       </c>
       <c r="H1984" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1985">
@@ -61688,7 +61688,7 @@
         <v>2685</v>
       </c>
       <c r="H1985" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1986">
@@ -61714,7 +61714,7 @@
         <v>2686</v>
       </c>
       <c r="H1986" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1987">
@@ -61740,7 +61740,7 @@
         <v>2687</v>
       </c>
       <c r="H1987" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1988">
@@ -61766,7 +61766,7 @@
         <v>2685</v>
       </c>
       <c r="H1988" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1989">
@@ -61792,7 +61792,7 @@
         <v>2685</v>
       </c>
       <c r="H1989" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1990">
@@ -61818,7 +61818,7 @@
         <v>2684</v>
       </c>
       <c r="H1990" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1991">
@@ -61844,7 +61844,7 @@
         <v>2684</v>
       </c>
       <c r="H1991" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1992">
@@ -61870,7 +61870,7 @@
         <v>2685</v>
       </c>
       <c r="H1992" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1993">
@@ -61896,7 +61896,7 @@
         <v>2685</v>
       </c>
       <c r="H1993" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1994">
@@ -61922,7 +61922,7 @@
         <v>2684</v>
       </c>
       <c r="H1994" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1995">
@@ -61948,7 +61948,7 @@
         <v>2685</v>
       </c>
       <c r="H1995" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1996">
@@ -61974,7 +61974,7 @@
         <v>2685</v>
       </c>
       <c r="H1996" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1997">
@@ -62000,7 +62000,7 @@
         <v>2688</v>
       </c>
       <c r="H1997" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1998">
@@ -62026,7 +62026,7 @@
         <v>2689</v>
       </c>
       <c r="H1998" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1999">
@@ -62052,7 +62052,7 @@
         <v>2684</v>
       </c>
       <c r="H1999" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2000">
@@ -62078,7 +62078,7 @@
         <v>2685</v>
       </c>
       <c r="H2000" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2001">
@@ -62104,7 +62104,7 @@
         <v>2690</v>
       </c>
       <c r="H2001" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2002">
@@ -62130,7 +62130,7 @@
         <v>2690</v>
       </c>
       <c r="H2002" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2003">
@@ -62156,7 +62156,7 @@
         <v>2690</v>
       </c>
       <c r="H2003" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2004">
@@ -62182,7 +62182,7 @@
         <v>2690</v>
       </c>
       <c r="H2004" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2005">
@@ -62208,7 +62208,7 @@
         <v>2690</v>
       </c>
       <c r="H2005" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2006">
@@ -62234,7 +62234,7 @@
         <v>2690</v>
       </c>
       <c r="H2006" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2007">
@@ -62260,7 +62260,7 @@
         <v>2690</v>
       </c>
       <c r="H2007" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2008">
@@ -62286,7 +62286,7 @@
         <v>2691</v>
       </c>
       <c r="H2008" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2009">
@@ -62312,7 +62312,7 @@
         <v>2691</v>
       </c>
       <c r="H2009" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2010">
@@ -62338,7 +62338,7 @@
         <v>2691</v>
       </c>
       <c r="H2010" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2011">
@@ -62364,7 +62364,7 @@
         <v>2691</v>
       </c>
       <c r="H2011" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2012">
@@ -62390,7 +62390,7 @@
         <v>2691</v>
       </c>
       <c r="H2012" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2013">
@@ -62416,7 +62416,7 @@
         <v>2685</v>
       </c>
       <c r="H2013" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2014">
@@ -62442,7 +62442,7 @@
         <v>2685</v>
       </c>
       <c r="H2014" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2015">
@@ -62468,7 +62468,7 @@
         <v>2685</v>
       </c>
       <c r="H2015" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2016">
@@ -62494,7 +62494,7 @@
         <v>2685</v>
       </c>
       <c r="H2016" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2017">
@@ -62520,7 +62520,7 @@
         <v>2690</v>
       </c>
       <c r="H2017" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2018">
